--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DD45E8-BF3F-4BA5-926C-AFE2960E1FF1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179016" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+  <si>
+    <t>re-do</t>
+  </si>
+  <si>
+    <t>changed annot</t>
+  </si>
+  <si>
+    <t>Tony's Projects</t>
+  </si>
+  <si>
+    <t>Hadoop BAM (genomics)</t>
+  </si>
+  <si>
+    <t>Chemistry DK.</t>
+  </si>
+  <si>
+    <t>Jannovar for VCF</t>
+  </si>
+  <si>
+    <t>Varsim</t>
+  </si>
+  <si>
+    <t>Cancer Registry cgritt</t>
+  </si>
+  <si>
+    <t>openCGA</t>
+  </si>
+  <si>
+    <t>intermine</t>
+  </si>
+  <si>
+    <t>Caleydo</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>Irida-dev</t>
+  </si>
   <si>
     <t>Nested type count</t>
   </si>
@@ -44,34 +84,28 @@
     <t>Primitive type Count</t>
   </si>
   <si>
-    <t>Hadoop BAM (genomics)</t>
+    <t>Marker Annotation</t>
+  </si>
+  <si>
+    <t>Import Declr</t>
+  </si>
+  <si>
+    <t>Nested Annotation</t>
+  </si>
+  <si>
+    <t>Local Annotation</t>
+  </si>
+  <si>
+    <t>Other Annotation</t>
   </si>
   <si>
     <t xml:space="preserve">Number of releases (check on git) </t>
   </si>
   <si>
-    <t>Chemistry DK.</t>
-  </si>
-  <si>
     <t>% nested compared to other declr types</t>
   </si>
   <si>
-    <t>Jannovar for VCF</t>
-  </si>
-  <si>
-    <t>Varsim</t>
-  </si>
-  <si>
-    <t>Cancer Registry cgritt</t>
-  </si>
-  <si>
-    <t>re-do</t>
-  </si>
-  <si>
-    <t>Caleydo</t>
-  </si>
-  <si>
-    <t>changed annot</t>
+    <t>s</t>
   </si>
   <si>
     <t xml:space="preserve">Wilfredo's Projects </t>
@@ -107,30 +141,12 @@
     <t>Terasology</t>
   </si>
   <si>
-    <t>Marker Annotation</t>
-  </si>
-  <si>
-    <t>Import Declr</t>
-  </si>
-  <si>
-    <t>Nested Annotation</t>
-  </si>
-  <si>
-    <t>Local Annotation</t>
-  </si>
-  <si>
-    <t>Other Annotation</t>
-  </si>
-  <si>
-    <t>openCGA</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logan's Projects </t>
   </si>
   <si>
+    <t>Crawler4j</t>
+  </si>
+  <si>
     <t>Incibator Dubbo</t>
   </si>
   <si>
@@ -155,9 +171,6 @@
     <t>pinpoint</t>
   </si>
   <si>
-    <t>Crawler4j</t>
-  </si>
-  <si>
     <t>openFire</t>
   </si>
   <si>
@@ -272,12 +285,12 @@
     <t>Dal's Projects</t>
   </si>
   <si>
+    <t>GriefPrevention</t>
+  </si>
+  <si>
     <t>EssentialsX</t>
   </si>
   <si>
-    <t>GriefPrevention</t>
-  </si>
-  <si>
     <t>EssentialsChat</t>
   </si>
   <si>
@@ -302,23 +315,56 @@
     <t>WorldEdit</t>
   </si>
   <si>
-    <t>Tony's Projects</t>
-  </si>
-  <si>
-    <t>intermine</t>
-  </si>
-  <si>
-    <t>IGV</t>
-  </si>
-  <si>
-    <t>Irida-dev</t>
+    <t>Number of releases (check on git) </t>
+  </si>
+  <si>
+    <t>Shay's Projects</t>
+  </si>
+  <si>
+    <t>BBM Secure Comms</t>
+  </si>
+  <si>
+    <t>BB web samples</t>
+  </si>
+  <si>
+    <t>All Algorithms</t>
+  </si>
+  <si>
+    <t>DeepLearning</t>
+  </si>
+  <si>
+    <t>ExoPlayer</t>
+  </si>
+  <si>
+    <t>Dex2Java Decompiler</t>
+  </si>
+  <si>
+    <t>Net Cipher</t>
+  </si>
+  <si>
+    <t>ReactiveExtensionsForJVM</t>
+  </si>
+  <si>
+    <t>Java9 ASTParser</t>
+  </si>
+  <si>
+    <t>Replacement4SQLITE&amp;ORMs</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>Before NullFIX</t>
+  </si>
+  <si>
+    <t>After NullFIX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +380,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -451,11 +515,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +558,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,116 +848,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K99" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B115" sqref="B115:P115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="11" width="15" customWidth="1"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G1" t="s">
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>154</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>230</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>119</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>183</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>69</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
       <c r="F4" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
@@ -877,181 +965,186 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <f>0+42+34+41+8+2+1+2+3+19</f>
         <v>152</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>29</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>274</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>39</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>34</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>2436</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>525</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>81</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>155</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>830</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1932</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2108</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1007</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>67</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>7242</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1278</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>213</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>193</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1908</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2308</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>7628</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>3522</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>47</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <v>10289</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>1145</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>51</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>444</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1491</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1497</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>3648</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>879</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>2675</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E9" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
@@ -1059,6 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -1070,27 +1164,27 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E10" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G10" s="1">
@@ -1098,6 +1192,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -1109,27 +1204,27 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E11" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
@@ -1137,6 +1232,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1148,183 +1244,184 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
       <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
       <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.75">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <f>B3/B6*100</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:K14" si="0">C3/C6*100</f>
+      <c r="D14">
+        <f t="shared" ref="D14:L14" si="0">D3/D6*100</f>
         <v>6.3218390804597711</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>2.0952380952380953</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>4.9382716049382713</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>9.67741935483871</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>27.710843373493976</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>6.1594202898550732</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>8.6812144212523723</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>6.8520357497517379</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>4.0506329113924053</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>37</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>104</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>64</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>13</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>93</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>106</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
         <v>0</v>
       </c>
@@ -1344,127 +1441,127 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>15</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>609</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>29</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>105</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>154</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>270</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>301</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1268</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21007</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>39</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>183</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>84</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>702</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2486</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>726</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>78</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2659</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>6886</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>152</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1273</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>144</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4127</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4679</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -1489,17 +1586,17 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1524,327 +1621,328 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
       <c r="A29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <f>B19/B22*100</f>
         <v>3.322259136212625</v>
       </c>
-      <c r="C30">
-        <f>C19/C22*100</f>
+      <c r="D30">
+        <f>D19/D22*100</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D30">
-        <f t="shared" ref="D30:K30" si="1">D19/D22*100</f>
+      <c r="E30">
+        <f t="shared" ref="E30:L30" si="1">E19/E22*100</f>
         <v>2.9179810725552051</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>0.49507307088113484</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>20.512820512820511</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>34.972677595628419</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>15.476190476190476</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="1"/>
         <v>13.247863247863249</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>4.2638777152051484</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" si="1"/>
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>141</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>84</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>55</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>96</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>51</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>239</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>351</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
+      <c r="K35">
         <v>6</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>75</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>229</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>14</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>138</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>34</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>93</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>9</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>236</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>71</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1247</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1427</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>607</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>465</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>547</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1387</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>165</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3809</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>256</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>3264</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1194</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1149</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>786</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2546</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4871</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>471</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>10604</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4809</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>48</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1023</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4443</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>896</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1294</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>980</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1885</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>200</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>7221</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1370</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
       <c r="D40">
         <v>0</v>
       </c>
@@ -1869,29 +1967,29 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>7</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -1899,22 +1997,22 @@
         <v>0</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>6</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
       <c r="D42">
         <v>0</v>
       </c>
@@ -1939,172 +2037,175 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>15</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>5</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>3</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>40</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75">
       <c r="A44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <f>B34/B37*100</f>
         <v>11.267605633802818</v>
       </c>
-      <c r="C45">
-        <f>C34/C37*100</f>
+      <c r="D45">
+        <f>D34/D37*100</f>
         <v>11.307137129109863</v>
       </c>
-      <c r="D45">
-        <f t="shared" ref="D45:K45" si="2">D34/D37*100</f>
+      <c r="E45">
+        <f t="shared" ref="E45:L45" si="2">E34/E37*100</f>
         <v>5.8864751226348977</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="2"/>
         <v>9.0609555189456348</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="2"/>
         <v>20.64516129032258</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="2"/>
         <v>9.3235831809872032</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="2"/>
         <v>17.231434751261716</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="2"/>
         <v>3.6363636363636362</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="2"/>
         <v>9.2150170648464158</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f t="shared" si="2"/>
         <v>5.3559764859568908</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="94.5">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
       <c r="A49" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B49" s="5">
         <v>71</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5"/>
+      <c r="D49">
         <v>22</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>20</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>4</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>14</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
       <c r="A50" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50">
         <v>0</v>
       </c>
@@ -2129,17 +2230,18 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
+      <c r="C51" s="5"/>
       <c r="D51">
         <v>0</v>
       </c>
@@ -2164,122 +2266,126 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
       <c r="A52" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52" s="5">
         <v>459</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5"/>
+      <c r="D52">
         <v>177</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>11</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>61</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>45</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>58</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>39</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>334</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="15.75">
       <c r="A53" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B53" s="5">
         <v>1181</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5"/>
+      <c r="D53">
         <v>542</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>3</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>112</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>116</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>165</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>117</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>1088</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="15.75">
       <c r="A54" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54" s="5">
         <v>517</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5"/>
+      <c r="D54">
         <v>78</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>27</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>311</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>62</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>74</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>190</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15.75">
       <c r="A55" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
+      <c r="C55" s="5"/>
       <c r="D55">
         <v>0</v>
       </c>
@@ -2304,87 +2410,88 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="L58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>45</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>51</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>62</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>19</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>43</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>7</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>6</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>4</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15.75">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
       <c r="D60">
         <v>0</v>
       </c>
@@ -2409,157 +2516,157 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>49</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>119</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>243</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>11</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>167</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>8</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>24</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>4</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15.75">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>259</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>361</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>541</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>211</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>232</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>18</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>79</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>24</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="15.75">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <v>71</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>873</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>478</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>762</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>441</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>924</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>139</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>110</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>28</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>896</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="15.75">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>11</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>312</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>280</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>396</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>152</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>453</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>66</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>107</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>38</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15.75">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
       <c r="D65">
         <v>0</v>
       </c>
@@ -2584,17 +2691,17 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
       <c r="D66">
         <v>0</v>
       </c>
@@ -2619,17 +2726,17 @@
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
       <c r="D67">
         <v>0</v>
       </c>
@@ -2654,29 +2761,29 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>1</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>0</v>
       </c>
@@ -2687,905 +2794,1625 @@
         <v>0</v>
       </c>
       <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15.75">
       <c r="A69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <f>B59/B62*100</f>
         <v>50</v>
       </c>
-      <c r="C70">
-        <f>C59/C62*100</f>
+      <c r="D70">
+        <f>D59/D62*100</f>
         <v>17.374517374517374</v>
       </c>
-      <c r="D70">
-        <f t="shared" ref="D70:K70" si="3">D59/D62*100</f>
+      <c r="E70">
+        <f t="shared" ref="E70:L70" si="3">E59/E62*100</f>
         <v>14.127423822714682</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <f t="shared" si="3"/>
         <v>11.460258780036968</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <f t="shared" si="3"/>
         <v>9.0047393364928912</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <f t="shared" si="3"/>
         <v>18.53448275862069</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <f t="shared" si="3"/>
         <v>38.888888888888893</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <f t="shared" si="3"/>
         <v>7.59493670886076</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <f t="shared" si="3"/>
         <v>19.182389937106919</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75"/>
+    <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C74" s="22"/>
       <c r="D74" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B75" s="11">
         <v>789</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11">
         <v>467</v>
       </c>
-      <c r="D75" s="11">
+      <c r="E75" s="11">
         <v>10</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>600</v>
       </c>
-      <c r="F75" s="11">
+      <c r="G75" s="11">
         <v>36</v>
       </c>
-      <c r="G75" s="12">
+      <c r="H75" s="12">
         <v>225</v>
       </c>
-      <c r="H75" s="11">
+      <c r="I75" s="11">
         <v>613</v>
       </c>
-      <c r="I75" s="12">
+      <c r="J75" s="12">
         <v>76</v>
       </c>
-      <c r="J75" s="11">
+      <c r="K75" s="11">
         <v>10</v>
       </c>
-      <c r="K75" s="13">
+      <c r="L75" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15.75">
       <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="11">
+        <v>0</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
         <v>1</v>
       </c>
-      <c r="B76" s="11">
-        <v>0</v>
-      </c>
-      <c r="C76" s="11">
-        <v>0</v>
-      </c>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
-      <c r="G76" s="12">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
-        <v>1</v>
-      </c>
-      <c r="J76" s="11">
-        <v>0</v>
-      </c>
       <c r="K76" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B77" s="11">
         <v>79</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11">
         <v>319</v>
       </c>
-      <c r="D77" s="11">
+      <c r="E77" s="11">
         <v>9</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>132</v>
       </c>
-      <c r="F77" s="11">
+      <c r="G77" s="11">
         <v>31</v>
       </c>
-      <c r="G77" s="12">
+      <c r="H77" s="12">
         <v>38</v>
       </c>
-      <c r="H77" s="11">
+      <c r="I77" s="11">
         <v>208</v>
       </c>
-      <c r="I77" s="12">
+      <c r="J77" s="12">
         <v>15</v>
       </c>
-      <c r="J77" s="11">
-        <v>0</v>
-      </c>
       <c r="K77" s="11">
+        <v>0</v>
+      </c>
+      <c r="L77" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15.75">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B78" s="11">
         <v>1686</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11">
         <v>2265</v>
       </c>
-      <c r="D78" s="11">
+      <c r="E78" s="11">
         <v>760</v>
       </c>
-      <c r="E78" s="14">
+      <c r="F78" s="14">
         <v>408</v>
       </c>
-      <c r="F78" s="11">
+      <c r="G78" s="11">
         <v>1949</v>
       </c>
-      <c r="G78" s="12">
+      <c r="H78" s="12">
         <v>225</v>
       </c>
-      <c r="H78" s="11">
+      <c r="I78" s="11">
         <v>1478</v>
       </c>
-      <c r="I78" s="12">
+      <c r="J78" s="12">
         <v>1268</v>
       </c>
-      <c r="J78" s="11">
+      <c r="K78" s="11">
         <v>79</v>
       </c>
-      <c r="K78" s="11">
+      <c r="L78" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="15.75">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B79" s="11">
         <v>13134</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11">
         <v>53529</v>
       </c>
-      <c r="D79" s="11">
+      <c r="E79" s="11">
         <v>1219</v>
       </c>
-      <c r="E79" s="14">
+      <c r="F79" s="14">
         <v>796</v>
       </c>
-      <c r="F79" s="11">
+      <c r="G79" s="11">
         <v>2269</v>
       </c>
-      <c r="G79" s="12">
+      <c r="H79" s="12">
         <v>996</v>
       </c>
-      <c r="H79" s="11">
+      <c r="I79" s="11">
         <v>4720</v>
       </c>
-      <c r="I79" s="12">
+      <c r="J79" s="12">
         <v>3567</v>
       </c>
-      <c r="J79" s="11">
+      <c r="K79" s="11">
         <v>71</v>
       </c>
-      <c r="K79" s="11">
+      <c r="L79" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.75">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B80" s="11">
         <v>2150</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11">
         <v>5288</v>
       </c>
-      <c r="D80" s="11">
+      <c r="E80" s="11">
         <v>1111</v>
       </c>
-      <c r="E80" s="14">
+      <c r="F80" s="14">
         <v>1856</v>
       </c>
-      <c r="F80" s="11">
+      <c r="G80" s="11">
         <v>1861</v>
       </c>
-      <c r="G80" s="12">
+      <c r="H80" s="12">
         <v>585</v>
       </c>
-      <c r="H80" s="11">
+      <c r="I80" s="11">
         <v>2764</v>
       </c>
-      <c r="I80" s="12">
+      <c r="J80" s="12">
         <v>1479</v>
       </c>
-      <c r="J80" s="11">
+      <c r="K80" s="11">
         <v>204</v>
       </c>
-      <c r="K80" s="11">
+      <c r="L80" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B81" s="11">
         <v>0</v>
       </c>
-      <c r="C81" s="11">
-        <v>0</v>
-      </c>
+      <c r="C81" s="11"/>
       <c r="D81" s="11">
         <v>0</v>
       </c>
-      <c r="E81" s="14">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>0</v>
-      </c>
-      <c r="G81" s="12">
-        <v>0</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="12">
-        <v>0</v>
-      </c>
-      <c r="J81" s="11">
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
         <v>0</v>
       </c>
       <c r="K81" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B82" s="11">
         <v>3</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11">
         <v>1</v>
       </c>
-      <c r="D82" s="11">
-        <v>0</v>
-      </c>
-      <c r="E82" s="14">
+      <c r="E82" s="11">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
         <v>13</v>
       </c>
-      <c r="F82" s="11">
-        <v>0</v>
-      </c>
-      <c r="G82" s="12">
-        <v>0</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="12">
-        <v>0</v>
-      </c>
-      <c r="J82" s="11">
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+      <c r="K82" s="11">
         <v>1</v>
       </c>
-      <c r="K82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B83" s="11">
         <v>0</v>
       </c>
-      <c r="C83" s="11">
-        <v>0</v>
-      </c>
+      <c r="C83" s="11"/>
       <c r="D83" s="11">
         <v>0</v>
       </c>
-      <c r="E83" s="14">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0</v>
-      </c>
-      <c r="G83" s="12">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="12">
-        <v>0</v>
-      </c>
-      <c r="J83" s="11">
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
         <v>0</v>
       </c>
       <c r="K83" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B84" s="11">
         <v>8</v>
       </c>
-      <c r="C84" s="11">
-        <v>0</v>
-      </c>
+      <c r="C84" s="11"/>
       <c r="D84" s="11">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <v>1</v>
       </c>
-      <c r="E84" s="14">
+      <c r="F84" s="14">
         <v>20</v>
       </c>
-      <c r="F84" s="11">
+      <c r="G84" s="11">
         <v>5</v>
       </c>
-      <c r="G84" s="12">
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
         <v>6</v>
       </c>
-      <c r="I84" s="12">
+      <c r="J84" s="12">
         <v>2</v>
       </c>
-      <c r="J84" s="11">
+      <c r="K84" s="11">
         <v>1</v>
       </c>
-      <c r="K84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="I85" s="13"/>
       <c r="K85" s="13"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="13"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="16"/>
-    </row>
-    <row r="87" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="16"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75"/>
+    <row r="88" spans="1:12" ht="15.75">
       <c r="A88" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>81</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C88" s="22"/>
       <c r="D88" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B89" s="11">
         <v>0</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="11"/>
+      <c r="D89" s="11">
         <v>25</v>
       </c>
-      <c r="D89" s="11">
+      <c r="E89" s="11">
         <v>2</v>
       </c>
-      <c r="E89" s="17">
+      <c r="F89" s="17">
         <v>40</v>
       </c>
-      <c r="F89" s="11">
-        <v>0</v>
-      </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12">
         <v>2</v>
       </c>
-      <c r="H89" s="11">
+      <c r="I89" s="11">
         <v>45</v>
       </c>
-      <c r="I89" s="12">
+      <c r="J89" s="12">
         <v>1</v>
       </c>
-      <c r="J89" s="11">
-        <v>0</v>
-      </c>
-      <c r="K89" s="13">
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15.75">
       <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11">
+        <v>4</v>
+      </c>
+      <c r="E91" s="11">
+        <v>5</v>
+      </c>
+      <c r="F91" s="17">
+        <v>18</v>
+      </c>
+      <c r="G91" s="11">
         <v>1</v>
       </c>
-      <c r="B90" s="11">
-        <v>0</v>
-      </c>
-      <c r="C90" s="11">
-        <v>0</v>
-      </c>
-      <c r="D90" s="11">
-        <v>0</v>
-      </c>
-      <c r="E90" s="17">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="12">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="12">
-        <v>0</v>
-      </c>
-      <c r="J90" s="11">
-        <v>0</v>
-      </c>
-      <c r="K90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="H91" s="12">
+        <v>10</v>
+      </c>
+      <c r="I91" s="11">
+        <v>14</v>
+      </c>
+      <c r="J91" s="12">
+        <v>16</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11">
         <v>2</v>
       </c>
-      <c r="B91" s="11">
-        <v>0</v>
-      </c>
-      <c r="C91" s="11">
-        <v>4</v>
-      </c>
-      <c r="D91" s="11">
-        <v>5</v>
-      </c>
-      <c r="E91" s="17">
-        <v>18</v>
-      </c>
-      <c r="F91" s="11">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12">
-        <v>10</v>
-      </c>
-      <c r="H91" s="11">
-        <v>14</v>
-      </c>
-      <c r="I91" s="12">
+    </row>
+    <row r="92" spans="1:12" ht="15.75">
+      <c r="A92" t="s">
         <v>16</v>
-      </c>
-      <c r="J91" s="11">
-        <v>0</v>
-      </c>
-      <c r="K91" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>3</v>
       </c>
       <c r="B92" s="11">
         <v>18</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="11"/>
+      <c r="D92" s="11">
         <v>263</v>
       </c>
-      <c r="D92" s="11">
+      <c r="E92" s="11">
         <v>33</v>
       </c>
-      <c r="E92" s="17">
+      <c r="F92" s="17">
         <v>296</v>
       </c>
-      <c r="F92" s="11">
+      <c r="G92" s="11">
         <v>47</v>
       </c>
-      <c r="G92" s="12">
+      <c r="H92" s="12">
         <v>95</v>
       </c>
-      <c r="H92" s="11">
+      <c r="I92" s="11">
         <v>192</v>
       </c>
-      <c r="I92" s="12">
+      <c r="J92" s="12">
         <v>68</v>
       </c>
-      <c r="J92" s="11">
+      <c r="K92" s="11">
         <v>31</v>
       </c>
-      <c r="K92" s="11">
+      <c r="L92" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15.75">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B93" s="11">
         <v>14</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11">
         <v>1250</v>
       </c>
-      <c r="D93" s="11">
+      <c r="E93" s="11">
         <v>60</v>
       </c>
-      <c r="E93" s="17">
+      <c r="F93" s="17">
         <v>817</v>
       </c>
-      <c r="F93" s="11">
+      <c r="G93" s="11">
         <v>37</v>
       </c>
-      <c r="G93" s="12">
+      <c r="H93" s="12">
         <v>512</v>
       </c>
-      <c r="H93" s="11">
+      <c r="I93" s="11">
         <v>414</v>
       </c>
-      <c r="I93" s="12">
+      <c r="J93" s="12">
         <v>107</v>
       </c>
-      <c r="J93" s="11">
+      <c r="K93" s="11">
         <v>38</v>
       </c>
-      <c r="K93" s="11">
+      <c r="L93" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15.75">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B94" s="11">
         <v>25</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11">
         <v>920</v>
       </c>
-      <c r="D94" s="11">
+      <c r="E94" s="11">
         <v>52</v>
       </c>
-      <c r="E94" s="17">
+      <c r="F94" s="17">
         <v>639</v>
       </c>
-      <c r="F94" s="11">
+      <c r="G94" s="11">
         <v>50</v>
       </c>
-      <c r="G94" s="12">
+      <c r="H94" s="12">
         <v>195</v>
       </c>
-      <c r="H94" s="11">
+      <c r="I94" s="11">
         <v>197</v>
       </c>
-      <c r="I94" s="12">
+      <c r="J94" s="12">
         <v>101</v>
       </c>
-      <c r="J94" s="11">
+      <c r="K94" s="11">
         <v>51</v>
       </c>
-      <c r="K94" s="11">
+      <c r="L94" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15.75">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B95" s="11">
         <v>0</v>
       </c>
-      <c r="C95" s="11">
-        <v>0</v>
-      </c>
+      <c r="C95" s="11"/>
       <c r="D95" s="11">
         <v>0</v>
       </c>
-      <c r="E95" s="17">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="12">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="12">
-        <v>0</v>
-      </c>
-      <c r="J95" s="11">
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="17">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
         <v>0</v>
       </c>
       <c r="K95" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B96" s="11">
         <v>0</v>
       </c>
-      <c r="C96" s="11">
-        <v>0</v>
-      </c>
+      <c r="C96" s="11"/>
       <c r="D96" s="11">
         <v>0</v>
       </c>
-      <c r="E96" s="17">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-      <c r="G96" s="12">
-        <v>0</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="12">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11">
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0</v>
+      </c>
+      <c r="J96" s="12">
         <v>0</v>
       </c>
       <c r="K96" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="15.75">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B97" s="11">
         <v>0</v>
       </c>
-      <c r="C97" s="11">
-        <v>0</v>
-      </c>
+      <c r="C97" s="11"/>
       <c r="D97" s="11">
         <v>0</v>
       </c>
-      <c r="E97" s="17">
-        <v>0</v>
-      </c>
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-      <c r="G97" s="12">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="12">
-        <v>0</v>
-      </c>
-      <c r="J97" s="11">
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
         <v>0</v>
       </c>
       <c r="K97" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="15.75">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B98" s="11">
         <v>0</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11">
         <v>4</v>
       </c>
-      <c r="D98" s="11">
-        <v>0</v>
-      </c>
-      <c r="E98" s="17">
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="17">
         <v>1</v>
       </c>
-      <c r="F98" s="11">
-        <v>0</v>
-      </c>
-      <c r="G98" s="12">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="12">
-        <v>0</v>
-      </c>
-      <c r="J98" s="11">
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
         <v>0</v>
       </c>
       <c r="K98" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="15.75">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B99" s="13">
         <v>15</v>
       </c>
-      <c r="C99" s="13">
-        <v>45</v>
-      </c>
+      <c r="C99" s="13"/>
       <c r="D99" s="13">
         <v>45</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="13">
+        <v>45</v>
+      </c>
+      <c r="F99" s="17">
         <v>70</v>
       </c>
-      <c r="F99" s="13">
+      <c r="G99" s="13">
         <v>32</v>
       </c>
-      <c r="G99" s="12">
+      <c r="H99" s="12">
         <v>10</v>
       </c>
-      <c r="H99" s="13">
+      <c r="I99" s="13">
         <v>16</v>
       </c>
-      <c r="I99" s="18">
+      <c r="J99" s="18">
         <v>11</v>
       </c>
-      <c r="J99" s="13">
+      <c r="K99" s="13">
         <v>69</v>
       </c>
-      <c r="K99" s="13">
+      <c r="L99" s="13">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="15.75">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
       <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+    </row>
+    <row r="101" spans="1:17" ht="15.75"/>
+    <row r="102" spans="1:17" ht="15.75">
+      <c r="A102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P102" s="20"/>
+    </row>
+    <row r="103" spans="1:17" ht="15.75">
+      <c r="A103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L103" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M103" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P103" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q103" s="23"/>
+    </row>
+    <row r="104" spans="1:17" ht="15.75">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>127</v>
+      </c>
+      <c r="F104">
+        <v>127</v>
+      </c>
+      <c r="G104">
+        <v>200</v>
+      </c>
+      <c r="H104">
+        <v>200</v>
+      </c>
+      <c r="I104">
+        <v>362</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>772</v>
+      </c>
+      <c r="L104">
+        <v>772</v>
+      </c>
+      <c r="M104">
+        <v>129</v>
+      </c>
+      <c r="N104">
+        <v>129</v>
+      </c>
+      <c r="O104">
+        <v>60</v>
+      </c>
+      <c r="P104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="15.75">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>17</v>
+      </c>
+      <c r="N105">
+        <v>17</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15.75">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>47</v>
+      </c>
+      <c r="F106">
+        <v>47</v>
+      </c>
+      <c r="G106">
+        <v>59</v>
+      </c>
+      <c r="H106">
+        <v>67</v>
+      </c>
+      <c r="I106">
+        <v>96</v>
+      </c>
+      <c r="J106">
+        <v>18</v>
+      </c>
+      <c r="K106">
+        <v>3221</v>
+      </c>
+      <c r="L106">
+        <v>3342</v>
+      </c>
+      <c r="M106">
+        <v>54</v>
+      </c>
+      <c r="N106">
+        <v>54</v>
+      </c>
+      <c r="O106">
+        <v>40</v>
+      </c>
+      <c r="P106">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15.75">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>58</v>
+      </c>
+      <c r="C107">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <v>114</v>
+      </c>
+      <c r="E107">
+        <v>1741</v>
+      </c>
+      <c r="F107">
+        <v>1741</v>
+      </c>
+      <c r="G107">
+        <v>676</v>
+      </c>
+      <c r="H107">
+        <v>676</v>
+      </c>
+      <c r="I107">
+        <v>538</v>
+      </c>
+      <c r="J107">
+        <v>46</v>
+      </c>
+      <c r="K107">
+        <v>1562</v>
+      </c>
+      <c r="L107">
+        <v>1562</v>
+      </c>
+      <c r="M107">
+        <v>1296</v>
+      </c>
+      <c r="N107">
+        <v>1296</v>
+      </c>
+      <c r="O107">
+        <v>545</v>
+      </c>
+      <c r="P107">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="15.75">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>57</v>
+      </c>
+      <c r="D108">
+        <v>358</v>
+      </c>
+      <c r="E108">
+        <v>8607</v>
+      </c>
+      <c r="F108">
+        <v>8607</v>
+      </c>
+      <c r="G108">
+        <v>5944</v>
+      </c>
+      <c r="H108">
+        <v>5952</v>
+      </c>
+      <c r="I108">
+        <v>2151</v>
+      </c>
+      <c r="J108">
+        <v>70</v>
+      </c>
+      <c r="K108">
+        <v>5482</v>
+      </c>
+      <c r="L108">
+        <v>5485</v>
+      </c>
+      <c r="M108">
+        <v>3505</v>
+      </c>
+      <c r="N108">
+        <v>3505</v>
+      </c>
+      <c r="O108">
+        <v>1554</v>
+      </c>
+      <c r="P108">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="15.75">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <v>38</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>4147</v>
+      </c>
+      <c r="F109">
+        <v>4147</v>
+      </c>
+      <c r="G109">
+        <v>1756</v>
+      </c>
+      <c r="H109">
+        <v>1756</v>
+      </c>
+      <c r="I109">
+        <v>838</v>
+      </c>
+      <c r="J109">
+        <v>110</v>
+      </c>
+      <c r="K109">
+        <v>13739</v>
+      </c>
+      <c r="L109">
+        <v>13890</v>
+      </c>
+      <c r="M109">
+        <v>5419</v>
+      </c>
+      <c r="N109">
+        <v>5419</v>
+      </c>
+      <c r="O109">
+        <v>1150</v>
+      </c>
+      <c r="P109">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="15.75">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="15.75">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>58</v>
+      </c>
+      <c r="H111">
+        <v>58</v>
+      </c>
+      <c r="I111">
+        <v>9</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="15.75">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15.75">
+      <c r="A113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>8</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <v>14</v>
+      </c>
+      <c r="P113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="15.95" customHeight="1">
+      <c r="A114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" s="19">
+        <v>48</v>
+      </c>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19">
+        <v>112</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114">
+        <v>10</v>
+      </c>
+      <c r="J114">
+        <v>4</v>
+      </c>
+      <c r="K114" s="19">
+        <v>197</v>
+      </c>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19">
+        <v>86</v>
+      </c>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19">
+        <v>142</v>
+      </c>
+      <c r="P114" s="19"/>
+    </row>
+    <row r="115" spans="1:16" ht="15.75">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115">
+        <f>(B104/SUM(B104:B113)) * 100</f>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ref="C115:P115" si="4">(C104/SUM(C104:C113)) * 100</f>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>0.86577135455722953</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>0.86577135455722953</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>2.300701714022777</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="4"/>
+        <v>2.2964749110115972</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="4"/>
+        <v>9.0613266583229031</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="4"/>
+        <v>3.1746031746031744</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>3.1147871696590683</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="4"/>
+        <v>3.080606544293695</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="4"/>
+        <v>1.2372913869173221</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="4"/>
+        <v>1.2372913869173221</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="4"/>
+        <v>1.784121320249777</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="4"/>
+        <v>1.7688679245283019</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:N102"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DD45E8-BF3F-4BA5-926C-AFE2960E1FF1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE03B33C-3671-4032-86FB-28EEF0682E7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
   <si>
     <t>re-do</t>
   </si>
@@ -108,6 +108,9 @@
     <t>s</t>
   </si>
   <si>
+    <t xml:space="preserve">% local " " " " " </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wilfredo's Projects </t>
   </si>
   <si>
@@ -358,6 +361,15 @@
   </si>
   <si>
     <t>After NullFIX</t>
+  </si>
+  <si>
+    <t>% annon " " " " "</t>
+  </si>
+  <si>
+    <t>% local " " " " "</t>
+  </si>
+  <si>
+    <t>% nested + annon + local " " " " "</t>
   </si>
 </sst>
 </file>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K99" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B115" sqref="B115:P115"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -1340,44 +1352,46 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
@@ -1692,38 +1706,38 @@
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75">
@@ -2128,38 +2142,38 @@
     </row>
     <row r="48" spans="1:12" ht="94.5">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75">
@@ -2272,7 +2286,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75">
       <c r="A52" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5">
         <v>459</v>
@@ -2344,7 +2358,7 @@
     </row>
     <row r="54" spans="1:12" ht="15.75">
       <c r="A54" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="5">
         <v>517</v>
@@ -2380,7 +2394,7 @@
     </row>
     <row r="55" spans="1:12" ht="15.75">
       <c r="A55" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -2416,38 +2430,38 @@
     </row>
     <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75">
@@ -2853,38 +2867,38 @@
     <row r="73" spans="1:12" ht="15.75"/>
     <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75">
@@ -3277,38 +3291,38 @@
     <row r="87" spans="1:12" ht="15.75"/>
     <row r="88" spans="1:12" ht="15.75">
       <c r="A88" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75">
@@ -3673,7 +3687,7 @@
     </row>
     <row r="99" spans="1:17" ht="15.75">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="13">
         <v>15</v>
@@ -3724,77 +3738,77 @@
     <row r="101" spans="1:17" ht="15.75"/>
     <row r="102" spans="1:17" ht="15.75">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H102" s="20"/>
       <c r="I102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L102" s="20"/>
       <c r="M102" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N102" s="20"/>
       <c r="O102" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P102" s="20"/>
     </row>
     <row r="103" spans="1:17" ht="15.75">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G103" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="H103" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K103" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K103" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="L103" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M103" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M103" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="N103" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O103" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O103" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="P103" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q103" s="23"/>
     </row>
@@ -4300,7 +4314,7 @@
     </row>
     <row r="114" spans="1:16" ht="15.95" customHeight="1">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -4398,6 +4412,201 @@
       <c r="P115">
         <f t="shared" si="4"/>
         <v>1.7688679245283019</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <f>(B106/SUM(B104:B113)) * 100</f>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ref="C116:P116" si="5">(C106/SUM(C104:C113)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
+        <v>0.32040357215897475</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>0.32040357215897475</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>0.67870700563671926</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>0.76931909518888508</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="5"/>
+        <v>2.4030037546933665</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="5"/>
+        <v>12.995763566673391</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="5"/>
+        <v>13.335993615323224</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="5"/>
+        <v>0.51793592940725108</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="5"/>
+        <v>0.51793592940725108</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="5"/>
+        <v>1.1894142134998513</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="5"/>
+        <v>1.3856132075471699</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117">
+        <f>(B105/SUM(B104:B113)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ref="C117:P117" si="6">(C105/SUM(C104:C113)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="6"/>
+        <v>4.03469840629413E-3</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="6"/>
+        <v>3.9904229848363925E-3</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="6"/>
+        <v>0.16305390370228276</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="6"/>
+        <v>0.16305390370228276</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118">
+        <f>SUM(B115:B117)</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:P118" si="7">SUM(C115:C117)</f>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="7"/>
+        <v>1.1861749267162043</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="7"/>
+        <v>1.1861749267162043</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="7"/>
+        <v>2.9794087196594963</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>3.0657940062004823</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="7"/>
+        <v>11.46433041301627</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>10.317460317460316</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>16.114585434738753</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="7"/>
+        <v>16.420590582601754</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="7"/>
+        <v>1.918281220026856</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="7"/>
+        <v>1.918281220026856</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="7"/>
+        <v>2.9735355337496285</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="7"/>
+        <v>3.154481132075472</v>
       </c>
     </row>
   </sheetData>

--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE03B33C-3671-4032-86FB-28EEF0682E7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB884C46-06F0-4033-ABD8-BE4E3649571F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="120">
   <si>
     <t>re-do</t>
   </si>
@@ -252,6 +252,12 @@
     <t>Plaid App</t>
   </si>
   <si>
+    <t>% anon " " " " "</t>
+  </si>
+  <si>
+    <t>% nested + annon + local " " " " "</t>
+  </si>
+  <si>
     <t>Josh's Projects</t>
   </si>
   <si>
@@ -336,9 +342,15 @@
     <t>DeepLearning</t>
   </si>
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
     <t>ExoPlayer</t>
   </si>
   <si>
+    <t>Column2</t>
+  </si>
+  <si>
     <t>Dex2Java Decompiler</t>
   </si>
   <si>
@@ -348,12 +360,21 @@
     <t>ReactiveExtensionsForJVM</t>
   </si>
   <si>
+    <t>Column3</t>
+  </si>
+  <si>
     <t>Java9 ASTParser</t>
   </si>
   <si>
+    <t>Column4</t>
+  </si>
+  <si>
     <t>Replacement4SQLITE&amp;ORMs</t>
   </si>
   <si>
+    <t>Column5</t>
+  </si>
+  <si>
     <t>VERSION</t>
   </si>
   <si>
@@ -367,9 +388,6 @@
   </si>
   <si>
     <t>% local " " " " "</t>
-  </si>
-  <si>
-    <t>% nested + annon + local " " " " "</t>
   </si>
 </sst>
 </file>
@@ -411,15 +429,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -497,15 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -540,11 +555,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,25 +700,624 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="42">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -596,6 +1328,91 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{94E11066-D39A-495D-9BEB-911B0448E465}" name="Table4" displayName="Table4" ref="A109:P126" totalsRowShown="0" headerRowBorderDxfId="40" tableBorderDxfId="41">
+  <autoFilter ref="A109:P126" xr:uid="{24F16B19-2CFD-42A5-BB81-30063C44ACC2}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{3D790CFF-D409-457E-92AC-0FDB94C6EBBC}" name="Shay's Projects"/>
+    <tableColumn id="2" xr3:uid="{A632F03F-50CB-4481-A22E-18560207E6BE}" name="BBM Secure Comms" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{12516CD1-0F5C-454A-8E67-B207FFE08707}" name="BB web samples" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{29C9EB4C-DFB6-4CCC-9E70-75638AD83338}" name="All Algorithms" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{30BA290A-69AC-4D43-9F76-8659E262170D}" name="DeepLearning" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{F0CAB773-6762-40B7-8F7C-99BD085219C6}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{68F17F61-6B6D-4A3F-A0D9-D0902F2239E0}" name="ExoPlayer" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{E8821A2F-C40A-4222-ADAC-0D9C36BE416C}" name="Column2" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{61848FC6-9318-41B9-84E6-251614C57A0C}" name="Dex2Java Decompiler" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{23973635-870F-44A7-B067-E8418D7C7B14}" name="Net Cipher" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{16869352-DF5D-433F-86E0-AFF9E3ADBC80}" name="ReactiveExtensionsForJVM" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{FEAAD180-1359-4919-B35B-4D4C9E9C0FAC}" name="Column3" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{6D64A120-E11F-4951-A4B5-8C619D641C8B}" name="Java9 ASTParser"/>
+    <tableColumn id="14" xr3:uid="{E8D23677-C296-4638-9DD2-87B30F413688}" name="Column4" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{5763E627-7EFD-415C-B9DA-B53CA3139D6B}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{5A38DE2D-5523-48F8-B7DC-D039844E0E22}" name="Column5" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4F710499-2E1C-4B98-8892-5D44B6C3796C}" name="Table5" displayName="Table5" ref="A92:K107" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24">
+  <autoFilter ref="A92:K107" xr:uid="{23DB77C1-8D51-4206-9044-BFE004D7ACF5}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{89E7B09D-1935-4E63-BEE5-503272650D7F}" name="Dal's Projects"/>
+    <tableColumn id="2" xr3:uid="{DC865D5D-0FDB-46F4-B694-795E0A368DF8}" name="GriefPrevention" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{A0977CB8-DE37-4404-B76E-B4E73B9B4C59}" name="EssentialsX" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{91DFB556-CB12-46AE-891D-EA3EBEF90D47}" name="EssentialsChat" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{6A5D11B9-54D4-41DC-AC55-7B33681A558E}" name="WorldGuard" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{8B495447-9DBF-42A5-9F9E-A556ECC60255}" name="WorldBorder" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{F9ED6675-EFA8-4B94-98D9-8619C5F3CB9B}" name="PlotSquared" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{18034CDD-A7DD-4F26-8E0A-0875292E57E7}" name="ProtocolLib" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{EEDFB5F8-7B50-4460-8306-C913EF21D774}" name="SuperVanish" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{62FEF399-F898-4BDD-BCD9-2B708761C63A}" name="ViaVersion" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C0EB2D1D-6C58-47C3-8932-FD65014C7CEE}" name="WorldEdit" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0BB5A8C9-BD49-4B5B-8807-EDBD1CFC2C8E}" name="Table6" displayName="Table6" ref="A75:K90" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A75:K90" xr:uid="{62DA212A-1339-4C49-AC57-07D9600980E3}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6EE7EAF3-6E76-4D3F-8E46-BEF1546F297F}" name="Josh's Projects"/>
+    <tableColumn id="2" xr3:uid="{F4109894-1AC8-43AB-9010-79497A127E08}" name="jMonkeyEngine" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4B468468-562E-44BB-9678-1CC663ED374C}" name="libGDX" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{EC80BBAF-A3E5-41EC-A8FD-AF9CC572DCD5}" name="TEAMMATES" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1C119288-8306-4885-8FE6-51CC55402D84}" name="JUnit 4" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C6AAB97C-8046-4DE1-9158-684711C31C65}" name="Activiti" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{5B9A6578-E5B8-49C5-A7C2-AAAF91A6C24A}" name="Kore" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{5D9F9A10-D3B7-484F-91BD-E1C9626C42C4}" name="MyCollab" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5738EC13-9F73-4FAB-B64F-1258C517B153}" name="BioJava" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{30DD85AE-DBA5-4155-BE66-B8EF1F5059AF}" name="Cryptomator" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{3E53A033-0263-45DD-BE50-7EB14842AFE4}" name="Java Google Maps" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F2358BDC-E71F-44FB-8433-CC9D0B2F7758}" name="Table7" displayName="Table7" ref="A58:K73" totalsRowShown="0">
+  <autoFilter ref="A58:K73" xr:uid="{4A6443CD-3A10-4309-98EE-501B3FF65052}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{56A7CB15-1E45-4898-ACD2-58CC642BDB1C}" name="Amy's Projects"/>
+    <tableColumn id="2" xr3:uid="{FFA0ED54-D532-41A9-A440-63942942138C}" name="Shimmer"/>
+    <tableColumn id="4" xr3:uid="{DA4FFCA1-FD7F-4D82-A21A-4AFBE2F397B7}" name="Applozic"/>
+    <tableColumn id="5" xr3:uid="{846A91F0-5596-465A-AB28-BD8538D86220}" name="Ribot"/>
+    <tableColumn id="6" xr3:uid="{12C38208-2EAF-4256-88E0-E185B8E50990}" name="PocketHub"/>
+    <tableColumn id="7" xr3:uid="{6DB85C94-C8D1-43FA-828B-6E6D8A58A6B3}" name="ownCloud"/>
+    <tableColumn id="8" xr3:uid="{60C4DFF8-E671-4D2C-B0AB-145DA8B29C50}" name="Slide"/>
+    <tableColumn id="9" xr3:uid="{FDC864B3-59C0-42E0-8A94-0DCC0891240A}" name="OpenLauncher"/>
+    <tableColumn id="10" xr3:uid="{FAECF379-3B45-4A8D-A907-FC0A9D15043A}" name="Activity Tracking/Location Sharing App"/>
+    <tableColumn id="11" xr3:uid="{E13DF750-E045-4979-9AC3-0624E7BC3AC1}" name="Note App"/>
+    <tableColumn id="12" xr3:uid="{57174E1C-A774-44BF-8CDF-33E92E31E097}" name="Plaid App"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,20 +1678,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.875" customWidth="1"/>
-    <col min="2" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="12" width="15" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13">
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +1746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -954,7 +1782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1896,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1932,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1968,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1180,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1220,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1260,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1298,12 +2126,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1351,15 +2179,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +2222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +2257,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +2327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +2362,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +2397,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1604,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1639,27 +2467,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +2532,7 @@
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1740,7 +2568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +2603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1810,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1845,7 +2673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +2708,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +2743,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1950,7 +2778,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1985,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2055,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2090,12 +2918,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2176,7 +3004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75">
+    <row r="49" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75">
+    <row r="50" spans="1:12">
       <c r="A50" s="5" t="s">
         <v>14</v>
       </c>
@@ -2248,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75">
+    <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>15</v>
       </c>
@@ -2284,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75">
+    <row r="52" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>60</v>
       </c>
@@ -2320,7 +3148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75">
+    <row r="53" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>17</v>
       </c>
@@ -2356,7 +3184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75">
+    <row r="54" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>61</v>
       </c>
@@ -2392,7 +3220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75">
+    <row r="55" spans="1:12">
       <c r="A55" s="5" t="s">
         <v>62</v>
       </c>
@@ -2428,84 +3256,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
       <c r="D59">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E59">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F59">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G59">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K59">
-        <v>4</v>
-      </c>
-      <c r="L59">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>14</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
       <c r="D60">
         <v>0</v>
       </c>
@@ -2530,157 +3360,157 @@
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75">
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>15</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
       <c r="D61">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E61">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F61">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="H61">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="I61">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J61">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>4</v>
-      </c>
-      <c r="L61">
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>16</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
+      <c r="C62">
+        <v>259</v>
+      </c>
       <c r="D62">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="E62">
-        <v>361</v>
+        <v>541</v>
       </c>
       <c r="F62">
-        <v>541</v>
+        <v>211</v>
       </c>
       <c r="G62">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H62">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I62">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="J62">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="K62">
-        <v>24</v>
-      </c>
-      <c r="L62">
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>17</v>
       </c>
       <c r="B63">
         <v>71</v>
       </c>
+      <c r="C63">
+        <v>873</v>
+      </c>
       <c r="D63">
-        <v>873</v>
+        <v>478</v>
       </c>
       <c r="E63">
-        <v>478</v>
+        <v>762</v>
       </c>
       <c r="F63">
-        <v>762</v>
+        <v>441</v>
       </c>
       <c r="G63">
-        <v>441</v>
+        <v>924</v>
       </c>
       <c r="H63">
-        <v>924</v>
+        <v>139</v>
       </c>
       <c r="I63">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="J63">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="K63">
-        <v>28</v>
-      </c>
-      <c r="L63">
         <v>896</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64">
         <v>11</v>
       </c>
+      <c r="C64">
+        <v>312</v>
+      </c>
       <c r="D64">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E64">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="F64">
-        <v>396</v>
+        <v>152</v>
       </c>
       <c r="G64">
-        <v>152</v>
+        <v>453</v>
       </c>
       <c r="H64">
-        <v>453</v>
+        <v>66</v>
       </c>
       <c r="I64">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="J64">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="K64">
-        <v>38</v>
-      </c>
-      <c r="L64">
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>19</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
       <c r="D65">
         <v>0</v>
       </c>
@@ -2705,17 +3535,17 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75">
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>20</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
       <c r="D66">
         <v>0</v>
       </c>
@@ -2740,17 +3570,17 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75">
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
       <c r="D67">
         <v>0</v>
       </c>
@@ -2775,28 +3605,28 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>22</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2808,1821 +3638,2284 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70">
-        <f>B59/B62*100</f>
-        <v>50</v>
+        <f>(B59/SUM(B59:B68)) * 100</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:K70" si="3">(C59/SUM(C59:C68)) * 100</f>
+        <v>2.9239766081871341</v>
       </c>
       <c r="D70">
-        <f>D59/D62*100</f>
-        <v>17.374517374517374</v>
+        <f t="shared" si="3"/>
+        <v>3.9473684210526314</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:L70" si="3">E59/E62*100</f>
-        <v>14.127423822714682</v>
+        <f t="shared" si="3"/>
+        <v>3.089187842551071</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>11.460258780036968</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>9.0047393364928912</v>
+        <v>2.3639362286970864</v>
       </c>
       <c r="H70">
         <f t="shared" si="3"/>
-        <v>18.53448275862069</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
-        <v>38.888888888888893</v>
+        <v>1.8404907975460123</v>
       </c>
       <c r="J70">
         <f t="shared" si="3"/>
-        <v>7.59493670886076</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="K70">
         <f t="shared" si="3"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="3"/>
-        <v>19.182389937106919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75"/>
-    <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="7" t="s">
+        <v>2.7917620137299775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <f>(B60/SUM(B59:B68)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:K71" si="4">(C60/SUM(C59:C68)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B72">
+        <f>(B61/SUM(B59:B68)) * 100</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:K72" si="5">(C61/SUM(C59:C68)) * 100</f>
+        <v>3.1838856400259905</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>9.2105263157894726</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>12.107623318385651</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>1.3157894736842104</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>9.1808686091258931</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>3.3613445378151261</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>7.3619631901840492</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>14.279176201372998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="9" t="s">
+      <c r="B73">
+        <f>SUM(B70:B72)</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:K73" si="6">SUM(C70:C72)</f>
+        <v>6.1078622482131246</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>15.196811160936722</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>3.5885167464114831</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>11.54480483782298</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>6.3025210084033612</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>9.2024539877300615</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>8.1632653061224492</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>17.070938215102977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="B75" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="C75" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="D75" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="E75" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="F75" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="G75" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="H75" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L74" s="10" t="s">
+      <c r="I75" s="29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" t="s">
+      <c r="J75" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B76" s="11">
         <v>789</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11">
+      <c r="C76" s="11">
         <v>467</v>
       </c>
-      <c r="E75" s="11">
+      <c r="D76" s="11">
         <v>10</v>
       </c>
-      <c r="F75" s="2">
+      <c r="E76" s="2">
         <v>600</v>
       </c>
-      <c r="G75" s="11">
+      <c r="F76" s="11">
         <v>36</v>
       </c>
-      <c r="H75" s="12">
+      <c r="G76" s="12">
         <v>225</v>
       </c>
-      <c r="I75" s="11">
+      <c r="H76" s="11">
         <v>613</v>
       </c>
-      <c r="J75" s="12">
+      <c r="I76" s="12">
         <v>76</v>
       </c>
-      <c r="K75" s="11">
+      <c r="J76" s="11">
         <v>10</v>
       </c>
-      <c r="L75" s="13">
+      <c r="K76" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75">
-      <c r="A76" t="s">
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="11">
-        <v>0</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0</v>
-      </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-      <c r="J76" s="12">
+      <c r="B77" s="11">
+        <v>0</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
         <v>1</v>
       </c>
-      <c r="K76" s="11">
-        <v>0</v>
-      </c>
-      <c r="L76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75">
-      <c r="A77" t="s">
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B78" s="11">
         <v>79</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11">
+      <c r="C78" s="11">
         <v>319</v>
       </c>
-      <c r="E77" s="11">
+      <c r="D78" s="11">
         <v>9</v>
       </c>
-      <c r="F77" s="2">
+      <c r="E78" s="2">
         <v>132</v>
       </c>
-      <c r="G77" s="11">
+      <c r="F78" s="11">
         <v>31</v>
       </c>
-      <c r="H77" s="12">
+      <c r="G78" s="12">
         <v>38</v>
       </c>
-      <c r="I77" s="11">
+      <c r="H78" s="11">
         <v>208</v>
       </c>
-      <c r="J77" s="12">
+      <c r="I78" s="12">
         <v>15</v>
       </c>
-      <c r="K77" s="11">
-        <v>0</v>
-      </c>
-      <c r="L77" s="11">
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" t="s">
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B79" s="11">
         <v>1686</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11">
+      <c r="C79" s="11">
         <v>2265</v>
       </c>
-      <c r="E78" s="11">
+      <c r="D79" s="11">
         <v>760</v>
       </c>
-      <c r="F78" s="14">
+      <c r="E79" s="14">
         <v>408</v>
       </c>
-      <c r="G78" s="11">
+      <c r="F79" s="11">
         <v>1949</v>
       </c>
-      <c r="H78" s="12">
+      <c r="G79" s="12">
         <v>225</v>
       </c>
-      <c r="I78" s="11">
+      <c r="H79" s="11">
         <v>1478</v>
       </c>
-      <c r="J78" s="12">
+      <c r="I79" s="12">
         <v>1268</v>
       </c>
-      <c r="K78" s="11">
+      <c r="J79" s="11">
         <v>79</v>
       </c>
-      <c r="L78" s="11">
+      <c r="K79" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75">
-      <c r="A79" t="s">
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B80" s="11">
         <v>13134</v>
       </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11">
+      <c r="C80" s="11">
         <v>53529</v>
       </c>
-      <c r="E79" s="11">
+      <c r="D80" s="11">
         <v>1219</v>
       </c>
-      <c r="F79" s="14">
+      <c r="E80" s="14">
         <v>796</v>
       </c>
-      <c r="G79" s="11">
+      <c r="F80" s="11">
         <v>2269</v>
       </c>
-      <c r="H79" s="12">
+      <c r="G80" s="12">
         <v>996</v>
       </c>
-      <c r="I79" s="11">
+      <c r="H80" s="11">
         <v>4720</v>
       </c>
-      <c r="J79" s="12">
+      <c r="I80" s="12">
         <v>3567</v>
       </c>
-      <c r="K79" s="11">
+      <c r="J80" s="11">
         <v>71</v>
       </c>
-      <c r="L79" s="11">
+      <c r="K80" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" t="s">
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B81" s="11">
         <v>2150</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11">
+      <c r="C81" s="11">
         <v>5288</v>
       </c>
-      <c r="E80" s="11">
+      <c r="D81" s="11">
         <v>1111</v>
       </c>
-      <c r="F80" s="14">
+      <c r="E81" s="14">
         <v>1856</v>
       </c>
-      <c r="G80" s="11">
+      <c r="F81" s="11">
         <v>1861</v>
       </c>
-      <c r="H80" s="12">
+      <c r="G81" s="12">
         <v>585</v>
       </c>
-      <c r="I80" s="11">
+      <c r="H81" s="11">
         <v>2764</v>
       </c>
-      <c r="J80" s="12">
+      <c r="I81" s="12">
         <v>1479</v>
       </c>
-      <c r="K80" s="11">
+      <c r="J81" s="11">
         <v>204</v>
       </c>
-      <c r="L80" s="11">
+      <c r="K81" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" t="s">
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="11">
-        <v>0</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11">
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <v>0</v>
-      </c>
-      <c r="F81" s="14">
-        <v>0</v>
-      </c>
-      <c r="G81" s="11">
-        <v>0</v>
-      </c>
-      <c r="H81" s="12">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>0</v>
-      </c>
-      <c r="J81" s="12">
-        <v>0</v>
-      </c>
-      <c r="K81" s="11">
-        <v>0</v>
-      </c>
-      <c r="L81" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75">
-      <c r="A82" t="s">
+      <c r="B82" s="11">
+        <v>0</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B83" s="11">
         <v>3</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11">
+      <c r="C83" s="11">
         <v>1</v>
       </c>
-      <c r="E82" s="11">
-        <v>0</v>
-      </c>
-      <c r="F82" s="14">
+      <c r="D83" s="11">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14">
         <v>13</v>
       </c>
-      <c r="G82" s="11">
-        <v>0</v>
-      </c>
-      <c r="H82" s="12">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>0</v>
-      </c>
-      <c r="J82" s="12">
-        <v>0</v>
-      </c>
-      <c r="K82" s="11">
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
         <v>1</v>
       </c>
-      <c r="L82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75">
-      <c r="A83" t="s">
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="11">
-        <v>0</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <v>0</v>
-      </c>
-      <c r="F83" s="14">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-      <c r="J83" s="12">
-        <v>0</v>
-      </c>
-      <c r="K83" s="11">
-        <v>0</v>
-      </c>
-      <c r="L83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75">
-      <c r="A84" t="s">
+      <c r="B84" s="11">
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="12">
+        <v>0</v>
+      </c>
+      <c r="J84" s="11">
+        <v>0</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B85" s="11">
         <v>8</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11">
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
+      <c r="C85" s="11">
+        <v>0</v>
+      </c>
+      <c r="D85" s="11">
         <v>1</v>
       </c>
-      <c r="F84" s="14">
+      <c r="E85" s="14">
         <v>20</v>
       </c>
-      <c r="G84" s="11">
+      <c r="F85" s="11">
         <v>5</v>
       </c>
-      <c r="H84" s="12">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
+      <c r="G85" s="12">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
         <v>6</v>
       </c>
-      <c r="J84" s="12">
+      <c r="I85" s="12">
         <v>2</v>
       </c>
-      <c r="K84" s="11">
+      <c r="J85" s="11">
         <v>1</v>
       </c>
-      <c r="L84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75">
-      <c r="A85" t="s">
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.75">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75"/>
-    <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="9" t="s">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="13">
+        <f>(B76/SUM(B76:B85)) * 100</f>
+        <v>4.420415709563561</v>
+      </c>
+      <c r="C87" s="13">
+        <f t="shared" ref="C87:K87" si="7">(C76/SUM(C76:C85)) * 100</f>
+        <v>0.75482066947906057</v>
+      </c>
+      <c r="D87" s="13">
+        <f t="shared" si="7"/>
+        <v>0.32154340836012862</v>
+      </c>
+      <c r="E87" s="13">
+        <f t="shared" si="7"/>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="7"/>
+        <v>0.58527068769305801</v>
+      </c>
+      <c r="G87" s="13">
+        <f t="shared" si="7"/>
+        <v>10.874818753020783</v>
+      </c>
+      <c r="H87" s="13">
+        <f t="shared" si="7"/>
+        <v>6.2621309633261815</v>
+      </c>
+      <c r="I87" s="13">
+        <f t="shared" si="7"/>
+        <v>1.1860174781523096</v>
+      </c>
+      <c r="J87" s="13">
+        <f t="shared" si="7"/>
+        <v>2.7322404371584699</v>
+      </c>
+      <c r="K87" s="13">
+        <f t="shared" si="7"/>
+        <v>5.3406998158379375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="13">
+        <f>(B77/SUM(B76:B85)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="13">
+        <f t="shared" ref="C88:K88" si="8">(C77/SUM(C76:C85)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
+        <f t="shared" si="8"/>
+        <v>1.5605493133583021E-2</v>
+      </c>
+      <c r="J88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="15">
+        <f>(B78/SUM(B76:B85)) * 100</f>
+        <v>0.4426018264328534</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" ref="C89:K89" si="9">(C78/SUM(C76:C85)) * 100</f>
+        <v>0.51560555366985084</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.28938906752411575</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4509803921568625</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.50398309218013337</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.836636056065732</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1248339973439574</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.23408239700374533</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.55248618784530379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="20">
+        <f>SUM(B87:B89)</f>
+        <v>4.8630175359964145</v>
+      </c>
+      <c r="C90" s="20">
+        <f t="shared" ref="C90:K90" si="10">SUM(C87:C89)</f>
+        <v>1.2704262231489114</v>
+      </c>
+      <c r="D90" s="20">
+        <f t="shared" si="10"/>
+        <v>0.61093247588424437</v>
+      </c>
+      <c r="E90" s="20">
+        <f t="shared" si="10"/>
+        <v>19.137254901960784</v>
+      </c>
+      <c r="F90" s="20">
+        <f t="shared" si="10"/>
+        <v>1.0892537798731914</v>
+      </c>
+      <c r="G90" s="20">
+        <f t="shared" si="10"/>
+        <v>12.711454809086515</v>
+      </c>
+      <c r="H90" s="20">
+        <f t="shared" si="10"/>
+        <v>8.386964960670138</v>
+      </c>
+      <c r="I90" s="20">
+        <f t="shared" si="10"/>
+        <v>1.4357053682896379</v>
+      </c>
+      <c r="J90" s="20">
+        <f t="shared" si="10"/>
+        <v>2.7322404371584699</v>
+      </c>
+      <c r="K90" s="20">
+        <f t="shared" si="10"/>
+        <v>5.8931860036832413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="B92" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="C92" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="D92" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="E92" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="F92" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="G92" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K88" s="9" t="s">
+      <c r="H92" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="L88" s="10" t="s">
+      <c r="I92" s="29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.75">
-      <c r="A89" t="s">
+      <c r="J92" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K92" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="11">
-        <v>0</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11">
+      <c r="B93" s="11">
+        <v>0</v>
+      </c>
+      <c r="C93" s="11">
         <v>25</v>
       </c>
-      <c r="E89" s="11">
+      <c r="D93" s="11">
         <v>2</v>
       </c>
-      <c r="F89" s="17">
+      <c r="E93" s="16">
         <v>40</v>
       </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
-      <c r="H89" s="12">
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
         <v>2</v>
       </c>
-      <c r="I89" s="11">
+      <c r="H93" s="11">
         <v>45</v>
       </c>
-      <c r="J89" s="12">
+      <c r="I93" s="12">
         <v>1</v>
       </c>
-      <c r="K89" s="11">
-        <v>0</v>
-      </c>
-      <c r="L89" s="13">
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" t="s">
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="11">
-        <v>0</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="17">
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="12">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>0</v>
-      </c>
-      <c r="J90" s="12">
-        <v>0</v>
-      </c>
-      <c r="K90" s="11">
-        <v>0</v>
-      </c>
-      <c r="L90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.75">
-      <c r="A91" t="s">
+      <c r="B94" s="11">
+        <v>0</v>
+      </c>
+      <c r="C94" s="11">
+        <v>0</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="16">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="11">
-        <v>0</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11">
+      <c r="B95" s="11">
+        <v>0</v>
+      </c>
+      <c r="C95" s="11">
         <v>4</v>
       </c>
-      <c r="E91" s="11">
+      <c r="D95" s="11">
         <v>5</v>
       </c>
-      <c r="F91" s="17">
+      <c r="E95" s="16">
         <v>18</v>
       </c>
-      <c r="G91" s="11">
+      <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="H91" s="12">
+      <c r="G95" s="12">
         <v>10</v>
       </c>
-      <c r="I91" s="11">
+      <c r="H95" s="11">
         <v>14</v>
       </c>
-      <c r="J91" s="12">
+      <c r="I95" s="12">
         <v>16</v>
       </c>
-      <c r="K91" s="11">
-        <v>0</v>
-      </c>
-      <c r="L91" s="11">
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75">
-      <c r="A92" t="s">
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B96" s="11">
         <v>18</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11">
+      <c r="C96" s="11">
         <v>263</v>
       </c>
-      <c r="E92" s="11">
+      <c r="D96" s="11">
         <v>33</v>
       </c>
-      <c r="F92" s="17">
+      <c r="E96" s="16">
         <v>296</v>
       </c>
-      <c r="G92" s="11">
+      <c r="F96" s="11">
         <v>47</v>
       </c>
-      <c r="H92" s="12">
+      <c r="G96" s="12">
         <v>95</v>
       </c>
-      <c r="I92" s="11">
+      <c r="H96" s="11">
         <v>192</v>
       </c>
-      <c r="J92" s="12">
+      <c r="I96" s="12">
         <v>68</v>
       </c>
-      <c r="K92" s="11">
+      <c r="J96" s="11">
         <v>31</v>
       </c>
-      <c r="L92" s="11">
+      <c r="K96" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75">
-      <c r="A93" t="s">
+    <row r="97" spans="1:17">
+      <c r="A97" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B97" s="11">
         <v>14</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11">
+      <c r="C97" s="11">
         <v>1250</v>
       </c>
-      <c r="E93" s="11">
+      <c r="D97" s="11">
         <v>60</v>
       </c>
-      <c r="F93" s="17">
+      <c r="E97" s="16">
         <v>817</v>
       </c>
-      <c r="G93" s="11">
+      <c r="F97" s="11">
         <v>37</v>
       </c>
-      <c r="H93" s="12">
+      <c r="G97" s="12">
         <v>512</v>
       </c>
-      <c r="I93" s="11">
+      <c r="H97" s="11">
         <v>414</v>
       </c>
-      <c r="J93" s="12">
+      <c r="I97" s="12">
         <v>107</v>
       </c>
-      <c r="K93" s="11">
+      <c r="J97" s="11">
         <v>38</v>
       </c>
-      <c r="L93" s="11">
+      <c r="K97" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75">
-      <c r="A94" t="s">
+    <row r="98" spans="1:17">
+      <c r="A98" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B98" s="11">
         <v>25</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11">
+      <c r="C98" s="11">
         <v>920</v>
       </c>
-      <c r="E94" s="11">
+      <c r="D98" s="11">
         <v>52</v>
       </c>
-      <c r="F94" s="17">
+      <c r="E98" s="16">
         <v>639</v>
       </c>
-      <c r="G94" s="11">
+      <c r="F98" s="11">
         <v>50</v>
       </c>
-      <c r="H94" s="12">
+      <c r="G98" s="12">
         <v>195</v>
       </c>
-      <c r="I94" s="11">
+      <c r="H98" s="11">
         <v>197</v>
       </c>
-      <c r="J94" s="12">
+      <c r="I98" s="12">
         <v>101</v>
       </c>
-      <c r="K94" s="11">
+      <c r="J98" s="11">
         <v>51</v>
       </c>
-      <c r="L94" s="11">
+      <c r="K98" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75">
-      <c r="A95" t="s">
+    <row r="99" spans="1:17">
+      <c r="A99" t="s">
         <v>19</v>
       </c>
-      <c r="B95" s="11">
-        <v>0</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <v>0</v>
-      </c>
-      <c r="F95" s="17">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="12">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
-        <v>0</v>
-      </c>
-      <c r="J95" s="12">
-        <v>0</v>
-      </c>
-      <c r="K95" s="11">
-        <v>0</v>
-      </c>
-      <c r="L95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75">
-      <c r="A96" t="s">
+      <c r="B99" s="11">
+        <v>0</v>
+      </c>
+      <c r="C99" s="11">
+        <v>0</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0</v>
+      </c>
+      <c r="E99" s="16">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="12">
+        <v>0</v>
+      </c>
+      <c r="J99" s="11">
+        <v>0</v>
+      </c>
+      <c r="K99" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="11">
-        <v>0</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11">
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <v>0</v>
-      </c>
-      <c r="F96" s="17">
-        <v>0</v>
-      </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
-      <c r="H96" s="12">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-      <c r="J96" s="12">
-        <v>0</v>
-      </c>
-      <c r="K96" s="11">
-        <v>0</v>
-      </c>
-      <c r="L96" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="15.75">
-      <c r="A97" t="s">
+      <c r="B100" s="11">
+        <v>0</v>
+      </c>
+      <c r="C100" s="11">
+        <v>0</v>
+      </c>
+      <c r="D100" s="11">
+        <v>0</v>
+      </c>
+      <c r="E100" s="16">
+        <v>0</v>
+      </c>
+      <c r="F100" s="11">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="11">
-        <v>0</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11">
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <v>0</v>
-      </c>
-      <c r="F97" s="17">
-        <v>0</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="12">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
-      </c>
-      <c r="J97" s="12">
-        <v>0</v>
-      </c>
-      <c r="K97" s="11">
-        <v>0</v>
-      </c>
-      <c r="L97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="15.75">
-      <c r="A98" t="s">
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
+      <c r="C101" s="11">
+        <v>0</v>
+      </c>
+      <c r="D101" s="11">
+        <v>0</v>
+      </c>
+      <c r="E101" s="16">
+        <v>0</v>
+      </c>
+      <c r="F101" s="11">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="11">
+        <v>0</v>
+      </c>
+      <c r="K101" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="11">
-        <v>0</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11">
+      <c r="B102" s="11">
+        <v>0</v>
+      </c>
+      <c r="C102" s="11">
         <v>4</v>
       </c>
-      <c r="E98" s="11">
-        <v>0</v>
-      </c>
-      <c r="F98" s="17">
+      <c r="D102" s="11">
+        <v>0</v>
+      </c>
+      <c r="E102" s="16">
         <v>1</v>
       </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="12">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-      <c r="J98" s="12">
-        <v>0</v>
-      </c>
-      <c r="K98" s="11">
-        <v>0</v>
-      </c>
-      <c r="L98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="15.75">
-      <c r="A99" t="s">
+      <c r="F102" s="11">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0</v>
+      </c>
+      <c r="J102" s="11">
+        <v>0</v>
+      </c>
+      <c r="K102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="13">
+        <v>15</v>
+      </c>
+      <c r="C103" s="13">
+        <v>45</v>
+      </c>
+      <c r="D103" s="13">
+        <v>45</v>
+      </c>
+      <c r="E103" s="16">
+        <v>70</v>
+      </c>
+      <c r="F103" s="13">
+        <v>32</v>
+      </c>
+      <c r="G103" s="12">
+        <v>10</v>
+      </c>
+      <c r="H103" s="13">
+        <v>16</v>
+      </c>
+      <c r="I103" s="17">
+        <v>11</v>
+      </c>
+      <c r="J103" s="13">
+        <v>69</v>
+      </c>
+      <c r="K103" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="13">
+        <f>B93/SUM(B93:B102)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="13">
+        <f t="shared" ref="C104:K104" si="11">C93/SUM(C93:C102)*100</f>
+        <v>1.013787510137875</v>
+      </c>
+      <c r="D104" s="13">
+        <f t="shared" si="11"/>
+        <v>1.3157894736842104</v>
+      </c>
+      <c r="E104" s="13">
+        <f t="shared" si="11"/>
+        <v>2.2087244616234125</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="13">
+        <f t="shared" si="11"/>
+        <v>0.24570024570024571</v>
+      </c>
+      <c r="H104" s="13">
+        <f t="shared" si="11"/>
+        <v>5.2204176334106727</v>
+      </c>
+      <c r="I104" s="13">
+        <f t="shared" si="11"/>
+        <v>0.34129692832764508</v>
+      </c>
+      <c r="J104" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="13">
+        <f t="shared" si="11"/>
+        <v>0.76335877862595414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="13">
+        <f>B94/SUM(B93:B102)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="13">
+        <f t="shared" ref="C105:K105" si="12">C94/SUM(C93:C102)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="13">
+        <f>B95/SUM(B93:B102)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="13">
+        <f t="shared" ref="C106:K106" si="13">C95/SUM(C93:C102)*100</f>
+        <v>0.16220600162206003</v>
+      </c>
+      <c r="D106" s="13">
+        <f t="shared" si="13"/>
+        <v>3.2894736842105261</v>
+      </c>
+      <c r="E106" s="13">
+        <f t="shared" si="13"/>
+        <v>0.99392600773053563</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="13"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="G106" s="13">
+        <f t="shared" si="13"/>
+        <v>1.2285012285012284</v>
+      </c>
+      <c r="H106" s="13">
+        <f t="shared" si="13"/>
+        <v>1.6241299303944314</v>
+      </c>
+      <c r="I106" s="13">
+        <f t="shared" si="13"/>
+        <v>5.4607508532423212</v>
+      </c>
+      <c r="J106" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="13">
+        <f t="shared" si="13"/>
+        <v>0.5089058524173028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="15">
+        <f>SUM(B104:B106)</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="15">
+        <f t="shared" ref="C107:K107" si="14">SUM(C104:C106)</f>
+        <v>1.1759935117599352</v>
+      </c>
+      <c r="D107" s="15">
+        <f t="shared" si="14"/>
+        <v>4.6052631578947363</v>
+      </c>
+      <c r="E107" s="15">
+        <f t="shared" si="14"/>
+        <v>3.2026504693539479</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="14"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="G107" s="15">
+        <f t="shared" si="14"/>
+        <v>1.4742014742014742</v>
+      </c>
+      <c r="H107" s="15">
+        <f t="shared" si="14"/>
+        <v>6.8445475638051043</v>
+      </c>
+      <c r="I107" s="15">
+        <f t="shared" si="14"/>
+        <v>5.802047781569966</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="15">
+        <f t="shared" si="14"/>
+        <v>1.272264631043257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K109" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L109" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M109" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="N109" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O109" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P109" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I110" s="11"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L110" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M110" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="N110" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="O110" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P110" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q110" s="19"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="11">
+        <v>4</v>
+      </c>
+      <c r="C111" s="11">
+        <v>2</v>
+      </c>
+      <c r="D111" s="11">
+        <v>6</v>
+      </c>
+      <c r="E111" s="11">
+        <v>127</v>
+      </c>
+      <c r="F111" s="16">
+        <v>127</v>
+      </c>
+      <c r="G111" s="11">
+        <v>200</v>
+      </c>
+      <c r="H111" s="12">
+        <v>200</v>
+      </c>
+      <c r="I111" s="11">
+        <v>362</v>
+      </c>
+      <c r="J111" s="12">
+        <v>8</v>
+      </c>
+      <c r="K111" s="11">
+        <v>772</v>
+      </c>
+      <c r="L111" s="11">
+        <v>772</v>
+      </c>
+      <c r="M111">
+        <v>129</v>
+      </c>
+      <c r="N111" s="11">
+        <v>129</v>
+      </c>
+      <c r="O111" s="11">
+        <v>60</v>
+      </c>
+      <c r="P111" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="11">
+        <v>0</v>
+      </c>
+      <c r="C112" s="11">
+        <v>0</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0</v>
+      </c>
+      <c r="E112" s="11">
+        <v>0</v>
+      </c>
+      <c r="F112" s="16">
+        <v>0</v>
+      </c>
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>1</v>
+      </c>
+      <c r="L112" s="11">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>17</v>
+      </c>
+      <c r="N112" s="11">
+        <v>17</v>
+      </c>
+      <c r="O112" s="11">
+        <v>0</v>
+      </c>
+      <c r="P112" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="11">
+        <v>4</v>
+      </c>
+      <c r="C113" s="11">
+        <v>0</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0</v>
+      </c>
+      <c r="E113" s="11">
+        <v>47</v>
+      </c>
+      <c r="F113" s="16">
+        <v>47</v>
+      </c>
+      <c r="G113" s="11">
+        <v>59</v>
+      </c>
+      <c r="H113" s="12">
+        <v>67</v>
+      </c>
+      <c r="I113" s="11">
         <v>96</v>
       </c>
-      <c r="B99" s="13">
-        <v>15</v>
-      </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13">
-        <v>45</v>
-      </c>
-      <c r="E99" s="13">
-        <v>45</v>
-      </c>
-      <c r="F99" s="17">
+      <c r="J113" s="12">
+        <v>18</v>
+      </c>
+      <c r="K113" s="11">
+        <v>3221</v>
+      </c>
+      <c r="L113" s="11">
+        <v>3342</v>
+      </c>
+      <c r="M113">
+        <v>54</v>
+      </c>
+      <c r="N113" s="11">
+        <v>54</v>
+      </c>
+      <c r="O113" s="11">
+        <v>40</v>
+      </c>
+      <c r="P113" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="11">
+        <v>58</v>
+      </c>
+      <c r="C114" s="11">
+        <v>54</v>
+      </c>
+      <c r="D114" s="11">
+        <v>114</v>
+      </c>
+      <c r="E114" s="11">
+        <v>1741</v>
+      </c>
+      <c r="F114" s="16">
+        <v>1741</v>
+      </c>
+      <c r="G114" s="11">
+        <v>676</v>
+      </c>
+      <c r="H114" s="12">
+        <v>676</v>
+      </c>
+      <c r="I114" s="11">
+        <v>538</v>
+      </c>
+      <c r="J114" s="12">
+        <v>46</v>
+      </c>
+      <c r="K114" s="11">
+        <v>1562</v>
+      </c>
+      <c r="L114" s="11">
+        <v>1562</v>
+      </c>
+      <c r="M114">
+        <v>1296</v>
+      </c>
+      <c r="N114" s="11">
+        <v>1296</v>
+      </c>
+      <c r="O114" s="11">
+        <v>545</v>
+      </c>
+      <c r="P114" s="23">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="11">
+        <v>48</v>
+      </c>
+      <c r="C115" s="11">
+        <v>57</v>
+      </c>
+      <c r="D115" s="11">
+        <v>358</v>
+      </c>
+      <c r="E115" s="11">
+        <v>8607</v>
+      </c>
+      <c r="F115" s="16">
+        <v>8607</v>
+      </c>
+      <c r="G115" s="11">
+        <v>5944</v>
+      </c>
+      <c r="H115" s="12">
+        <v>5952</v>
+      </c>
+      <c r="I115" s="11">
+        <v>2151</v>
+      </c>
+      <c r="J115" s="12">
         <v>70</v>
       </c>
-      <c r="G99" s="13">
-        <v>32</v>
-      </c>
-      <c r="H99" s="12">
-        <v>10</v>
-      </c>
-      <c r="I99" s="13">
-        <v>16</v>
-      </c>
-      <c r="J99" s="18">
-        <v>11</v>
-      </c>
-      <c r="K99" s="13">
-        <v>69</v>
-      </c>
-      <c r="L99" s="13">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="15.75">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-    </row>
-    <row r="101" spans="1:17" ht="15.75"/>
-    <row r="102" spans="1:17" ht="15.75">
-      <c r="A102" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" s="20"/>
-      <c r="I102" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K102" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="P102" s="20"/>
-    </row>
-    <row r="103" spans="1:17" ht="15.75">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="K103" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L103" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="M103" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N103" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="O103" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P103" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q103" s="23"/>
-    </row>
-    <row r="104" spans="1:17" ht="15.75">
-      <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>6</v>
-      </c>
-      <c r="E104">
-        <v>127</v>
-      </c>
-      <c r="F104">
-        <v>127</v>
-      </c>
-      <c r="G104">
-        <v>200</v>
-      </c>
-      <c r="H104">
-        <v>200</v>
-      </c>
-      <c r="I104">
-        <v>362</v>
-      </c>
-      <c r="J104">
-        <v>8</v>
-      </c>
-      <c r="K104">
-        <v>772</v>
-      </c>
-      <c r="L104">
-        <v>772</v>
-      </c>
-      <c r="M104">
-        <v>129</v>
-      </c>
-      <c r="N104">
-        <v>129</v>
-      </c>
-      <c r="O104">
-        <v>60</v>
-      </c>
-      <c r="P104">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="15.75">
-      <c r="A105" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105">
-        <v>17</v>
-      </c>
-      <c r="N105">
-        <v>17</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="15.75">
-      <c r="A106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>47</v>
-      </c>
-      <c r="F106">
-        <v>47</v>
-      </c>
-      <c r="G106">
-        <v>59</v>
-      </c>
-      <c r="H106">
-        <v>67</v>
-      </c>
-      <c r="I106">
-        <v>96</v>
-      </c>
-      <c r="J106">
-        <v>18</v>
-      </c>
-      <c r="K106">
-        <v>3221</v>
-      </c>
-      <c r="L106">
-        <v>3342</v>
-      </c>
-      <c r="M106">
-        <v>54</v>
-      </c>
-      <c r="N106">
-        <v>54</v>
-      </c>
-      <c r="O106">
-        <v>40</v>
-      </c>
-      <c r="P106">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="15.75">
-      <c r="A107" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107">
-        <v>58</v>
-      </c>
-      <c r="C107">
-        <v>54</v>
-      </c>
-      <c r="D107">
-        <v>114</v>
-      </c>
-      <c r="E107">
-        <v>1741</v>
-      </c>
-      <c r="F107">
-        <v>1741</v>
-      </c>
-      <c r="G107">
-        <v>676</v>
-      </c>
-      <c r="H107">
-        <v>676</v>
-      </c>
-      <c r="I107">
-        <v>538</v>
-      </c>
-      <c r="J107">
-        <v>46</v>
-      </c>
-      <c r="K107">
-        <v>1562</v>
-      </c>
-      <c r="L107">
-        <v>1562</v>
-      </c>
-      <c r="M107">
-        <v>1296</v>
-      </c>
-      <c r="N107">
-        <v>1296</v>
-      </c>
-      <c r="O107">
-        <v>545</v>
-      </c>
-      <c r="P107">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="15.75">
-      <c r="A108" t="s">
-        <v>17</v>
-      </c>
-      <c r="B108">
-        <v>48</v>
-      </c>
-      <c r="C108">
-        <v>57</v>
-      </c>
-      <c r="D108">
-        <v>358</v>
-      </c>
-      <c r="E108">
-        <v>8607</v>
-      </c>
-      <c r="F108">
-        <v>8607</v>
-      </c>
-      <c r="G108">
-        <v>5944</v>
-      </c>
-      <c r="H108">
-        <v>5952</v>
-      </c>
-      <c r="I108">
-        <v>2151</v>
-      </c>
-      <c r="J108">
-        <v>70</v>
-      </c>
-      <c r="K108">
+      <c r="K115" s="11">
         <v>5482</v>
       </c>
-      <c r="L108">
+      <c r="L115" s="11">
         <v>5485</v>
       </c>
-      <c r="M108">
+      <c r="M115">
         <v>3505</v>
       </c>
-      <c r="N108">
+      <c r="N115" s="11">
         <v>3505</v>
       </c>
-      <c r="O108">
+      <c r="O115" s="11">
         <v>1554</v>
       </c>
-      <c r="P108">
+      <c r="P115" s="23">
         <v>1560</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="15.75">
-      <c r="A109" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109">
-        <v>38</v>
-      </c>
-      <c r="C109">
-        <v>30</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>4147</v>
-      </c>
-      <c r="F109">
-        <v>4147</v>
-      </c>
-      <c r="G109">
-        <v>1756</v>
-      </c>
-      <c r="H109">
-        <v>1756</v>
-      </c>
-      <c r="I109">
-        <v>838</v>
-      </c>
-      <c r="J109">
-        <v>110</v>
-      </c>
-      <c r="K109">
-        <v>13739</v>
-      </c>
-      <c r="L109">
-        <v>13890</v>
-      </c>
-      <c r="M109">
-        <v>5419</v>
-      </c>
-      <c r="N109">
-        <v>5419</v>
-      </c>
-      <c r="O109">
-        <v>1150</v>
-      </c>
-      <c r="P109">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="15.75">
-      <c r="A110" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="15.75">
-      <c r="A111" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>58</v>
-      </c>
-      <c r="H111">
-        <v>58</v>
-      </c>
-      <c r="I111">
-        <v>9</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>1</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="15.75">
-      <c r="A112" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="15.75">
-      <c r="A113" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>8</v>
-      </c>
-      <c r="L113">
-        <v>8</v>
-      </c>
-      <c r="M113">
-        <v>5</v>
-      </c>
-      <c r="N113">
-        <v>5</v>
-      </c>
-      <c r="O113">
-        <v>14</v>
-      </c>
-      <c r="P113">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A114" t="s">
-        <v>96</v>
-      </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114" s="19">
-        <v>48</v>
-      </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19">
-        <v>112</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114">
-        <v>10</v>
-      </c>
-      <c r="J114">
-        <v>4</v>
-      </c>
-      <c r="K114" s="19">
-        <v>197</v>
-      </c>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19">
-        <v>86</v>
-      </c>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19">
-        <v>142</v>
-      </c>
-      <c r="P114" s="19"/>
-    </row>
-    <row r="115" spans="1:16" ht="15.75">
-      <c r="A115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115">
-        <f>(B104/SUM(B104:B113)) * 100</f>
-        <v>2.6315789473684208</v>
-      </c>
-      <c r="C115">
-        <f t="shared" ref="C115:P115" si="4">(C104/SUM(C104:C113)) * 100</f>
-        <v>1.3986013986013985</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="4"/>
-        <v>1.25</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="4"/>
-        <v>0.86577135455722953</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="4"/>
-        <v>0.86577135455722953</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="4"/>
-        <v>2.300701714022777</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="4"/>
-        <v>2.2964749110115972</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="4"/>
-        <v>9.0613266583229031</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="4"/>
-        <v>3.1746031746031744</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="4"/>
-        <v>3.1147871696590683</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="4"/>
-        <v>3.080606544293695</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="4"/>
-        <v>1.2372913869173221</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="4"/>
-        <v>1.2372913869173221</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="4"/>
-        <v>1.784121320249777</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="4"/>
-        <v>1.7688679245283019</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116">
-        <f>(B106/SUM(B104:B113)) * 100</f>
-        <v>2.6315789473684208</v>
-      </c>
-      <c r="C116">
-        <f t="shared" ref="C116:P116" si="5">(C106/SUM(C104:C113)) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="5"/>
-        <v>0.32040357215897475</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="5"/>
-        <v>0.32040357215897475</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="5"/>
-        <v>0.67870700563671926</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="5"/>
-        <v>0.76931909518888508</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="5"/>
-        <v>2.4030037546933665</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="5"/>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="5"/>
-        <v>12.995763566673391</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="5"/>
-        <v>13.335993615323224</v>
+        <v>18</v>
+      </c>
+      <c r="B116" s="11">
+        <v>38</v>
+      </c>
+      <c r="C116" s="11">
+        <v>30</v>
+      </c>
+      <c r="D116" s="11">
+        <v>2</v>
+      </c>
+      <c r="E116" s="11">
+        <v>4147</v>
+      </c>
+      <c r="F116" s="16">
+        <v>4147</v>
+      </c>
+      <c r="G116" s="11">
+        <v>1756</v>
+      </c>
+      <c r="H116" s="12">
+        <v>1756</v>
+      </c>
+      <c r="I116" s="11">
+        <v>838</v>
+      </c>
+      <c r="J116" s="12">
+        <v>110</v>
+      </c>
+      <c r="K116" s="11">
+        <v>13739</v>
+      </c>
+      <c r="L116" s="11">
+        <v>13890</v>
       </c>
       <c r="M116">
-        <f t="shared" si="5"/>
-        <v>0.51793592940725108</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="5"/>
-        <v>0.51793592940725108</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="5"/>
-        <v>1.1894142134998513</v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="5"/>
-        <v>1.3856132075471699</v>
+        <v>5419</v>
+      </c>
+      <c r="N116" s="11">
+        <v>5419</v>
+      </c>
+      <c r="O116" s="11">
+        <v>1150</v>
+      </c>
+      <c r="P116" s="23">
+        <v>1166</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>112</v>
-      </c>
-      <c r="B117">
-        <f>(B105/SUM(B104:B113)) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <f t="shared" ref="C117:P117" si="6">(C105/SUM(C104:C113)) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="6"/>
-        <v>4.03469840629413E-3</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="6"/>
-        <v>3.9904229848363925E-3</v>
+        <v>19</v>
+      </c>
+      <c r="B117" s="11">
+        <v>0</v>
+      </c>
+      <c r="C117" s="11">
+        <v>0</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0</v>
+      </c>
+      <c r="F117" s="16">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="12">
+        <v>0</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0</v>
+      </c>
+      <c r="J117" s="12">
+        <v>0</v>
+      </c>
+      <c r="K117" s="11">
+        <v>0</v>
+      </c>
+      <c r="L117" s="11">
+        <v>0</v>
       </c>
       <c r="M117">
-        <f t="shared" si="6"/>
-        <v>0.16305390370228276</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="6"/>
-        <v>0.16305390370228276</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="11">
+        <v>0</v>
+      </c>
+      <c r="O117" s="11">
+        <v>0</v>
+      </c>
+      <c r="P117" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118">
-        <f>SUM(B115:B117)</f>
+        <v>20</v>
+      </c>
+      <c r="B118" s="11">
+        <v>0</v>
+      </c>
+      <c r="C118" s="11">
+        <v>0</v>
+      </c>
+      <c r="D118" s="11">
+        <v>0</v>
+      </c>
+      <c r="E118" s="11">
+        <v>0</v>
+      </c>
+      <c r="F118" s="16">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11">
+        <v>58</v>
+      </c>
+      <c r="H118" s="12">
+        <v>58</v>
+      </c>
+      <c r="I118" s="11">
+        <v>9</v>
+      </c>
+      <c r="J118" s="12">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" s="11">
+        <v>1</v>
+      </c>
+      <c r="O118" s="11">
+        <v>0</v>
+      </c>
+      <c r="P118" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="11">
+        <v>0</v>
+      </c>
+      <c r="C119" s="11">
+        <v>0</v>
+      </c>
+      <c r="D119" s="11">
+        <v>0</v>
+      </c>
+      <c r="E119" s="11">
+        <v>0</v>
+      </c>
+      <c r="F119" s="16">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <v>0</v>
+      </c>
+      <c r="H119" s="12">
+        <v>0</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0</v>
+      </c>
+      <c r="J119" s="12">
+        <v>0</v>
+      </c>
+      <c r="K119" s="11">
+        <v>0</v>
+      </c>
+      <c r="L119" s="11">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" s="11">
+        <v>0</v>
+      </c>
+      <c r="O119" s="11">
+        <v>0</v>
+      </c>
+      <c r="P119" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="13">
+        <v>0</v>
+      </c>
+      <c r="C120" s="13">
+        <v>0</v>
+      </c>
+      <c r="D120" s="13">
+        <v>0</v>
+      </c>
+      <c r="E120" s="13">
+        <v>0</v>
+      </c>
+      <c r="F120" s="16">
+        <v>0</v>
+      </c>
+      <c r="G120" s="13">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12">
+        <v>0</v>
+      </c>
+      <c r="I120" s="13">
+        <v>1</v>
+      </c>
+      <c r="J120" s="17">
+        <v>0</v>
+      </c>
+      <c r="K120" s="13">
+        <v>8</v>
+      </c>
+      <c r="L120" s="13">
+        <v>8</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="N120" s="13">
+        <v>5</v>
+      </c>
+      <c r="O120" s="13">
+        <v>14</v>
+      </c>
+      <c r="P120" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15.95" customHeight="1">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13">
+        <v>4</v>
+      </c>
+      <c r="D121" s="13">
+        <v>5</v>
+      </c>
+      <c r="E121" s="13">
+        <v>48</v>
+      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13">
+        <v>112</v>
+      </c>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13">
+        <v>10</v>
+      </c>
+      <c r="J121" s="13">
+        <v>4</v>
+      </c>
+      <c r="K121" s="13">
+        <v>197</v>
+      </c>
+      <c r="L121" s="13"/>
+      <c r="M121">
+        <v>86</v>
+      </c>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13">
+        <v>142</v>
+      </c>
+      <c r="P121" s="24"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="13">
+        <f>(B111/SUM(B111:B120)) * 100</f>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="C122" s="13">
+        <f t="shared" ref="C122:P122" si="15">(C111/SUM(C111:C120)) * 100</f>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="D122" s="13">
+        <f t="shared" si="15"/>
+        <v>1.25</v>
+      </c>
+      <c r="E122" s="13">
+        <f t="shared" si="15"/>
+        <v>0.86577135455722953</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="15"/>
+        <v>0.86577135455722953</v>
+      </c>
+      <c r="G122" s="13">
+        <f t="shared" si="15"/>
+        <v>2.300701714022777</v>
+      </c>
+      <c r="H122" s="13">
+        <f t="shared" si="15"/>
+        <v>2.2964749110115972</v>
+      </c>
+      <c r="I122" s="13">
+        <f t="shared" si="15"/>
+        <v>9.0613266583229031</v>
+      </c>
+      <c r="J122" s="13">
+        <f t="shared" si="15"/>
+        <v>3.1746031746031744</v>
+      </c>
+      <c r="K122" s="13">
+        <f t="shared" si="15"/>
+        <v>3.1147871696590683</v>
+      </c>
+      <c r="L122" s="13">
+        <f t="shared" si="15"/>
+        <v>3.080606544293695</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="15"/>
+        <v>1.2372913869173221</v>
+      </c>
+      <c r="N122" s="13">
+        <f t="shared" si="15"/>
+        <v>1.2372913869173221</v>
+      </c>
+      <c r="O122" s="13">
+        <f t="shared" si="15"/>
+        <v>1.784121320249777</v>
+      </c>
+      <c r="P122" s="24">
+        <f t="shared" si="15"/>
+        <v>1.7688679245283019</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="13">
+        <f>(B113/SUM(B111:B120)) * 100</f>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="C123" s="13">
+        <f t="shared" ref="C123:P123" si="16">(C113/SUM(C111:C120)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="D123" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="13">
+        <f t="shared" si="16"/>
+        <v>0.32040357215897475</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="16"/>
+        <v>0.32040357215897475</v>
+      </c>
+      <c r="G123" s="13">
+        <f t="shared" si="16"/>
+        <v>0.67870700563671926</v>
+      </c>
+      <c r="H123" s="13">
+        <f t="shared" si="16"/>
+        <v>0.76931909518888508</v>
+      </c>
+      <c r="I123" s="13">
+        <f t="shared" si="16"/>
+        <v>2.4030037546933665</v>
+      </c>
+      <c r="J123" s="13">
+        <f t="shared" si="16"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="K123" s="13">
+        <f t="shared" si="16"/>
+        <v>12.995763566673391</v>
+      </c>
+      <c r="L123" s="13">
+        <f t="shared" si="16"/>
+        <v>13.335993615323224</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="16"/>
+        <v>0.51793592940725108</v>
+      </c>
+      <c r="N123" s="13">
+        <f t="shared" si="16"/>
+        <v>0.51793592940725108</v>
+      </c>
+      <c r="O123" s="13">
+        <f t="shared" si="16"/>
+        <v>1.1894142134998513</v>
+      </c>
+      <c r="P123" s="24">
+        <f t="shared" si="16"/>
+        <v>1.3856132075471699</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="15">
+        <f>(B112/SUM(B111:B120)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="15">
+        <f t="shared" ref="C124:P124" si="17">(C112/SUM(C111:C120)) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="D124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="15">
+        <f t="shared" si="17"/>
+        <v>4.03469840629413E-3</v>
+      </c>
+      <c r="L124" s="15">
+        <f t="shared" si="17"/>
+        <v>3.9904229848363925E-3</v>
+      </c>
+      <c r="M124" s="21">
+        <f t="shared" si="17"/>
+        <v>0.16305390370228276</v>
+      </c>
+      <c r="N124" s="15">
+        <f t="shared" si="17"/>
+        <v>0.16305390370228276</v>
+      </c>
+      <c r="O124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P124" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B125" s="8">
+        <f>SUM(B122:B124)</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C118">
-        <f t="shared" ref="C118:P118" si="7">SUM(C115:C117)</f>
+      <c r="C125" s="18">
+        <f t="shared" ref="C125:P125" si="18">SUM(C122:C124)</f>
         <v>1.3986013986013985</v>
       </c>
-      <c r="D118">
-        <f t="shared" si="7"/>
+      <c r="D125" s="9">
+        <f t="shared" si="18"/>
         <v>1.25</v>
       </c>
-      <c r="E118">
-        <f t="shared" si="7"/>
+      <c r="E125" s="9">
+        <f t="shared" si="18"/>
         <v>1.1861749267162043</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="7"/>
+      <c r="F125" s="9">
+        <f t="shared" si="18"/>
         <v>1.1861749267162043</v>
       </c>
-      <c r="G118">
-        <f t="shared" si="7"/>
+      <c r="G125" s="9">
+        <f t="shared" si="18"/>
         <v>2.9794087196594963</v>
       </c>
-      <c r="H118">
-        <f t="shared" si="7"/>
+      <c r="H125" s="9">
+        <f t="shared" si="18"/>
         <v>3.0657940062004823</v>
       </c>
-      <c r="I118">
-        <f t="shared" si="7"/>
+      <c r="I125" s="9">
+        <f t="shared" si="18"/>
         <v>11.46433041301627</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="7"/>
+      <c r="J125" s="9">
+        <f t="shared" si="18"/>
         <v>10.317460317460316</v>
       </c>
-      <c r="K118">
-        <f t="shared" si="7"/>
+      <c r="K125" s="9">
+        <f t="shared" si="18"/>
         <v>16.114585434738753</v>
       </c>
-      <c r="L118">
-        <f t="shared" si="7"/>
+      <c r="L125" s="10">
+        <f t="shared" si="18"/>
         <v>16.420590582601754</v>
       </c>
-      <c r="M118">
-        <f t="shared" si="7"/>
+      <c r="M125" s="7">
+        <f t="shared" si="18"/>
         <v>1.918281220026856</v>
       </c>
-      <c r="N118">
-        <f t="shared" si="7"/>
+      <c r="N125" s="8">
+        <f t="shared" si="18"/>
         <v>1.918281220026856</v>
       </c>
-      <c r="O118">
-        <f t="shared" si="7"/>
+      <c r="O125" s="18">
+        <f t="shared" si="18"/>
         <v>2.9735355337496285</v>
       </c>
-      <c r="P118">
-        <f t="shared" si="7"/>
+      <c r="P125" s="22">
+        <f t="shared" si="18"/>
         <v>3.154481132075472</v>
       </c>
     </row>
+    <row r="126" spans="1:16">
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="13"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O102:P102"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="M102:N102"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\SENG300GROUP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="4785" yWindow="465" windowWidth="14400" windowHeight="16695" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
   <si>
     <t>Nested type count</t>
   </si>
@@ -387,12 +387,60 @@
   </si>
   <si>
     <t>After NullFIX</t>
+  </si>
+  <si>
+    <t>Robert’s Projects</t>
+  </si>
+  <si>
+    <t>Jpacman Framework</t>
+  </si>
+  <si>
+    <t>seventh</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Java String Similarity</t>
+  </si>
+  <si>
+    <t>LeetCode Sol Res</t>
+  </si>
+  <si>
+    <t>Game of Life in Java</t>
+  </si>
+  <si>
+    <t>EduMIPS64</t>
+  </si>
+  <si>
+    <t>ATM Simulator</t>
+  </si>
+  <si>
+    <t>RinSim</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Other Interface and Class declarations</t>
+  </si>
+  <si>
+    <t>Marker Annotation count</t>
+  </si>
+  <si>
+    <t>Nested Annotation count</t>
+  </si>
+  <si>
+    <t>Local Annotation count</t>
+  </si>
+  <si>
+    <t>Other Annotation count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -887,16 +935,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1053,16 +1101,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1301,19 +1349,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1330,7 +1378,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A127:P144" totalsRowShown="0" headerRowBorderDxfId="40" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A127:P144" totalsRowShown="0" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A127:P144"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Shay's Projects"/>
@@ -1355,7 +1403,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table5" displayName="Table5" ref="A110:K125" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table5" displayName="Table5" ref="A110:K125" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A110:K125"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Dal's Projects"/>
@@ -1375,7 +1423,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table6" displayName="Table6" ref="A93:K108" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table6" displayName="Table6" ref="A93:K108" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A93:K108"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Josh's Projects"/>
@@ -1677,19 +1725,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U159"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="58" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:K146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
     <col min="2" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1710,7 +1758,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1723,7 +1771,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -1759,7 +1807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1957,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1993,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1981,7 +2029,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2021,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2142,12 +2190,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2244,7 @@
         <v>0.7683073229291717</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -2245,7 +2293,7 @@
         <v>0.48019207683073228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2294,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2343,10 +2391,10 @@
         <v>1.2484993997599041</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +2429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2451,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2521,7 +2569,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2604,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2591,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2626,27 +2674,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2695,7 +2743,7 @@
         <v>2.0801468338941573</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2744,7 +2792,7 @@
         <v>1.2134189864382585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2842,7 +2890,7 @@
         <v>3.2935658203324158</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2878,7 +2926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2983,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +3066,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3101,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -3088,7 +3136,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3123,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -3158,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -3193,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -3228,12 +3276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3282,7 +3330,7 @@
         <v>1.0496671786994368E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -3331,7 +3379,7 @@
         <v>0.24321556579621098</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -3380,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -3429,7 +3477,7 @@
         <v>0.25371223758320532</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>97</v>
       </c>
@@ -3465,7 +3513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -3573,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>54</v>
       </c>
@@ -3609,7 +3657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
@@ -3645,7 +3693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>55</v>
       </c>
@@ -3681,7 +3729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>56</v>
       </c>
@@ -3717,35 +3765,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3794,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -3843,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -3892,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -3941,17 +3989,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>57</v>
       </c>
@@ -3986,7 +4034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4021,7 +4069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -4056,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4091,7 +4139,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4126,7 +4174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4209,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -4196,7 +4244,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -4231,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -4266,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -4301,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -4336,12 +4384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -4386,7 +4434,7 @@
         <v>2.7917620137299775</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -4431,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -4476,7 +4524,7 @@
         <v>14.279176201372998</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>96</v>
       </c>
@@ -4521,7 +4569,7 @@
         <v>17.070938215102977</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>68</v>
       </c>
@@ -4556,7 +4604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +4639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -4626,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4661,7 +4709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -4696,7 +4744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4779,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -4766,7 +4814,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -4801,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -4836,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -4871,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -4906,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -4918,7 +4966,7 @@
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4963,7 +5011,7 @@
         <v>5.3406998158379375</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -5008,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>99</v>
       </c>
@@ -5053,7 +5101,7 @@
         <v>0.55248618784530379</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>96</v>
       </c>
@@ -5098,7 +5146,7 @@
         <v>5.8931860036832413</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>79</v>
       </c>
@@ -5133,7 +5181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -5273,7 +5321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -5308,7 +5356,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -5343,7 +5391,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -5378,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -5413,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>29</v>
       </c>
@@ -5448,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -5483,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -5518,7 +5566,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -5563,7 +5611,7 @@
         <v>0.76335877862595414</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -5608,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -5653,7 +5701,7 @@
         <v>0.5089058524173028</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>96</v>
       </c>
@@ -5698,7 +5746,7 @@
         <v>1.272264631043257</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>101</v>
       </c>
@@ -5748,7 +5796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>117</v>
       </c>
@@ -5789,7 +5837,7 @@
       </c>
       <c r="Q128" s="31"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -5839,7 +5887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -5889,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -5939,7 +5987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -5989,7 +6037,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -6039,7 +6087,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -6089,7 +6137,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -6139,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -6189,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -6239,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -6289,7 +6337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>100</v>
       </c>
@@ -6327,7 +6375,7 @@
       </c>
       <c r="P139" s="33"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -6392,7 +6440,7 @@
         <v>1.7688679245283019</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -6457,7 +6505,7 @@
         <v>1.3856132075471699</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
         <v>95</v>
       </c>
@@ -6522,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>96</v>
       </c>
@@ -6587,7 +6635,7 @@
         <v>3.154481132075472</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -6603,14 +6651,399 @@
       <c r="O144" s="11"/>
       <c r="P144" s="32"/>
     </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>93</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>14</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>267</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>154</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>6</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>129</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150">
+        <v>51</v>
+      </c>
+      <c r="C150">
+        <v>702</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
+      </c>
+      <c r="F150">
+        <v>562</v>
+      </c>
+      <c r="G150">
+        <v>19</v>
+      </c>
+      <c r="H150">
+        <v>228</v>
+      </c>
+      <c r="I150">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>399</v>
+      </c>
+      <c r="K150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>182</v>
+      </c>
+      <c r="C151">
+        <v>4127</v>
+      </c>
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>98</v>
+      </c>
+      <c r="F151">
+        <v>2448</v>
+      </c>
+      <c r="G151">
+        <v>70</v>
+      </c>
+      <c r="H151">
+        <v>432</v>
+      </c>
+      <c r="I151">
+        <v>108</v>
+      </c>
+      <c r="J151">
+        <v>1857</v>
+      </c>
+      <c r="K151">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152">
+        <v>93</v>
+      </c>
+      <c r="C152">
+        <v>1526</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>116</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>43</v>
+      </c>
+      <c r="I152">
+        <v>34</v>
+      </c>
+      <c r="J152">
+        <v>1466</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>Nested type count</t>
   </si>
@@ -387,6 +387,54 @@
   </si>
   <si>
     <t>After NullFIX</t>
+  </si>
+  <si>
+    <t>Robert’s Projects</t>
+  </si>
+  <si>
+    <t>Jpacman Framework</t>
+  </si>
+  <si>
+    <t>seventh</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Java String Similarity</t>
+  </si>
+  <si>
+    <t>LeetCode Sol Res</t>
+  </si>
+  <si>
+    <t>Game of Life in Java</t>
+  </si>
+  <si>
+    <t>EduMIPS64</t>
+  </si>
+  <si>
+    <t>ATM Simulator</t>
+  </si>
+  <si>
+    <t>RinSim</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Other Interface and Class declarations</t>
+  </si>
+  <si>
+    <t>Marker Annotation count</t>
+  </si>
+  <si>
+    <t>Nested Annotation count</t>
+  </si>
+  <si>
+    <t>Local Annotation count</t>
+  </si>
+  <si>
+    <t>Other Annotation count</t>
   </si>
 </sst>
 </file>
@@ -428,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +487,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,11 +774,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="58">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1330,72 +1574,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A127:P144" totalsRowShown="0" headerRowBorderDxfId="40" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A127:P144" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="57">
   <autoFilter ref="A127:P144"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Shay's Projects"/>
-    <tableColumn id="2" name="BBM Secure Comms" dataDxfId="39"/>
-    <tableColumn id="3" name="BB web samples" dataDxfId="38"/>
-    <tableColumn id="4" name="All Algorithms" dataDxfId="37"/>
-    <tableColumn id="5" name="DeepLearning" dataDxfId="36"/>
-    <tableColumn id="6" name="Column1" dataDxfId="35"/>
-    <tableColumn id="7" name="ExoPlayer" dataDxfId="34"/>
-    <tableColumn id="8" name="Column2" dataDxfId="33"/>
-    <tableColumn id="9" name="Dex2Java Decompiler" dataDxfId="32"/>
-    <tableColumn id="10" name="Net Cipher" dataDxfId="31"/>
-    <tableColumn id="11" name="ReactiveExtensionsForJVM" dataDxfId="30"/>
-    <tableColumn id="12" name="Column3" dataDxfId="29"/>
+    <tableColumn id="2" name="BBM Secure Comms" dataDxfId="55"/>
+    <tableColumn id="3" name="BB web samples" dataDxfId="54"/>
+    <tableColumn id="4" name="All Algorithms" dataDxfId="53"/>
+    <tableColumn id="5" name="DeepLearning" dataDxfId="52"/>
+    <tableColumn id="6" name="Column1" dataDxfId="51"/>
+    <tableColumn id="7" name="ExoPlayer" dataDxfId="50"/>
+    <tableColumn id="8" name="Column2" dataDxfId="49"/>
+    <tableColumn id="9" name="Dex2Java Decompiler" dataDxfId="48"/>
+    <tableColumn id="10" name="Net Cipher" dataDxfId="47"/>
+    <tableColumn id="11" name="ReactiveExtensionsForJVM" dataDxfId="46"/>
+    <tableColumn id="12" name="Column3" dataDxfId="45"/>
     <tableColumn id="13" name="Java9 ASTParser"/>
-    <tableColumn id="14" name="Column4" dataDxfId="28"/>
-    <tableColumn id="15" name="Replacement4SQLITE&amp;ORMs" dataDxfId="27"/>
-    <tableColumn id="16" name="Column5" dataDxfId="26"/>
+    <tableColumn id="14" name="Column4" dataDxfId="44"/>
+    <tableColumn id="15" name="Replacement4SQLITE&amp;ORMs" dataDxfId="43"/>
+    <tableColumn id="16" name="Column5" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table5" displayName="Table5" ref="A110:K125" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table57" displayName="Table57" ref="A110:K125" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40">
   <autoFilter ref="A110:K125"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Dal's Projects"/>
-    <tableColumn id="2" name="GriefPrevention" dataDxfId="22"/>
-    <tableColumn id="4" name="EssentialsX" dataDxfId="21"/>
-    <tableColumn id="5" name="EssentialsChat" dataDxfId="20"/>
-    <tableColumn id="6" name="WorldGuard" dataDxfId="19"/>
-    <tableColumn id="7" name="WorldBorder" dataDxfId="18"/>
-    <tableColumn id="8" name="PlotSquared" dataDxfId="17"/>
-    <tableColumn id="9" name="ProtocolLib" dataDxfId="16"/>
-    <tableColumn id="10" name="SuperVanish" dataDxfId="15"/>
-    <tableColumn id="11" name="ViaVersion" dataDxfId="14"/>
-    <tableColumn id="12" name="WorldEdit" dataDxfId="13"/>
+    <tableColumn id="2" name="GriefPrevention" dataDxfId="38"/>
+    <tableColumn id="4" name="EssentialsX" dataDxfId="37"/>
+    <tableColumn id="5" name="EssentialsChat" dataDxfId="36"/>
+    <tableColumn id="6" name="WorldGuard" dataDxfId="35"/>
+    <tableColumn id="7" name="WorldBorder" dataDxfId="34"/>
+    <tableColumn id="8" name="PlotSquared" dataDxfId="33"/>
+    <tableColumn id="9" name="ProtocolLib" dataDxfId="32"/>
+    <tableColumn id="10" name="SuperVanish" dataDxfId="31"/>
+    <tableColumn id="11" name="ViaVersion" dataDxfId="30"/>
+    <tableColumn id="12" name="WorldEdit" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table6" displayName="Table6" ref="A93:K108" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table68" displayName="Table68" ref="A93:K108" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
   <autoFilter ref="A93:K108"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Josh's Projects"/>
-    <tableColumn id="2" name="jMonkeyEngine" dataDxfId="9"/>
-    <tableColumn id="4" name="libGDX" dataDxfId="8"/>
-    <tableColumn id="5" name="TEAMMATES" dataDxfId="7"/>
-    <tableColumn id="6" name="JUnit 4" dataDxfId="6"/>
-    <tableColumn id="7" name="Activiti" dataDxfId="5"/>
-    <tableColumn id="8" name="Kore" dataDxfId="4"/>
-    <tableColumn id="9" name="MyCollab" dataDxfId="3"/>
-    <tableColumn id="10" name="BioJava" dataDxfId="2"/>
-    <tableColumn id="11" name="Cryptomator" dataDxfId="1"/>
-    <tableColumn id="12" name="Java Google Maps" dataDxfId="0"/>
+    <tableColumn id="2" name="jMonkeyEngine" dataDxfId="25"/>
+    <tableColumn id="4" name="libGDX" dataDxfId="24"/>
+    <tableColumn id="5" name="TEAMMATES" dataDxfId="23"/>
+    <tableColumn id="6" name="JUnit 4" dataDxfId="22"/>
+    <tableColumn id="7" name="Activiti" dataDxfId="21"/>
+    <tableColumn id="8" name="Kore" dataDxfId="20"/>
+    <tableColumn id="9" name="MyCollab" dataDxfId="19"/>
+    <tableColumn id="10" name="BioJava" dataDxfId="18"/>
+    <tableColumn id="11" name="Cryptomator" dataDxfId="17"/>
+    <tableColumn id="12" name="Java Google Maps" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table7" displayName="Table7" ref="A76:K91" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table79" displayName="Table79" ref="A76:K91" totalsRowShown="0">
   <autoFilter ref="A76:K91"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Amy's Projects"/>
@@ -1409,6 +1653,106 @@
     <tableColumn id="10" name="Activity Tracking/Location Sharing App"/>
     <tableColumn id="11" name="Note App"/>
     <tableColumn id="12" name="Plaid App"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A4:K19"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Tony's Projects"/>
+    <tableColumn id="2" name="Hadoop BAM (genomics)"/>
+    <tableColumn id="4" name="Chemistry DK."/>
+    <tableColumn id="5" name="Jannovar for VCF"/>
+    <tableColumn id="6" name="Varsim"/>
+    <tableColumn id="7" name="Cancer Registry cgritt"/>
+    <tableColumn id="8" name="openCGA"/>
+    <tableColumn id="9" name="intermine"/>
+    <tableColumn id="10" name="Caleydo"/>
+    <tableColumn id="11" name="IGV"/>
+    <tableColumn id="12" name="Irida-dev"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table767" displayName="Table767" ref="A22:K37" totalsRowShown="0">
+  <autoFilter ref="A22:K37"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Wilfredo's Projects "/>
+    <tableColumn id="2" name="Dungeon"/>
+    <tableColumn id="4" name="Game Engine"/>
+    <tableColumn id="5" name="Magarena"/>
+    <tableColumn id="6" name="Xmage"/>
+    <tableColumn id="7" name="Martian Run"/>
+    <tableColumn id="8" name="Mindustry"/>
+    <tableColumn id="9" name="PretendYoureXyzzy"/>
+    <tableColumn id="10" name="Seventh"/>
+    <tableColumn id="11" name="Stendhal"/>
+    <tableColumn id="12" name="Terasology"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table7679" displayName="Table7679" ref="A39:K54" totalsRowShown="0">
+  <autoFilter ref="A39:K54"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Logan's Projects "/>
+    <tableColumn id="2" name="Crawler4j"/>
+    <tableColumn id="4" name="Incibator Dubbo"/>
+    <tableColumn id="5" name="KillBill"/>
+    <tableColumn id="6" name="Open Refine"/>
+    <tableColumn id="7" name="Stage Monitor"/>
+    <tableColumn id="8" name="Graph Hopper"/>
+    <tableColumn id="9" name="h20.io"/>
+    <tableColumn id="10" name="Omni Notes"/>
+    <tableColumn id="11" name="pinpoint"/>
+    <tableColumn id="12" name="openFire"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table767910" displayName="Table767910" ref="A56:K71" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A56:K71"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Sim's Projects"/>
+    <tableColumn id="2" name="Quartz Scheduler" dataDxfId="13"/>
+    <tableColumn id="4" name="Open EMRConect"/>
+    <tableColumn id="5" name="Wallet"/>
+    <tableColumn id="6" name="Secure Banking System"/>
+    <tableColumn id="7" name="Calendar System"/>
+    <tableColumn id="8" name="Time4J"/>
+    <tableColumn id="9" name="Voj "/>
+    <tableColumn id="10" name="Core Flight Systm(CFS) and data Dictionary(CCDD) Utility"/>
+    <tableColumn id="11" name="Dert"/>
+    <tableColumn id="12" name="Hyper realistic zombie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511" displayName="Table511" ref="A146:K160" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A146:K160"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Robert’s Projects"/>
+    <tableColumn id="2" name="Jpacman Framework" dataDxfId="9"/>
+    <tableColumn id="4" name="seventh" dataDxfId="8"/>
+    <tableColumn id="5" name="Snake" dataDxfId="7"/>
+    <tableColumn id="6" name="Java String Similarity" dataDxfId="6"/>
+    <tableColumn id="7" name="LeetCode Sol Res" dataDxfId="5"/>
+    <tableColumn id="8" name="Game of Life in Java" dataDxfId="4"/>
+    <tableColumn id="9" name="EduMIPS64" dataDxfId="3"/>
+    <tableColumn id="10" name="ATM Simulator" dataDxfId="2"/>
+    <tableColumn id="11" name="RinSim" dataDxfId="1"/>
+    <tableColumn id="12" name="Mathematics" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1677,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U159"/>
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,34 +2074,34 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1766,34 +2110,34 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>154</v>
+      </c>
       <c r="D5" s="1">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="H5" s="1">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="J5" s="1">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1">
-        <v>69</v>
-      </c>
-      <c r="L5" s="1">
         <v>32</v>
       </c>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1802,15 +2146,18 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
       <c r="D6" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -1818,21 +2165,18 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1841,37 +2185,37 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <f>0+42+34+41+8+2+1+2+3+19</f>
         <v>152</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <f>2</f>
         <v>2</v>
       </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="J7" s="1">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1">
         <v>20</v>
       </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1880,34 +2224,34 @@
       <c r="B8" s="1">
         <v>34</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>2436</v>
+      </c>
       <c r="D8" s="1">
-        <v>2436</v>
+        <v>525</v>
       </c>
       <c r="E8" s="1">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="G8" s="1">
-        <v>155</v>
+        <v>830</v>
       </c>
       <c r="H8" s="1">
-        <v>830</v>
+        <v>1932</v>
       </c>
       <c r="I8" s="1">
-        <v>1932</v>
+        <v>2108</v>
       </c>
       <c r="J8" s="1">
-        <v>2108</v>
+        <v>1007</v>
       </c>
       <c r="K8" s="1">
-        <v>1007</v>
-      </c>
-      <c r="L8" s="1">
         <v>790</v>
       </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1916,34 +2260,34 @@
       <c r="B9" s="1">
         <v>67</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>7242</v>
+      </c>
       <c r="D9" s="1">
-        <v>7242</v>
+        <v>1278</v>
       </c>
       <c r="E9" s="1">
-        <v>1278</v>
+        <v>213</v>
       </c>
       <c r="F9" s="1">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1">
-        <v>193</v>
+        <v>1908</v>
       </c>
       <c r="H9" s="1">
-        <v>1908</v>
+        <v>2308</v>
       </c>
       <c r="I9" s="1">
-        <v>2308</v>
+        <v>7628</v>
       </c>
       <c r="J9" s="1">
-        <v>7628</v>
+        <v>3522</v>
       </c>
       <c r="K9" s="1">
-        <v>3522</v>
-      </c>
-      <c r="L9" s="1">
         <v>640</v>
       </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1952,34 +2296,34 @@
       <c r="B10" s="1">
         <v>47</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>10289</v>
+      </c>
       <c r="D10" s="1">
-        <v>10289</v>
+        <v>1145</v>
       </c>
       <c r="E10" s="1">
-        <v>1145</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1">
-        <v>51</v>
+        <v>444</v>
       </c>
       <c r="G10" s="1">
-        <v>444</v>
+        <v>1491</v>
       </c>
       <c r="H10" s="1">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="I10" s="1">
-        <v>1497</v>
+        <v>3648</v>
       </c>
       <c r="J10" s="1">
-        <v>3648</v>
+        <v>879</v>
       </c>
       <c r="K10" s="1">
-        <v>879</v>
-      </c>
-      <c r="L10" s="1">
         <v>2675</v>
       </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1988,16 +2332,19 @@
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="1">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
@@ -2005,7 +2352,6 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -2017,9 +2363,7 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2028,16 +2372,19 @@
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="1">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
@@ -2045,7 +2392,6 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
@@ -2057,9 +2403,7 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2068,16 +2412,19 @@
       <c r="B13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="1">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
@@ -2085,7 +2432,6 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
@@ -2097,9 +2443,7 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
+      <c r="L13" s="1"/>
       <c r="M13" t="s">
         <v>32</v>
       </c>
@@ -2111,36 +2455,36 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="L14" s="1">
         <v>8</v>
       </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2155,48 +2499,44 @@
         <f>B5/SUM(B5:B14)*100</f>
         <v>1.3245033112582782</v>
       </c>
-      <c r="C16" t="e">
-        <f t="shared" ref="C16:L16" si="0">C5/SUM(C5:C14)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C16">
+        <f t="shared" ref="C16:K16" si="0">C5/SUM(C5:C14)*100</f>
+        <v>0.75963103635377105</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.75963103635377105</v>
+        <v>0.37137069547602969</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.37137069547602969</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>1.1428571428571428</v>
+        <v>1.8564356435643563</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1.8564356435643563</v>
+        <v>5.1454138702460845</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>5.1454138702460845</v>
+        <v>2.0220900594732369</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2.0220900594732369</v>
+        <v>1.3218722912453047</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>1.3218722912453047</v>
+        <v>1.25</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
         <v>0.7683073229291717</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -2204,48 +2544,44 @@
         <f>B7/SUM(B5:B14)*100</f>
         <v>0.66225165562913912</v>
       </c>
-      <c r="C17" t="e">
-        <f t="shared" ref="C17:L17" si="1">C7/SUM(C5:C14)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C17">
+        <f t="shared" ref="C17:K17" si="1">C7/SUM(C5:C14)*100</f>
+        <v>0.7497656982193065</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.7497656982193065</v>
+        <v>6.7521944632005407E-2</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>6.7521944632005407E-2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24608501118568235</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0.24608501118568235</v>
+        <v>0.4927782497875956</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0.4927782497875956</v>
+        <v>1.9791967639410575</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>1.9791967639410575</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>0.70652173913043481</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
         <v>0.48019207683073228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2253,9 +2589,9 @@
         <f>B6/SUM(B5:B14)*100</f>
         <v>0</v>
       </c>
-      <c r="C18" t="e">
-        <f t="shared" ref="C18:L18" si="2">C6/SUM(C5:C14)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C18">
+        <f t="shared" ref="C18:K18" si="2">C6/SUM(C5:C14)*100</f>
+        <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
@@ -2279,22 +2615,18 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4446691707598961E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>1.4446691707598961E-2</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2302,127 +2634,137 @@
         <f>SUM(B16:B18)</f>
         <v>1.9867549668874174</v>
       </c>
-      <c r="C19" t="e">
-        <f t="shared" ref="C19:L19" si="3">SUM(C16:C18)</f>
-        <v>#DIV/0!</v>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="3">SUM(C16:C18)</f>
+        <v>1.5093967345730777</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>1.5093967345730777</v>
+        <v>0.43889264010803508</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>0.43889264010803508</v>
+        <v>1.4285714285714284</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>1.4285714285714284</v>
+        <v>1.8564356435643563</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>1.8564356435643563</v>
+        <v>5.391498881431767</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>5.391498881431767</v>
+        <v>2.5148683092608324</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>2.5148683092608324</v>
+        <v>3.3155157468939613</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>3.3155157468939613</v>
+        <v>1.9565217391304348</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>1.9565217391304348</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
         <v>1.2484993997599041</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F23">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H23">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="I23">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="J23">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>106</v>
-      </c>
-      <c r="L23">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -2442,127 +2784,135 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="E25">
-        <v>609</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="H25">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="J25">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="K25">
-        <v>270</v>
-      </c>
-      <c r="L25">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
         <v>301</v>
       </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
       <c r="D26">
-        <v>30</v>
+        <v>1268</v>
       </c>
       <c r="E26">
-        <v>1268</v>
+        <v>21007</v>
       </c>
       <c r="F26">
-        <v>21007</v>
+        <v>39</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="H26">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="I26">
-        <v>84</v>
+        <v>702</v>
       </c>
       <c r="J26">
-        <v>702</v>
+        <v>2486</v>
       </c>
       <c r="K26">
-        <v>2486</v>
-      </c>
-      <c r="L26">
         <v>1989</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27">
         <v>726</v>
       </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
       <c r="D27">
-        <v>78</v>
+        <v>2659</v>
       </c>
       <c r="E27">
-        <v>2659</v>
+        <v>6886</v>
       </c>
       <c r="F27">
-        <v>6886</v>
+        <v>152</v>
       </c>
       <c r="G27">
-        <v>152</v>
+        <v>1273</v>
       </c>
       <c r="H27">
-        <v>1273</v>
+        <v>144</v>
       </c>
       <c r="I27">
-        <v>144</v>
+        <v>4127</v>
       </c>
       <c r="J27">
-        <v>4127</v>
+        <v>4679</v>
       </c>
       <c r="K27">
-        <v>4679</v>
-      </c>
-      <c r="L27">
         <v>7495</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
         <v>0</v>
       </c>
@@ -2587,17 +2937,18 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
@@ -2622,31 +2973,35 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2654,48 +3009,44 @@
         <f>B23/SUM(B23:B32)*100</f>
         <v>0.95057034220532322</v>
       </c>
-      <c r="C34" t="e">
-        <f t="shared" ref="C34:K34" si="4">C23/SUM(C23:C32)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C34">
+        <f t="shared" ref="C34:J34" si="4">C23/SUM(C23:C32)*100</f>
+        <v>0.91743119266055051</v>
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>0.91743119266055051</v>
+        <v>0.80909687294992338</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>0.80909687294992338</v>
+        <v>0.3710839934346678</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>0.3710839934346678</v>
+        <v>3.9800995024875623</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>3.9800995024875623</v>
+        <v>3.9384615384615387</v>
       </c>
       <c r="H34">
         <f t="shared" si="4"/>
-        <v>3.9384615384615387</v>
+        <v>5.3061224489795915</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>5.3061224489795915</v>
+        <v>1.8321513002364065</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>1.8321513002364065</v>
+        <v>1.4052764152194088</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
-        <v>1.4052764152194088</v>
-      </c>
-      <c r="L34">
-        <f>L23/SUM(L23:L32)*100</f>
+        <f>K23/SUM(K23:K32)*100</f>
         <v>2.0801468338941573</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2703,48 +3054,44 @@
         <f>B25/SUM(B23:B32)*100</f>
         <v>1.4258555133079849</v>
       </c>
-      <c r="C35" t="e">
-        <f t="shared" ref="C35:K35" si="5">C25/SUM(C23:C32)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C35">
+        <f t="shared" ref="C35:J35" si="5">C25/SUM(C23:C32)*100</f>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.317297179094686</v>
       </c>
       <c r="E35">
         <f t="shared" si="5"/>
-        <v>13.317297179094686</v>
+        <v>0.10347534432312852</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>0.10347534432312852</v>
+        <v>0.99502487562189057</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>0.99502487562189057</v>
+        <v>6.4615384615384617</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>6.4615384615384617</v>
+        <v>1.6326530612244898</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
-        <v>1.6326530612244898</v>
+        <v>3.0338849487785655</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
-        <v>3.0338849487785655</v>
+        <v>3.5794776614079282</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
-        <v>3.5794776614079282</v>
-      </c>
-      <c r="L35">
-        <f>L25/SUM(L23:L32)*100</f>
+        <f>K25/SUM(K23:K32)*100</f>
         <v>1.2134189864382585</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2752,9 +3099,9 @@
         <f>B24/SUM(B23:B32)*100</f>
         <v>0</v>
       </c>
-      <c r="C36" t="e">
-        <f t="shared" ref="C36:L36" si="6">C24/SUM(C23:C32)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C36">
+        <f t="shared" ref="C36:K36" si="6">C24/SUM(C23:C32)*100</f>
+        <v>0</v>
       </c>
       <c r="D36">
         <f t="shared" si="6"/>
@@ -2782,18 +3129,14 @@
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.6514649343762426E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="6"/>
-        <v>2.6514649343762426E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2801,125 +3144,123 @@
         <f>SUM(B34:B36)</f>
         <v>2.376425855513308</v>
       </c>
-      <c r="C37" t="e">
-        <f t="shared" ref="C37:L37" si="7">SUM(C34:C36)</f>
-        <v>#DIV/0!</v>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="7">SUM(C34:C36)</f>
+        <v>0.91743119266055051</v>
       </c>
       <c r="D37">
         <f t="shared" si="7"/>
-        <v>0.91743119266055051</v>
+        <v>14.12639405204461</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>14.12639405204461</v>
+        <v>0.47455933775779635</v>
       </c>
       <c r="F37">
         <f t="shared" si="7"/>
-        <v>0.47455933775779635</v>
+        <v>4.9751243781094532</v>
       </c>
       <c r="G37">
         <f t="shared" si="7"/>
-        <v>4.9751243781094532</v>
+        <v>10.4</v>
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>10.4</v>
+        <v>6.9387755102040813</v>
       </c>
       <c r="I37">
         <f t="shared" si="7"/>
-        <v>6.9387755102040813</v>
+        <v>4.8660362490149716</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>4.8660362490149716</v>
+        <v>5.0112687259710995</v>
       </c>
       <c r="K37">
         <f t="shared" si="7"/>
-        <v>5.0112687259710995</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="7"/>
         <v>3.2935658203324158</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
+      <c r="C40">
+        <v>141</v>
+      </c>
       <c r="D40">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="E40">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F40">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G40">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="I40">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="K40">
-        <v>351</v>
-      </c>
-      <c r="L40">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41">
         <v>0</v>
       </c>
@@ -2927,174 +3268,174 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
       <c r="D42">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E42">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="G42">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I42">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="J42">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="K42">
-        <v>236</v>
-      </c>
-      <c r="L42">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43">
         <v>71</v>
       </c>
+      <c r="C43">
+        <v>1247</v>
+      </c>
       <c r="D43">
-        <v>1247</v>
+        <v>1427</v>
       </c>
       <c r="E43">
-        <v>1427</v>
+        <v>607</v>
       </c>
       <c r="F43">
-        <v>607</v>
+        <v>465</v>
       </c>
       <c r="G43">
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="H43">
-        <v>547</v>
+        <v>1387</v>
       </c>
       <c r="I43">
-        <v>1387</v>
+        <v>165</v>
       </c>
       <c r="J43">
-        <v>165</v>
+        <v>3809</v>
       </c>
       <c r="K43">
-        <v>3809</v>
-      </c>
-      <c r="L43">
         <v>1531</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44">
         <v>256</v>
       </c>
+      <c r="C44">
+        <v>3264</v>
+      </c>
       <c r="D44">
-        <v>3264</v>
+        <v>1194</v>
       </c>
       <c r="E44">
-        <v>1194</v>
+        <v>1149</v>
       </c>
       <c r="F44">
-        <v>1149</v>
+        <v>786</v>
       </c>
       <c r="G44">
-        <v>786</v>
+        <v>2546</v>
       </c>
       <c r="H44">
-        <v>2546</v>
+        <v>4871</v>
       </c>
       <c r="I44">
-        <v>4871</v>
+        <v>471</v>
       </c>
       <c r="J44">
-        <v>471</v>
+        <v>10604</v>
       </c>
       <c r="K44">
-        <v>10604</v>
-      </c>
-      <c r="L44">
         <v>4809</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
       <c r="B45">
         <v>48</v>
       </c>
+      <c r="C45">
+        <v>1023</v>
+      </c>
       <c r="D45">
-        <v>1023</v>
+        <v>4443</v>
       </c>
       <c r="E45">
-        <v>4443</v>
+        <v>896</v>
       </c>
       <c r="F45">
-        <v>896</v>
+        <v>1294</v>
       </c>
       <c r="G45">
-        <v>1294</v>
+        <v>980</v>
       </c>
       <c r="H45">
-        <v>980</v>
+        <v>1885</v>
       </c>
       <c r="I45">
-        <v>1885</v>
+        <v>200</v>
       </c>
       <c r="J45">
-        <v>200</v>
+        <v>7221</v>
       </c>
       <c r="K45">
-        <v>7221</v>
-      </c>
-      <c r="L45">
         <v>1370</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
       <c r="D46">
         <v>0</v>
       </c>
@@ -3119,28 +3460,28 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
       <c r="D47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3149,22 +3490,22 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K47">
-        <v>6</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48">
         <v>0</v>
       </c>
@@ -3187,9 +3528,6 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
         <v>0</v>
       </c>
     </row>
@@ -3200,31 +3538,31 @@
       <c r="B49">
         <v>0</v>
       </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
       <c r="D49">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>5</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>40</v>
-      </c>
-      <c r="L49">
         <v>1</v>
       </c>
     </row>
@@ -3241,43 +3579,39 @@
         <f>B40/SUM(B40:B49)</f>
         <v>2.0887728459530026E-2</v>
       </c>
-      <c r="C51" t="e">
-        <f t="shared" ref="C51:L51" si="8">C40/SUM(C40:C49)</f>
-        <v>#DIV/0!</v>
+      <c r="C51">
+        <f t="shared" ref="C51:K51" si="8">C40/SUM(C40:C49)</f>
+        <v>2.4440977639105563E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="8"/>
-        <v>2.4440977639105563E-2</v>
+        <v>1.1379030073150907E-2</v>
       </c>
       <c r="E51">
         <f t="shared" si="8"/>
-        <v>1.1379030073150907E-2</v>
+        <v>2.0213156927600145E-2</v>
       </c>
       <c r="F51">
         <f t="shared" si="8"/>
-        <v>2.0213156927600145E-2</v>
+        <v>3.434704830053667E-2</v>
       </c>
       <c r="G51">
         <f t="shared" si="8"/>
-        <v>3.434704830053667E-2</v>
+        <v>1.2262563116133687E-2</v>
       </c>
       <c r="H51">
         <f t="shared" si="8"/>
-        <v>1.2262563116133687E-2</v>
+        <v>2.8190610993158765E-2</v>
       </c>
       <c r="I51">
         <f t="shared" si="8"/>
-        <v>2.8190610993158765E-2</v>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
-        <v>7.0422535211267607E-3</v>
+        <v>1.5758990706236251E-2</v>
       </c>
       <c r="K51">
-        <f t="shared" si="8"/>
-        <v>1.5758990706236251E-2</v>
-      </c>
-      <c r="L51">
         <f t="shared" si="8"/>
         <v>1.0496671786994368E-2</v>
       </c>
@@ -3290,43 +3624,39 @@
         <f>B42/SUM(B40:B49)*100</f>
         <v>0</v>
       </c>
-      <c r="C52" t="e">
-        <f t="shared" ref="C52:L52" si="9">C42/SUM(C40:C49)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C52">
+        <f t="shared" ref="C52:K52" si="9">C42/SUM(C40:C49)*100</f>
+        <v>1.3000520020800832</v>
       </c>
       <c r="D52">
         <f t="shared" si="9"/>
-        <v>1.3000520020800832</v>
+        <v>3.1021403413709021</v>
       </c>
       <c r="E52">
         <f t="shared" si="9"/>
-        <v>3.1021403413709021</v>
+        <v>0.51451672179345831</v>
       </c>
       <c r="F52">
         <f t="shared" si="9"/>
-        <v>0.51451672179345831</v>
+        <v>4.9373881932021471</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
-        <v>4.9373881932021471</v>
+        <v>0.81750420774224575</v>
       </c>
       <c r="H52">
         <f t="shared" si="9"/>
-        <v>0.81750420774224575</v>
+        <v>1.0969568294409058</v>
       </c>
       <c r="I52">
         <f t="shared" si="9"/>
-        <v>1.0969568294409058</v>
+        <v>1.056338028169014</v>
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
-        <v>1.056338028169014</v>
+        <v>1.0595788622996454</v>
       </c>
       <c r="K52">
-        <f t="shared" si="9"/>
-        <v>1.0595788622996454</v>
-      </c>
-      <c r="L52">
         <f t="shared" si="9"/>
         <v>0.24321556579621098</v>
       </c>
@@ -3339,9 +3669,9 @@
         <f>B41/SUM(B40:B49)*100</f>
         <v>0</v>
       </c>
-      <c r="C53" t="e">
-        <f t="shared" ref="C53:K53" si="10">C41/SUM(C40:C49)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C53">
+        <f t="shared" ref="C53:J53" si="10">C41/SUM(C40:C49)*100</f>
+        <v>0</v>
       </c>
       <c r="D53">
         <f t="shared" si="10"/>
@@ -3353,11 +3683,11 @@
       </c>
       <c r="F53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14311270125223613</v>
       </c>
       <c r="G53">
         <f t="shared" si="10"/>
-        <v>0.14311270125223613</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" si="10"/>
@@ -3365,18 +3695,14 @@
       </c>
       <c r="I53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.11737089201877934</v>
       </c>
       <c r="J53">
         <f t="shared" si="10"/>
-        <v>0.11737089201877934</v>
+        <v>2.6938445651685898E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="10"/>
-        <v>2.6938445651685898E-2</v>
-      </c>
-      <c r="L53">
-        <f>L41/SUM(L40:L49)*100</f>
+        <f>K41/SUM(K40:K49)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3388,43 +3714,39 @@
         <f>SUM(B51:B53)</f>
         <v>2.0887728459530026E-2</v>
       </c>
-      <c r="C54" t="e">
-        <f t="shared" ref="C54:L54" si="11">SUM(C51:C53)</f>
-        <v>#DIV/0!</v>
+      <c r="C54">
+        <f t="shared" ref="C54:K54" si="11">SUM(C51:C53)</f>
+        <v>1.3244929797191887</v>
       </c>
       <c r="D54">
         <f t="shared" si="11"/>
-        <v>1.3244929797191887</v>
+        <v>3.113519371444053</v>
       </c>
       <c r="E54">
         <f t="shared" si="11"/>
-        <v>3.113519371444053</v>
+        <v>0.53472987872105848</v>
       </c>
       <c r="F54">
         <f t="shared" si="11"/>
-        <v>0.53472987872105848</v>
+        <v>5.1148479427549196</v>
       </c>
       <c r="G54">
         <f t="shared" si="11"/>
-        <v>5.1148479427549196</v>
+        <v>0.82976677085837947</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
-        <v>0.82976677085837947</v>
+        <v>1.1251474404340644</v>
       </c>
       <c r="I54">
         <f t="shared" si="11"/>
-        <v>1.1251474404340644</v>
+        <v>1.18075117370892</v>
       </c>
       <c r="J54">
         <f t="shared" si="11"/>
-        <v>1.18075117370892</v>
+        <v>1.1022762986575676</v>
       </c>
       <c r="K54">
-        <f t="shared" si="11"/>
-        <v>1.1022762986575676</v>
-      </c>
-      <c r="L54">
         <f t="shared" si="11"/>
         <v>0.25371223758320532</v>
       </c>
@@ -3436,34 +3758,34 @@
       <c r="B56" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="E56" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F56" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
@@ -3472,32 +3794,31 @@
       <c r="B57" s="5">
         <v>71</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57">
+        <v>22</v>
+      </c>
       <c r="D57">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K57">
-        <v>14</v>
-      </c>
-      <c r="L57">
         <v>0</v>
       </c>
     </row>
@@ -3508,7 +3829,9 @@
       <c r="B58" s="5">
         <v>0</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58">
+        <v>0</v>
+      </c>
       <c r="D58">
         <v>0</v>
       </c>
@@ -3531,9 +3854,6 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
         <v>0</v>
       </c>
     </row>
@@ -3544,7 +3864,9 @@
       <c r="B59" s="5">
         <v>0</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59">
+        <v>0</v>
+      </c>
       <c r="D59">
         <v>0</v>
       </c>
@@ -3567,9 +3889,6 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
         <v>0</v>
       </c>
     </row>
@@ -3580,32 +3899,31 @@
       <c r="B60" s="5">
         <v>459</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60">
+        <v>177</v>
+      </c>
       <c r="D60">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F60">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G60">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H60">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I60">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>334</v>
       </c>
       <c r="K60">
-        <v>334</v>
-      </c>
-      <c r="L60">
         <v>20</v>
       </c>
     </row>
@@ -3616,32 +3934,31 @@
       <c r="B61" s="5">
         <v>1181</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61">
+        <v>542</v>
+      </c>
       <c r="D61">
-        <v>542</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="F61">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G61">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I61">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="J61">
-        <v>117</v>
+        <v>1088</v>
       </c>
       <c r="K61">
-        <v>1088</v>
-      </c>
-      <c r="L61">
         <v>79</v>
       </c>
     </row>
@@ -3652,32 +3969,31 @@
       <c r="B62" s="5">
         <v>517</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62">
+        <v>78</v>
+      </c>
       <c r="D62">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="F62">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="G62">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I62">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K62">
-        <v>190</v>
-      </c>
-      <c r="L62">
         <v>7</v>
       </c>
     </row>
@@ -3688,7 +4004,9 @@
       <c r="B63" s="5">
         <v>0</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63">
+        <v>0</v>
+      </c>
       <c r="D63">
         <v>0</v>
       </c>
@@ -3711,9 +4029,6 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
         <v>0</v>
       </c>
     </row>
@@ -3722,28 +4037,24 @@
         <v>28</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -3753,13 +4064,13 @@
         <f>B57/SUM(B57:B66)*100</f>
         <v>3.1867145421903054</v>
       </c>
-      <c r="C68" s="5" t="e">
-        <f t="shared" ref="C68:L68" si="12">C57/SUM(C57:C66)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C68" s="5">
+        <f t="shared" ref="C68:K68" si="12">C57/SUM(C57:C66)*100</f>
+        <v>2.6862026862026864</v>
       </c>
       <c r="D68" s="5">
         <f t="shared" si="12"/>
-        <v>2.6862026862026864</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="12"/>
@@ -3767,32 +4078,29 @@
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.2304526748971192</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" si="12"/>
-        <v>8.2304526748971192</v>
+        <v>0</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.35842293906810035</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="12"/>
-        <v>0.35842293906810035</v>
+        <v>3.1746031746031744</v>
       </c>
       <c r="J68" s="5">
         <f t="shared" si="12"/>
-        <v>3.1746031746031744</v>
+        <v>0.86100861008610086</v>
       </c>
       <c r="K68" s="5">
         <f t="shared" si="12"/>
-        <v>0.86100861008610086</v>
-      </c>
-      <c r="L68" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -3802,9 +4110,9 @@
         <f>B59/SUM(B57:B66)*100</f>
         <v>0</v>
       </c>
-      <c r="C69" s="5" t="e">
-        <f t="shared" ref="C69:L69" si="13">C59/SUM(C57:C66)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C69" s="5">
+        <f t="shared" ref="C69:K69" si="13">C59/SUM(C57:C66)*100</f>
+        <v>0</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="13"/>
@@ -3838,10 +4146,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L69" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -3851,9 +4156,9 @@
         <f>B58/SUM(B57:B66)*100</f>
         <v>0</v>
       </c>
-      <c r="C70" t="e">
-        <f t="shared" ref="C70:L70" si="14">C58/SUM(C57:C66)*100</f>
-        <v>#DIV/0!</v>
+      <c r="C70">
+        <f t="shared" ref="C70:K70" si="14">C58/SUM(C57:C66)*100</f>
+        <v>0</v>
       </c>
       <c r="D70">
         <f t="shared" si="14"/>
@@ -3884,10 +4189,6 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -3900,13 +4201,13 @@
         <f>SUM(B68:B70)</f>
         <v>3.1867145421903054</v>
       </c>
-      <c r="C71" t="e">
-        <f t="shared" ref="C71:L71" si="15">SUM(C68:C70)</f>
-        <v>#DIV/0!</v>
+      <c r="C71">
+        <f t="shared" ref="C71:K71" si="15">SUM(C68:C70)</f>
+        <v>2.6862026862026864</v>
       </c>
       <c r="D71">
         <f t="shared" si="15"/>
-        <v>2.6862026862026864</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <f t="shared" si="15"/>
@@ -3914,29 +4215,25 @@
       </c>
       <c r="F71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8.2304526748971192</v>
       </c>
       <c r="G71">
         <f t="shared" si="15"/>
-        <v>8.2304526748971192</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.35842293906810035</v>
       </c>
       <c r="I71">
         <f t="shared" si="15"/>
-        <v>0.35842293906810035</v>
+        <v>3.1746031746031744</v>
       </c>
       <c r="J71">
         <f t="shared" si="15"/>
-        <v>3.1746031746031744</v>
+        <v>0.86100861008610086</v>
       </c>
       <c r="K71">
-        <f t="shared" si="15"/>
-        <v>0.86100861008610086</v>
-      </c>
-      <c r="L71">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -6603,14 +6900,590 @@
       <c r="O144" s="11"/>
       <c r="P144" s="32"/>
     </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>93</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>14</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>267</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>154</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>6</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>129</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150">
+        <v>51</v>
+      </c>
+      <c r="C150">
+        <v>702</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
+      </c>
+      <c r="F150">
+        <v>562</v>
+      </c>
+      <c r="G150">
+        <v>19</v>
+      </c>
+      <c r="H150">
+        <v>228</v>
+      </c>
+      <c r="I150">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>399</v>
+      </c>
+      <c r="K150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>182</v>
+      </c>
+      <c r="C151">
+        <v>4127</v>
+      </c>
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>98</v>
+      </c>
+      <c r="F151">
+        <v>2448</v>
+      </c>
+      <c r="G151">
+        <v>70</v>
+      </c>
+      <c r="H151">
+        <v>432</v>
+      </c>
+      <c r="I151">
+        <v>108</v>
+      </c>
+      <c r="J151">
+        <v>1857</v>
+      </c>
+      <c r="K151">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152">
+        <v>93</v>
+      </c>
+      <c r="C152">
+        <v>1526</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>116</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>43</v>
+      </c>
+      <c r="I152">
+        <v>34</v>
+      </c>
+      <c r="J152">
+        <v>1466</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <f>B147/SUM(B147:B156)*100</f>
+        <v>2.3880597014925375</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ref="C157:K157" si="32">C147/SUM(C147:C156)*100</f>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="32"/>
+        <v>1.5738117721120555</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="32"/>
+        <v>1.9498607242339834</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="32"/>
+        <v>6.4837299660029144</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B158">
+        <f>B148/SUM(B147:B156)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ref="C158:K158" si="33">C148/SUM(C147:C156)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B159">
+        <f>B149/SUM(B147:B156)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ref="C159:K159" si="34">C149/SUM(C147:C156)*100</f>
+        <v>2.3322732091473575</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="34"/>
+        <v>3.147623544224111E-2</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="34"/>
+        <v>6.25</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="34"/>
+        <v>0.1392757660167131</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="34"/>
+        <v>3.1325886352598351</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="34"/>
+        <v>2.4390243902439024</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160">
+        <f>SUM(B157:B159)</f>
+        <v>2.3880597014925375</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ref="C160:K160" si="35">SUM(C157:C159)</f>
+        <v>3.7407239133727099</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="35"/>
+        <v>1.6052880075542966</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="35"/>
+        <v>6.25</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="35"/>
+        <v>2.0891364902506964</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="35"/>
+        <v>9.6163186012627495</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="35"/>
+        <v>2.4390243902439024</v>
+      </c>
+    </row>
+    <row r="161" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="4">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="3400" yWindow="1180" windowWidth="20700" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
   <si>
     <t>Nested type count</t>
   </si>
@@ -125,9 +125,6 @@
     <t>openCGA</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logan's Projects </t>
   </si>
   <si>
@@ -435,6 +432,33 @@
   </si>
   <si>
     <t>Other Annotation count</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>% nested</t>
+  </si>
+  <si>
+    <t>% annon</t>
+  </si>
+  <si>
+    <t>% local</t>
+  </si>
+  <si>
+    <t>% nested+annon+local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX </t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIAN </t>
   </si>
 </sst>
 </file>
@@ -2023,17 +2047,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="L171" sqref="L171"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.83203125" customWidth="1"/>
     <col min="2" max="11" width="15" customWidth="1"/>
+    <col min="13" max="13" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2054,7 +2079,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2067,9 +2092,9 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2090,20 +2115,20 @@
         <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2164,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2203,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2217,7 +2242,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2278,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2314,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2325,7 +2350,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2390,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2404,8 +2429,18 @@
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2445,10 +2480,22 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="N13">
+        <f>MAX(B16:K16)</f>
+        <v>5.1454138702460845</v>
+      </c>
+      <c r="O13">
+        <f>MIN(B16:K16)</f>
+        <v>0.37137069547602969</v>
+      </c>
+      <c r="P13">
+        <f>MEDIAN(B16:K16)</f>
+        <v>1.2859361456226523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2485,13 +2532,43 @@
         <v>8</v>
       </c>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14">
+        <f>MAX(B17:L17)</f>
+        <v>1.9791967639410575</v>
+      </c>
+      <c r="O14">
+        <f>MIN(B17:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>MEDIAN(B17:K17)</f>
+        <v>0.48648516330916391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15">
+        <f>MAX(B18:K18)</f>
+        <v>1.4446691707598961E-2</v>
+      </c>
+      <c r="O15">
+        <f>MIN(B18:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>MEDIAN(B18:K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2516,7 +2593,7 @@
         <v>1.8564356435643563</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>G5/SUM(G5:G14)*100</f>
         <v>5.1454138702460845</v>
       </c>
       <c r="H16">
@@ -2535,10 +2612,25 @@
         <f t="shared" si="0"/>
         <v>0.7683073229291717</v>
       </c>
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16">
+        <f>MAX(B19:K19)</f>
+        <v>5.391498881431767</v>
+      </c>
+      <c r="O16">
+        <f>MIN(B19:K19)</f>
+        <v>0.43889264010803508</v>
+      </c>
+      <c r="P16">
+        <f>MEDIAN(B19:K19)</f>
+        <v>1.9064786913473957</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <f>B7/SUM(B5:B14)*100</f>
@@ -2583,7 +2675,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <f>B6/SUM(B5:B14)*100</f>
@@ -2628,7 +2720,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <f>SUM(B16:B18)</f>
@@ -2998,6 +3090,15 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
+      <c r="N33" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P33" t="s">
+        <v>143</v>
+      </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
@@ -3045,10 +3146,25 @@
         <f>K23/SUM(K23:K32)*100</f>
         <v>2.0801468338941573</v>
       </c>
+      <c r="M34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34">
+        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>5.3061224489795915</v>
+      </c>
+      <c r="O34">
+        <f>MIN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>0.3710839934346678</v>
+      </c>
+      <c r="P34">
+        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>1.6187138577279077</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35">
         <f>B25/SUM(B23:B32)*100</f>
@@ -3090,10 +3206,25 @@
         <f>K25/SUM(K23:K32)*100</f>
         <v>1.2134189864382585</v>
       </c>
+      <c r="M35" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35">
+        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>13.317297179094686</v>
+      </c>
+      <c r="O35">
+        <f>MIN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>1.5292542872662374</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36">
         <f>B24/SUM(B23:B32)*100</f>
@@ -3135,10 +3266,25 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M36" t="s">
+        <v>138</v>
+      </c>
+      <c r="N36">
+        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>2.6514649343762426E-2</v>
+      </c>
+      <c r="O36">
+        <f>MIN(Table767[#This Row])</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37">
         <f>SUM(B34:B36)</f>
@@ -3180,40 +3326,55 @@
         <f t="shared" si="7"/>
         <v>3.2935658203324158</v>
       </c>
+      <c r="M37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37">
+        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>14.12639405204461</v>
+      </c>
+      <c r="O37">
+        <f>MIN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>0.47455933775779635</v>
+      </c>
+      <c r="P37">
+        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
+        <v>4.9205803135622119</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" t="s">
         <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -3531,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -3566,12 +3727,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>135</v>
+      </c>
+      <c r="O50" t="s">
+        <v>141</v>
+      </c>
+      <c r="P50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3615,10 +3785,25 @@
         <f t="shared" si="8"/>
         <v>1.0496671786994368E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>136</v>
+      </c>
+      <c r="N51">
+        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>3.434704830053667E-2</v>
+      </c>
+      <c r="O51">
+        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="P51">
+        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>1.7986073816918198E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52">
         <f>B42/SUM(B40:B49)*100</f>
@@ -3660,10 +3845,25 @@
         <f t="shared" si="9"/>
         <v>0.24321556579621098</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N52">
+        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>4.9373881932021471</v>
+      </c>
+      <c r="O52">
+        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>1.0579584452343296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53">
         <f>B41/SUM(B40:B49)*100</f>
@@ -3705,10 +3905,25 @@
         <f>K41/SUM(K40:K49)*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53">
+        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>0.14311270125223613</v>
+      </c>
+      <c r="O53">
+        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54">
         <f>SUM(B51:B53)</f>
@@ -3750,44 +3965,59 @@
         <f t="shared" si="11"/>
         <v>0.25371223758320532</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>139</v>
+      </c>
+      <c r="N54">
+        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>5.1148479427549196</v>
+      </c>
+      <c r="O54">
+        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>2.0887728459530026E-2</v>
+      </c>
+      <c r="P54">
+        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
+        <v>1.1137118695458161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="K56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
@@ -3857,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -3892,9 +4122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="5">
         <v>459</v>
@@ -3927,7 +4157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
@@ -3962,9 +4192,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="5">
         <v>517</v>
@@ -3997,9 +4227,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -4032,31 +4262,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>135</v>
+      </c>
+      <c r="O67" t="s">
+        <v>141</v>
+      </c>
+      <c r="P67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4101,10 +4340,25 @@
         <v>0</v>
       </c>
       <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>136</v>
+      </c>
+      <c r="N68">
+        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>8.2304526748971192</v>
+      </c>
+      <c r="O68">
+        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0.60971577457710069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="5">
         <f>B59/SUM(B57:B66)*100</f>
@@ -4147,10 +4401,25 @@
         <v>0</v>
       </c>
       <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
+        <v>137</v>
+      </c>
+      <c r="N69">
+        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <f>B58/SUM(B57:B66)*100</f>
@@ -4192,10 +4461,25 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>138</v>
+      </c>
+      <c r="N70">
+        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <f>SUM(B68:B70)</f>
@@ -4237,53 +4521,68 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" t="s">
+        <v>139</v>
+      </c>
+      <c r="N71">
+        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>8.2304526748971192</v>
+      </c>
+      <c r="O71">
+        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
+        <v>0.60971577457710069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" t="s">
         <v>58</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>59</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>60</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>61</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>62</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>63</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>64</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>65</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>66</v>
       </c>
-      <c r="K76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4318,7 +4617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -4353,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4388,7 +4687,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4685,7 +4984,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <f>(B78/SUM(B77:B86)) * 100</f>
@@ -4730,7 +5029,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <f>(B79/SUM(B77:B86)) * 100</f>
@@ -4775,7 +5074,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <f>SUM(B88:B90)</f>
@@ -4820,37 +5119,37 @@
     </row>
     <row r="93" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="D93" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="F93" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="G93" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="21" t="s">
+      <c r="H93" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H93" s="21" t="s">
+      <c r="I93" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="J93" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J93" s="21" t="s">
+      <c r="K93" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="K93" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5262,7 +5561,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="13">
         <f>(B95/SUM(B94:B103)) * 100</f>
@@ -5307,7 +5606,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="15">
         <f>(B96/SUM(B94:B103)) * 100</f>
@@ -5352,7 +5651,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="23">
         <f>SUM(B105:B107)</f>
@@ -5397,37 +5696,37 @@
     </row>
     <row r="110" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="D110" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="21" t="s">
+      <c r="E110" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="F110" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="G110" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="H110" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H110" s="21" t="s">
+      <c r="I110" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I110" s="21" t="s">
+      <c r="J110" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J110" s="21" t="s">
+      <c r="K110" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="K110" s="22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -5782,7 +6081,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B121" s="13">
         <v>15</v>
@@ -5862,7 +6161,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B123" s="13">
         <f>B112/SUM(B111:B120)*100</f>
@@ -5907,7 +6206,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B124" s="13">
         <f>B113/SUM(B111:B120)*100</f>
@@ -5952,7 +6251,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="15">
         <f>SUM(B122:B124)</f>
@@ -5997,92 +6296,92 @@
     </row>
     <row r="127" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="D127" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="F127" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="G127" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G127" s="21" t="s">
+      <c r="H127" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H127" s="21" t="s">
+      <c r="I127" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I127" s="21" t="s">
+      <c r="J127" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J127" s="21" t="s">
+      <c r="K127" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="K127" s="21" t="s">
+      <c r="L127" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L127" s="22" t="s">
+      <c r="M127" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M127" s="19" t="s">
+      <c r="N127" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="N127" s="20" t="s">
+      <c r="O127" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="O127" s="24" t="s">
+      <c r="P127" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="P127" s="25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F128" s="27" t="s">
-        <v>119</v>
-      </c>
       <c r="G128" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H128" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="H128" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="12"/>
       <c r="K128" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L128" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="L128" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="M128" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N128" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N128" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="O128" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P128" s="30" t="s">
         <v>118</v>
-      </c>
-      <c r="P128" s="30" t="s">
-        <v>119</v>
       </c>
       <c r="Q128" s="31"/>
     </row>
@@ -6588,7 +6887,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13">
@@ -6691,7 +6990,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B141" s="13">
         <f>(B131/SUM(B129:B138)) * 100</f>
@@ -6756,7 +7055,7 @@
     </row>
     <row r="142" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B142" s="15">
         <f>(B130/SUM(B129:B138)) * 100</f>
@@ -6821,7 +7120,7 @@
     </row>
     <row r="143" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B143" s="8">
         <f>SUM(B140:B142)</f>
@@ -6902,37 +7201,37 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="I146" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="J146" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="K146" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -7042,7 +7341,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150">
         <v>51</v>
@@ -7112,7 +7411,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152">
         <v>93</v>
@@ -7147,7 +7446,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7182,7 +7481,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7217,7 +7516,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7252,7 +7551,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7332,7 +7631,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B158">
         <f>B148/SUM(B147:B156)*100</f>
@@ -7377,7 +7676,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B159">
         <f>B149/SUM(B147:B156)*100</f>
@@ -7422,7 +7721,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B160">
         <f>SUM(B157:B159)</f>

--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2194A16F-DE88-4FD7-B1D1-A9A0CB21B8FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="1180" windowWidth="20700" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179016" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
+  <si>
+    <t>re-do</t>
+  </si>
+  <si>
+    <t>changed annot</t>
+  </si>
+  <si>
+    <t>Tony's Projects</t>
+  </si>
+  <si>
+    <t>Hadoop BAM (genomics)</t>
+  </si>
+  <si>
+    <t>Chemistry DK.</t>
+  </si>
+  <si>
+    <t>Jannovar for VCF</t>
+  </si>
+  <si>
+    <t>Varsim</t>
+  </si>
+  <si>
+    <t>Cancer Registry cgritt</t>
+  </si>
+  <si>
+    <t>openCGA</t>
+  </si>
+  <si>
+    <t>intermine</t>
+  </si>
+  <si>
+    <t>Caleydo</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>Irida-dev</t>
+  </si>
   <si>
     <t>Nested type count</t>
   </si>
@@ -44,34 +84,37 @@
     <t>Primitive type Count</t>
   </si>
   <si>
-    <t>Hadoop BAM (genomics)</t>
+    <t>Marker Annotation</t>
+  </si>
+  <si>
+    <t>Import Declr</t>
+  </si>
+  <si>
+    <t>Nested Annotation</t>
+  </si>
+  <si>
+    <t>Local Annotation</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Other Annotation</t>
   </si>
   <si>
     <t xml:space="preserve">Number of releases (check on git) </t>
   </si>
   <si>
-    <t>Chemistry DK.</t>
-  </si>
-  <si>
     <t>% nested compared to other declr types</t>
   </si>
   <si>
-    <t>Jannovar for VCF</t>
-  </si>
-  <si>
-    <t>Varsim</t>
-  </si>
-  <si>
-    <t>Cancer Registry cgritt</t>
-  </si>
-  <si>
-    <t>re-do</t>
-  </si>
-  <si>
-    <t>Caleydo</t>
-  </si>
-  <si>
-    <t>changed annot</t>
+    <t>% annon " " " " "</t>
+  </si>
+  <si>
+    <t>% local " " " " "</t>
+  </si>
+  <si>
+    <t>% nested + annon + local " " " " "</t>
   </si>
   <si>
     <t xml:space="preserve">Wilfredo's Projects </t>
@@ -107,27 +150,12 @@
     <t>Terasology</t>
   </si>
   <si>
-    <t>Marker Annotation</t>
-  </si>
-  <si>
-    <t>Import Declr</t>
-  </si>
-  <si>
-    <t>Nested Annotation</t>
-  </si>
-  <si>
-    <t>Local Annotation</t>
-  </si>
-  <si>
-    <t>Other Annotation</t>
-  </si>
-  <si>
-    <t>openCGA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logan's Projects </t>
   </si>
   <si>
+    <t>Crawler4j</t>
+  </si>
+  <si>
     <t>Incibator Dubbo</t>
   </si>
   <si>
@@ -152,12 +180,12 @@
     <t>pinpoint</t>
   </si>
   <si>
-    <t>Crawler4j</t>
-  </si>
-  <si>
     <t>openFire</t>
   </si>
   <si>
+    <t>Sim's Projects</t>
+  </si>
+  <si>
     <t>Quartz Scheduler</t>
   </si>
   <si>
@@ -230,6 +258,27 @@
     <t>Plaid App</t>
   </si>
   <si>
+    <t>Detailed Investigation Of results attained</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>OUTLIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% local " " " " " </t>
+  </si>
+  <si>
+    <t>% anon " " " " "</t>
+  </si>
+  <si>
     <t>Josh's Projects</t>
   </si>
   <si>
@@ -266,12 +315,12 @@
     <t>Dal's Projects</t>
   </si>
   <si>
+    <t>GriefPrevention</t>
+  </si>
+  <si>
     <t>EssentialsX</t>
   </si>
   <si>
-    <t>GriefPrevention</t>
-  </si>
-  <si>
     <t>EssentialsChat</t>
   </si>
   <si>
@@ -296,36 +345,6 @@
     <t>WorldEdit</t>
   </si>
   <si>
-    <t>Tony's Projects</t>
-  </si>
-  <si>
-    <t>intermine</t>
-  </si>
-  <si>
-    <t>IGV</t>
-  </si>
-  <si>
-    <t>Irida-dev</t>
-  </si>
-  <si>
-    <t>% annon " " " " "</t>
-  </si>
-  <si>
-    <t>% local " " " " "</t>
-  </si>
-  <si>
-    <t>% nested + annon + local " " " " "</t>
-  </si>
-  <si>
-    <t>Sim's Projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% local " " " " " </t>
-  </si>
-  <si>
-    <t>% anon " " " " "</t>
-  </si>
-  <si>
     <t>Number of releases (check on git) </t>
   </si>
   <si>
@@ -432,40 +451,13 @@
   </si>
   <si>
     <t>Other Annotation count</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>% nested</t>
-  </si>
-  <si>
-    <t>% annon</t>
-  </si>
-  <si>
-    <t>% local</t>
-  </si>
-  <si>
-    <t>% nested+annon+local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX </t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MEDIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIAN </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -750,11 +742,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -799,11 +887,978 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="98">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="double"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="double"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="double"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="double"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1598,185 +2653,280 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A127:P144" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="57">
-  <autoFilter ref="A127:P144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table46" displayName="Table46" ref="A127:P144" totalsRowShown="0" headerRowBorderDxfId="96" tableBorderDxfId="97">
+  <autoFilter ref="A127:P144" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Shay's Projects"/>
-    <tableColumn id="2" name="BBM Secure Comms" dataDxfId="55"/>
-    <tableColumn id="3" name="BB web samples" dataDxfId="54"/>
-    <tableColumn id="4" name="All Algorithms" dataDxfId="53"/>
-    <tableColumn id="5" name="DeepLearning" dataDxfId="52"/>
-    <tableColumn id="6" name="Column1" dataDxfId="51"/>
-    <tableColumn id="7" name="ExoPlayer" dataDxfId="50"/>
-    <tableColumn id="8" name="Column2" dataDxfId="49"/>
-    <tableColumn id="9" name="Dex2Java Decompiler" dataDxfId="48"/>
-    <tableColumn id="10" name="Net Cipher" dataDxfId="47"/>
-    <tableColumn id="11" name="ReactiveExtensionsForJVM" dataDxfId="46"/>
-    <tableColumn id="12" name="Column3" dataDxfId="45"/>
-    <tableColumn id="13" name="Java9 ASTParser"/>
-    <tableColumn id="14" name="Column4" dataDxfId="44"/>
-    <tableColumn id="15" name="Replacement4SQLITE&amp;ORMs" dataDxfId="43"/>
-    <tableColumn id="16" name="Column5" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Shay's Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BBM Secure Comms" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BB web samples" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="All Algorithms" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DeepLearning" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ExoPlayer" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dex2Java Decompiler" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Net Cipher" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ReactiveExtensionsForJVM" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column3" dataDxfId="85"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Java9 ASTParser"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column4" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="83"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column5" dataDxfId="82"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58169DB-DE6A-4097-BB3F-6E29EBE5E4CE}" name="Table2" displayName="Table2" ref="M156:P160" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+  <autoFilter ref="M156:P160" xr:uid="{643EF349-F378-4476-861D-EB502F029625}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2F88BFBE-2BCE-4C4A-BF6C-804D0AB6C33D}" name="MAX" dataDxfId="35">
+      <calculatedColumnFormula>MAX(B157:K157)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{957CED48-CAB2-4433-84D9-BD240400BA18}" name="MIN" dataDxfId="34">
+      <calculatedColumnFormula>MIN(B157:K157)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2E4EE599-1FFB-4E42-84BA-EA16793515DD}" name="MEDIAN" dataDxfId="33">
+      <calculatedColumnFormula>MEDIAN(B157:K157)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2F3D4A5F-CFD5-432D-A5E1-88F67A021E47}" name="OUTLIER" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D41C6232-F33C-4519-8651-5945885D4D09}" name="Table3" displayName="Table3" ref="R139:U143" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+  <autoFilter ref="R139:U143" xr:uid="{F7FE1993-E430-415E-90F6-18D037458B38}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5C318E04-5635-40B1-97BE-0E81731DAF67}" name="MAX" dataDxfId="27">
+      <calculatedColumnFormula>MAX(B140:P140)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{81E8AE5D-D4D9-4C11-ACE8-E1C1CBFC5CBB}" name="MIN" dataDxfId="26">
+      <calculatedColumnFormula>MIN(B140:P140)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{07B572AF-AEDF-476D-90CA-FF6AE3BD4050}" name="MEDIAN" dataDxfId="25">
+      <calculatedColumnFormula>MEDIAN(B140:P140)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BC6D606D-23D5-4C2A-8D05-6A27A0D7C611}" name="OUTLIER" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD67CC6F-B454-42FF-BAAB-DF180AB8F1FE}" name="Table35" displayName="Table35" ref="M121:P125" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+  <autoFilter ref="M121:P125" xr:uid="{31727AEE-EB67-47DF-97D6-B3036D2D0919}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{59FC5E6F-3BE8-42CB-9737-6D74C506DFCE}" name="MAX" dataDxfId="19">
+      <calculatedColumnFormula>MAX(B122:K122)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{54301EDD-72C7-4218-B7FA-A1B20F8639B9}" name="MIN" dataDxfId="18">
+      <calculatedColumnFormula>MIN(B122:K122)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4AE843AC-4231-4690-A69D-6E42C2A5C15F}" name="MEDIAN" dataDxfId="17">
+      <calculatedColumnFormula>MEDIAN(B122:K122)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3F5C3205-BCD8-4435-87FC-4DC3FC5526BF}" name="OUTLIER" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E89BBDFF-9BCE-41C9-A524-1C8E3D6B4E3A}" name="Table3515" displayName="Table3515" ref="M104:P108" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="M104:P108" xr:uid="{CD4F18DC-3DF0-4D94-8408-4AA1FE8FFA6C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F207E2EF-B246-45DD-8A6D-AD70A006F3D9}" name="MAX" dataDxfId="11">
+      <calculatedColumnFormula>MAX(B105:K105)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C11F6B43-1EE2-42E0-9EA3-9DF4C1F96E46}" name="MIN" dataDxfId="10">
+      <calculatedColumnFormula>MIN(B105:K105)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{98D56CDE-CCEF-493F-9181-7436F54EFE2B}" name="MEDIAN" dataDxfId="9">
+      <calculatedColumnFormula>MEDIAN(B105:K105)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5EB3EBF1-685F-4F48-B06E-FF03E7255773}" name="OUTLIER" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23920614-FDA3-4E4D-B401-21A03C68C443}" name="Table3516" displayName="Table3516" ref="M87:P91" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="M87:P91" xr:uid="{81A3871F-D47B-460F-8EC0-9148FA8AB78B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0026FF4C-8646-4907-928C-388F240EA8A8}" name="MAX" dataDxfId="3">
+      <calculatedColumnFormula>MAX(B88:K88)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A10D139E-3EEE-4EE2-BFCB-596C17278338}" name="MIN" dataDxfId="2">
+      <calculatedColumnFormula>MIN(B88:K88)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EF9343AE-42F6-42D1-AB57-E614048687EB}" name="MEDIAN" dataDxfId="1">
+      <calculatedColumnFormula>MEDIAN(B88:K88)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5FC9FFE9-4347-4E22-8EDB-ABFCCDCBB5A4}" name="OUTLIER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table57" displayName="Table57" ref="A110:K125" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40">
-  <autoFilter ref="A110:K125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table57" displayName="Table57" ref="A110:K125" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="79" tableBorderDxfId="80">
+  <autoFilter ref="A110:K125" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Dal's Projects"/>
-    <tableColumn id="2" name="GriefPrevention" dataDxfId="38"/>
-    <tableColumn id="4" name="EssentialsX" dataDxfId="37"/>
-    <tableColumn id="5" name="EssentialsChat" dataDxfId="36"/>
-    <tableColumn id="6" name="WorldGuard" dataDxfId="35"/>
-    <tableColumn id="7" name="WorldBorder" dataDxfId="34"/>
-    <tableColumn id="8" name="PlotSquared" dataDxfId="33"/>
-    <tableColumn id="9" name="ProtocolLib" dataDxfId="32"/>
-    <tableColumn id="10" name="SuperVanish" dataDxfId="31"/>
-    <tableColumn id="11" name="ViaVersion" dataDxfId="30"/>
-    <tableColumn id="12" name="WorldEdit" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dal's Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="GriefPrevention" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EssentialsX" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EssentialsChat" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="WorldGuard" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="WorldBorder" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PlotSquared" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ProtocolLib" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SuperVanish" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ViaVersion" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="WorldEdit" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table68" displayName="Table68" ref="A93:K108" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="A93:K108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table68" displayName="Table68" ref="A93:K108" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="66" tableBorderDxfId="67">
+  <autoFilter ref="A93:K108" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Josh's Projects"/>
-    <tableColumn id="2" name="jMonkeyEngine" dataDxfId="25"/>
-    <tableColumn id="4" name="libGDX" dataDxfId="24"/>
-    <tableColumn id="5" name="TEAMMATES" dataDxfId="23"/>
-    <tableColumn id="6" name="JUnit 4" dataDxfId="22"/>
-    <tableColumn id="7" name="Activiti" dataDxfId="21"/>
-    <tableColumn id="8" name="Kore" dataDxfId="20"/>
-    <tableColumn id="9" name="MyCollab" dataDxfId="19"/>
-    <tableColumn id="10" name="BioJava" dataDxfId="18"/>
-    <tableColumn id="11" name="Cryptomator" dataDxfId="17"/>
-    <tableColumn id="12" name="Java Google Maps" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Josh's Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="jMonkeyEngine" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="libGDX" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TEAMMATES" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="JUnit 4" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Activiti" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Kore" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="MyCollab" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="BioJava" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Cryptomator" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Java Google Maps" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table79" displayName="Table79" ref="A76:K91" totalsRowShown="0">
-  <autoFilter ref="A76:K91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table79" displayName="Table79" ref="A76:K91" totalsRowShown="0">
+  <autoFilter ref="A76:K91" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Amy's Projects"/>
-    <tableColumn id="2" name="Shimmer"/>
-    <tableColumn id="4" name="Applozic"/>
-    <tableColumn id="5" name="Ribot"/>
-    <tableColumn id="6" name="PocketHub"/>
-    <tableColumn id="7" name="ownCloud"/>
-    <tableColumn id="8" name="Slide"/>
-    <tableColumn id="9" name="OpenLauncher"/>
-    <tableColumn id="10" name="Activity Tracking/Location Sharing App"/>
-    <tableColumn id="11" name="Note App"/>
-    <tableColumn id="12" name="Plaid App"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Amy's Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shimmer"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Applozic"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ribot"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="PocketHub"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ownCloud"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Slide"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="OpenLauncher"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Activity Tracking/Location Sharing App"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Note App"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Plaid App"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A4:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="55">
+  <autoFilter ref="A4:K19" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Tony's Projects"/>
-    <tableColumn id="2" name="Hadoop BAM (genomics)"/>
-    <tableColumn id="4" name="Chemistry DK."/>
-    <tableColumn id="5" name="Jannovar for VCF"/>
-    <tableColumn id="6" name="Varsim"/>
-    <tableColumn id="7" name="Cancer Registry cgritt"/>
-    <tableColumn id="8" name="openCGA"/>
-    <tableColumn id="9" name="intermine"/>
-    <tableColumn id="10" name="Caleydo"/>
-    <tableColumn id="11" name="IGV"/>
-    <tableColumn id="12" name="Irida-dev"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Tony's Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hadoop BAM (genomics)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Chemistry DK."/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Jannovar for VCF"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Varsim"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Cancer Registry cgritt"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="openCGA"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="intermine"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Caleydo"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="IGV"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Irida-dev"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table767" displayName="Table767" ref="A22:K37" totalsRowShown="0">
-  <autoFilter ref="A22:K37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table767" displayName="Table767" ref="A22:K37" totalsRowShown="0">
+  <autoFilter ref="A22:K37" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Wilfredo's Projects "/>
-    <tableColumn id="2" name="Dungeon"/>
-    <tableColumn id="4" name="Game Engine"/>
-    <tableColumn id="5" name="Magarena"/>
-    <tableColumn id="6" name="Xmage"/>
-    <tableColumn id="7" name="Martian Run"/>
-    <tableColumn id="8" name="Mindustry"/>
-    <tableColumn id="9" name="PretendYoureXyzzy"/>
-    <tableColumn id="10" name="Seventh"/>
-    <tableColumn id="11" name="Stendhal"/>
-    <tableColumn id="12" name="Terasology"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Wilfredo's Projects "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Dungeon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Game Engine"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Magarena"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Xmage"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Martian Run"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Mindustry"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="PretendYoureXyzzy"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Seventh"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Stendhal"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Terasology"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table7679" displayName="Table7679" ref="A39:K54" totalsRowShown="0">
-  <autoFilter ref="A39:K54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7679" displayName="Table7679" ref="A39:K54" totalsRowShown="0">
+  <autoFilter ref="A39:K54" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Logan's Projects "/>
-    <tableColumn id="2" name="Crawler4j"/>
-    <tableColumn id="4" name="Incibator Dubbo"/>
-    <tableColumn id="5" name="KillBill"/>
-    <tableColumn id="6" name="Open Refine"/>
-    <tableColumn id="7" name="Stage Monitor"/>
-    <tableColumn id="8" name="Graph Hopper"/>
-    <tableColumn id="9" name="h20.io"/>
-    <tableColumn id="10" name="Omni Notes"/>
-    <tableColumn id="11" name="pinpoint"/>
-    <tableColumn id="12" name="openFire"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Logan's Projects "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Crawler4j"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Incibator Dubbo"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="KillBill"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Open Refine"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Stage Monitor"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Graph Hopper"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="h20.io"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Omni Notes"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="pinpoint"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="openFire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table767910" displayName="Table767910" ref="A56:K71" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A56:K71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table767910" displayName="Table767910" ref="A56:K71" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="A56:K71" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Sim's Projects"/>
-    <tableColumn id="2" name="Quartz Scheduler" dataDxfId="13"/>
-    <tableColumn id="4" name="Open EMRConect"/>
-    <tableColumn id="5" name="Wallet"/>
-    <tableColumn id="6" name="Secure Banking System"/>
-    <tableColumn id="7" name="Calendar System"/>
-    <tableColumn id="8" name="Time4J"/>
-    <tableColumn id="9" name="Voj "/>
-    <tableColumn id="10" name="Core Flight Systm(CFS) and data Dictionary(CCDD) Utility"/>
-    <tableColumn id="11" name="Dert"/>
-    <tableColumn id="12" name="Hyper realistic zombie"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Sim's Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quartz Scheduler" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Open EMRConect"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Wallet"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Secure Banking System"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Calendar System"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Time4J"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Voj "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Core Flight Systm(CFS) and data Dictionary(CCDD) Utility"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Dert"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Hyper realistic zombie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511" displayName="Table511" ref="A146:K160" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A146:K160"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="A146:K160" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="50" tableBorderDxfId="51">
+  <autoFilter ref="A146:K160" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Robert’s Projects"/>
-    <tableColumn id="2" name="Jpacman Framework" dataDxfId="9"/>
-    <tableColumn id="4" name="seventh" dataDxfId="8"/>
-    <tableColumn id="5" name="Snake" dataDxfId="7"/>
-    <tableColumn id="6" name="Java String Similarity" dataDxfId="6"/>
-    <tableColumn id="7" name="LeetCode Sol Res" dataDxfId="5"/>
-    <tableColumn id="8" name="Game of Life in Java" dataDxfId="4"/>
-    <tableColumn id="9" name="EduMIPS64" dataDxfId="3"/>
-    <tableColumn id="10" name="ATM Simulator" dataDxfId="2"/>
-    <tableColumn id="11" name="RinSim" dataDxfId="1"/>
-    <tableColumn id="12" name="Mathematics" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Robert’s Projects"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Jpacman Framework" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="seventh" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Snake" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Java String Similarity" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="LeetCode Sol Res" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Game of Life in Java" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="EduMIPS64" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="ATM Simulator" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="RinSim" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Mathematics" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2044,29 +3194,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="G56" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="M66" sqref="M66:P66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
     <col min="2" max="11" width="15" customWidth="1"/>
-    <col min="13" max="13" width="34" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="G1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2079,7 +3231,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2092,45 +3244,45 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2164,9 +3316,9 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2203,9 +3355,9 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2242,9 +3394,9 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -2278,9 +3430,9 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>67</v>
@@ -2314,9 +3466,9 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>47</v>
@@ -2350,9 +3502,9 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2390,9 +3542,9 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2429,20 +3581,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" t="s">
-        <v>140</v>
-      </c>
-      <c r="O12" t="s">
-        <v>141</v>
-      </c>
-      <c r="P12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2480,24 +3622,12 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13">
-        <f>MAX(B16:K16)</f>
-        <v>5.1454138702460845</v>
-      </c>
-      <c r="O13">
-        <f>MIN(B16:K16)</f>
-        <v>0.37137069547602969</v>
-      </c>
-      <c r="P13">
-        <f>MEDIAN(B16:K16)</f>
-        <v>1.2859361456226523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2532,45 +3662,15 @@
         <v>8</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" t="s">
-        <v>137</v>
-      </c>
-      <c r="N14">
-        <f>MAX(B17:L17)</f>
-        <v>1.9791967639410575</v>
-      </c>
-      <c r="O14">
-        <f>MIN(B17:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f>MEDIAN(B17:K17)</f>
-        <v>0.48648516330916391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>138</v>
-      </c>
-      <c r="N15">
-        <f>MAX(B18:K18)</f>
-        <v>1.4446691707598961E-2</v>
-      </c>
-      <c r="O15">
-        <f>MIN(B18:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>MEDIAN(B18:K18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <f>B5/SUM(B5:B14)*100</f>
@@ -2593,7 +3693,7 @@
         <v>1.8564356435643563</v>
       </c>
       <c r="G16">
-        <f>G5/SUM(G5:G14)*100</f>
+        <f t="shared" si="0"/>
         <v>5.1454138702460845</v>
       </c>
       <c r="H16">
@@ -2612,25 +3712,10 @@
         <f t="shared" si="0"/>
         <v>0.7683073229291717</v>
       </c>
-      <c r="M16" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16">
-        <f>MAX(B19:K19)</f>
-        <v>5.391498881431767</v>
-      </c>
-      <c r="O16">
-        <f>MIN(B19:K19)</f>
-        <v>0.43889264010803508</v>
-      </c>
-      <c r="P16">
-        <f>MEDIAN(B19:K19)</f>
-        <v>1.9064786913473957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <f>B7/SUM(B5:B14)*100</f>
@@ -2673,9 +3758,9 @@
         <v>0.48019207683073228</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <f>B6/SUM(B5:B14)*100</f>
@@ -2718,9 +3803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <f>SUM(B16:B18)</f>
@@ -2763,56 +3848,56 @@
         <v>1.2484993997599041</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="1"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -2847,9 +3932,9 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2884,9 +3969,9 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -2921,9 +4006,9 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>301</v>
@@ -2958,9 +4043,9 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>726</v>
@@ -2995,9 +4080,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3031,9 +4116,9 @@
       </c>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3067,44 +4152,35 @@
       </c>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" t="s">
-        <v>135</v>
-      </c>
-      <c r="O33" t="s">
-        <v>141</v>
-      </c>
-      <c r="P33" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <f>B23/SUM(B23:B32)*100</f>
@@ -3146,25 +4222,10 @@
         <f>K23/SUM(K23:K32)*100</f>
         <v>2.0801468338941573</v>
       </c>
-      <c r="M34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34">
-        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>5.3061224489795915</v>
-      </c>
-      <c r="O34">
-        <f>MIN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>0.3710839934346678</v>
-      </c>
-      <c r="P34">
-        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>1.6187138577279077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <f>B25/SUM(B23:B32)*100</f>
@@ -3206,25 +4267,10 @@
         <f>K25/SUM(K23:K32)*100</f>
         <v>1.2134189864382585</v>
       </c>
-      <c r="M35" t="s">
-        <v>137</v>
-      </c>
-      <c r="N35">
-        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>13.317297179094686</v>
-      </c>
-      <c r="O35">
-        <f>MIN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>1.5292542872662374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <f>B24/SUM(B23:B32)*100</f>
@@ -3266,25 +4312,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>138</v>
-      </c>
-      <c r="N36">
-        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>2.6514649343762426E-2</v>
-      </c>
-      <c r="O36">
-        <f>MIN(Table767[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <f>SUM(B34:B36)</f>
@@ -3326,60 +4357,45 @@
         <f t="shared" si="7"/>
         <v>3.2935658203324158</v>
       </c>
-      <c r="M37" t="s">
-        <v>139</v>
-      </c>
-      <c r="N37">
-        <f>MAX(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>14.12639405204461</v>
-      </c>
-      <c r="O37">
-        <f>MIN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>0.47455933775779635</v>
-      </c>
-      <c r="P37">
-        <f>MEDIAN(Table767[[#This Row],[Dungeon]:[Terasology]])</f>
-        <v>4.9205803135622119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -3412,9 +4428,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3447,9 +4463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3482,9 +4498,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>71</v>
@@ -3517,9 +4533,9 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>256</v>
@@ -3552,9 +4568,9 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -3587,9 +4603,9 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3622,9 +4638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3657,9 +4673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3692,9 +4708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3727,23 +4743,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50" t="s">
-        <v>135</v>
-      </c>
-      <c r="O50" t="s">
-        <v>141</v>
-      </c>
-      <c r="P50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <f>B40/SUM(B40:B49)</f>
@@ -3785,25 +4792,10 @@
         <f t="shared" si="8"/>
         <v>1.0496671786994368E-2</v>
       </c>
-      <c r="M51" t="s">
-        <v>136</v>
-      </c>
-      <c r="N51">
-        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>3.434704830053667E-2</v>
-      </c>
-      <c r="O51">
-        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>7.0422535211267607E-3</v>
-      </c>
-      <c r="P51">
-        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>1.7986073816918198E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <f>B42/SUM(B40:B49)*100</f>
@@ -3845,25 +4837,10 @@
         <f t="shared" si="9"/>
         <v>0.24321556579621098</v>
       </c>
-      <c r="M52" t="s">
-        <v>137</v>
-      </c>
-      <c r="N52">
-        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>4.9373881932021471</v>
-      </c>
-      <c r="O52">
-        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>1.0579584452343296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <f>B41/SUM(B40:B49)*100</f>
@@ -3905,25 +4882,10 @@
         <f>K41/SUM(K40:K49)*100</f>
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>138</v>
-      </c>
-      <c r="N53">
-        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>0.14311270125223613</v>
-      </c>
-      <c r="O53">
-        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <f>SUM(B51:B53)</f>
@@ -3965,61 +4927,46 @@
         <f t="shared" si="11"/>
         <v>0.25371223758320532</v>
       </c>
-      <c r="M54" t="s">
-        <v>139</v>
-      </c>
-      <c r="N54">
-        <f>MAX(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>5.1148479427549196</v>
-      </c>
-      <c r="O54">
-        <f>MIN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>2.0887728459530026E-2</v>
-      </c>
-      <c r="P54">
-        <f>MEDIAN(Table7679[[#This Row],[Crawler4j]:[openFire]])</f>
-        <v>1.1137118695458161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:12" ht="80.099999999999994">
       <c r="A56" s="4" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B57" s="5">
         <v>71</v>
@@ -4052,9 +4999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -4087,9 +5034,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -4122,9 +5069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B60" s="5">
         <v>459</v>
@@ -4157,9 +5104,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B61" s="5">
         <v>1181</v>
@@ -4192,9 +5139,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B62" s="5">
         <v>517</v>
@@ -4227,9 +5174,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -4262,42 +5209,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="15.75">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="N67" t="s">
-        <v>135</v>
-      </c>
-      <c r="O67" t="s">
-        <v>141</v>
-      </c>
-      <c r="P67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M67" s="41"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B68" s="5">
         <f>B57/SUM(B57:B66)*100</f>
@@ -4340,25 +5286,14 @@
         <v>0</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" t="s">
-        <v>136</v>
-      </c>
-      <c r="N68">
-        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>8.2304526748971192</v>
-      </c>
-      <c r="O68">
-        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0.60971577457710069</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="41"/>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B69" s="5">
         <f>B59/SUM(B57:B66)*100</f>
@@ -4401,25 +5336,14 @@
         <v>0</v>
       </c>
       <c r="L69" s="5"/>
-      <c r="M69" t="s">
-        <v>137</v>
-      </c>
-      <c r="N69">
-        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="23"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B70">
         <f>B58/SUM(B57:B66)*100</f>
@@ -4461,25 +5385,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>138</v>
-      </c>
-      <c r="N70">
-        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M70" s="60"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="23"/>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B71">
         <f>SUM(B68:B70)</f>
@@ -4521,70 +5434,59 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>139</v>
-      </c>
-      <c r="N71">
-        <f>MAX(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>8.2304526748971192</v>
-      </c>
-      <c r="O71">
-        <f>MIN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f>MEDIAN(Table767910[[#This Row],[Quartz Scheduler]:[Hyper realistic zombie]])</f>
-        <v>0.60971577457710069</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M71" s="60"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="23"/>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I76" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J76" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4617,9 +5519,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4652,9 +5554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4687,9 +5589,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4722,9 +5624,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>71</v>
@@ -4757,9 +5659,9 @@
         <v>896</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>11</v>
@@ -4792,9 +5694,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4827,9 +5729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4862,9 +5764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4897,9 +5799,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4931,15 +5833,33 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M86" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M87" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N87" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="O87" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B88">
         <f>(B77/SUM(B77:B86)) * 100</f>
@@ -4981,10 +5901,23 @@
         <f t="shared" si="16"/>
         <v>2.7917620137299775</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M88" s="54">
+        <f>MAX(B88:K88)</f>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="N88" s="51">
+        <f>MIN(B88:K88)</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="O88" s="51">
+        <f>MEDIAN(B88:K88)</f>
+        <v>2.8578693109585558</v>
+      </c>
+      <c r="P88" s="57"/>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <f>(B78/SUM(B77:B86)) * 100</f>
@@ -5026,135 +5959,174 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="54">
+        <f t="shared" ref="M89:M91" si="18">MAX(B89:K89)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="51">
+        <f t="shared" ref="N89:N91" si="19">MIN(B89:K89)</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="51">
+        <f t="shared" ref="O89:O91" si="20">MEDIAN(B89:K89)</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="49"/>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <f>(B79/SUM(B77:B86)) * 100</f>
         <v>1.1363636363636365</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:K90" si="18">(C79/SUM(C77:C86)) * 100</f>
+        <f t="shared" ref="C90:K90" si="21">(C79/SUM(C77:C86)) * 100</f>
         <v>3.1838856400259905</v>
       </c>
       <c r="D90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.2105263157894726</v>
       </c>
       <c r="E90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>12.107623318385651</v>
       </c>
       <c r="F90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3157894736842104</v>
       </c>
       <c r="G90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.1808686091258931</v>
       </c>
       <c r="H90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3.3613445378151261</v>
       </c>
       <c r="I90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7.3619631901840492</v>
       </c>
       <c r="J90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4.0816326530612246</v>
       </c>
       <c r="K90">
+        <f t="shared" si="21"/>
+        <v>14.279176201372998</v>
+      </c>
+      <c r="M90" s="54">
         <f t="shared" si="18"/>
         <v>14.279176201372998</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N90" s="51">
+        <f t="shared" si="19"/>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="O90" s="51">
+        <f t="shared" si="20"/>
+        <v>5.7217979216226365</v>
+      </c>
+      <c r="P90" s="49"/>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="18" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B91">
         <f>SUM(B88:B90)</f>
         <v>2.2727272727272729</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91:K91" si="19">SUM(C88:C90)</f>
+        <f t="shared" ref="C91:K91" si="22">SUM(C88:C90)</f>
         <v>6.1078622482131246</v>
       </c>
       <c r="D91">
+        <f t="shared" si="22"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="22"/>
+        <v>15.196811160936722</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="22"/>
+        <v>3.5885167464114831</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="22"/>
+        <v>11.54480483782298</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="22"/>
+        <v>6.3025210084033612</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="22"/>
+        <v>9.2024539877300615</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="22"/>
+        <v>8.1632653061224492</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="22"/>
+        <v>17.070938215102977</v>
+      </c>
+      <c r="M91" s="54">
+        <f t="shared" si="18"/>
+        <v>17.070938215102977</v>
+      </c>
+      <c r="N91" s="51">
         <f t="shared" si="19"/>
-        <v>13.157894736842104</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="19"/>
-        <v>15.196811160936722</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="19"/>
-        <v>3.5885167464114831</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="19"/>
-        <v>11.54480483782298</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="19"/>
-        <v>6.3025210084033612</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="19"/>
-        <v>9.2024539877300615</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="19"/>
-        <v>8.1632653061224492</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="19"/>
-        <v>17.070938215102977</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="O91" s="51">
+        <f t="shared" si="20"/>
+        <v>8.6828596469262553</v>
+      </c>
+      <c r="P91" s="50"/>
+    </row>
+    <row r="93" spans="1:16" ht="17.100000000000001" thickBot="1">
       <c r="A93" s="19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B94" s="11">
         <v>789</v>
@@ -5187,9 +6159,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B95" s="11">
         <v>0</v>
@@ -5222,9 +6194,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B96" s="11">
         <v>79</v>
@@ -5257,9 +6229,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B97" s="11">
         <v>1686</v>
@@ -5292,9 +6264,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B98" s="11">
         <v>13134</v>
@@ -5327,9 +6299,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B99" s="11">
         <v>2150</v>
@@ -5362,9 +6334,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B100" s="11">
         <v>0</v>
@@ -5397,9 +6369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B101" s="11">
         <v>3</v>
@@ -5432,9 +6404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B102" s="11">
         <v>0</v>
@@ -5467,9 +6439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="15.75">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B103" s="11">
         <v>8</v>
@@ -5501,10 +6473,16 @@
       <c r="K103" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M103" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="58"/>
+    </row>
+    <row r="104" spans="1:16" ht="15.75">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5513,225 +6491,289 @@
       <c r="H104" s="13"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M104" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N104" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="O104" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P104" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="15.75">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B105" s="13">
         <f>(B94/SUM(B94:B103)) * 100</f>
         <v>4.420415709563561</v>
       </c>
       <c r="C105" s="13">
-        <f t="shared" ref="C105:K105" si="20">(C94/SUM(C94:C103)) * 100</f>
+        <f t="shared" ref="C105:K105" si="23">(C94/SUM(C94:C103)) * 100</f>
         <v>0.75482066947906057</v>
       </c>
       <c r="D105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.32154340836012862</v>
       </c>
       <c r="E105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>15.686274509803921</v>
       </c>
       <c r="F105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.58527068769305801</v>
       </c>
       <c r="G105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.874818753020783</v>
       </c>
       <c r="H105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.2621309633261815</v>
       </c>
       <c r="I105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1860174781523096</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.7322404371584699</v>
       </c>
       <c r="K105" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.3406998158379375</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M105" s="54">
+        <f>MAX(B105:K105)</f>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="N105" s="51">
+        <f>MIN(B105:K105)</f>
+        <v>0.32154340836012862</v>
+      </c>
+      <c r="O105" s="51">
+        <f>MEDIAN(B105:K105)</f>
+        <v>3.5763280733610152</v>
+      </c>
+      <c r="P105" s="57"/>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B106" s="13">
         <f>(B95/SUM(B94:B103)) * 100</f>
         <v>0</v>
       </c>
       <c r="C106" s="13">
-        <f t="shared" ref="C106:K106" si="21">(C95/SUM(C94:C103)) * 100</f>
+        <f t="shared" ref="C106:K106" si="24">(C95/SUM(C94:C103)) * 100</f>
         <v>0</v>
       </c>
       <c r="D106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.5605493133583021E-2</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K106" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="54">
+        <f t="shared" ref="M106:M108" si="25">MAX(B106:K106)</f>
+        <v>1.5605493133583021E-2</v>
+      </c>
+      <c r="N106" s="51">
+        <f t="shared" ref="N106:N108" si="26">MIN(B106:K106)</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="51">
+        <f t="shared" ref="O106:O108" si="27">MEDIAN(B106:K106)</f>
+        <v>0</v>
+      </c>
+      <c r="P106" s="49"/>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B107" s="15">
         <f>(B96/SUM(B94:B103)) * 100</f>
         <v>0.4426018264328534</v>
       </c>
       <c r="C107" s="15">
-        <f t="shared" ref="C107:K107" si="22">(C96/SUM(C94:C103)) * 100</f>
+        <f t="shared" ref="C107:K107" si="28">(C96/SUM(C94:C103)) * 100</f>
         <v>0.51560555366985084</v>
       </c>
       <c r="D107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.28938906752411575</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.4509803921568625</v>
       </c>
       <c r="F107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.50398309218013337</v>
       </c>
       <c r="G107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.836636056065732</v>
       </c>
       <c r="H107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2.1248339973439574</v>
       </c>
       <c r="I107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.23408239700374533</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.55248618784530379</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M107" s="54">
+        <f t="shared" si="25"/>
+        <v>3.4509803921568625</v>
+      </c>
+      <c r="N107" s="51">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="51">
+        <f t="shared" si="27"/>
+        <v>0.50979432292499216</v>
+      </c>
+      <c r="P107" s="49"/>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="18" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B108" s="23">
         <f>SUM(B105:B107)</f>
         <v>4.8630175359964145</v>
       </c>
       <c r="C108" s="23">
-        <f t="shared" ref="C108:K108" si="23">SUM(C105:C107)</f>
+        <f t="shared" ref="C108:K108" si="29">SUM(C105:C107)</f>
         <v>1.2704262231489114</v>
       </c>
       <c r="D108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.61093247588424437</v>
       </c>
       <c r="E108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>19.137254901960784</v>
       </c>
       <c r="F108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.0892537798731914</v>
       </c>
       <c r="G108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>12.711454809086515</v>
       </c>
       <c r="H108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>8.386964960670138</v>
       </c>
       <c r="I108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.4357053682896379</v>
       </c>
       <c r="J108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2.7322404371584699</v>
       </c>
       <c r="K108" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>5.8931860036832413</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="54">
+        <f t="shared" si="25"/>
+        <v>19.137254901960784</v>
+      </c>
+      <c r="N108" s="51">
+        <f t="shared" si="26"/>
+        <v>0.61093247588424437</v>
+      </c>
+      <c r="O108" s="51">
+        <f t="shared" si="27"/>
+        <v>3.7976289865774424</v>
+      </c>
+      <c r="P108" s="50"/>
+    </row>
+    <row r="110" spans="1:16" ht="17.100000000000001" thickBot="1">
       <c r="A110" s="19" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H110" s="21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J110" s="21" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B111" s="11">
         <v>0</v>
@@ -5764,9 +6806,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B112" s="11">
         <v>0</v>
@@ -5799,9 +6841,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B113" s="11">
         <v>0</v>
@@ -5834,9 +6876,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B114" s="11">
         <v>18</v>
@@ -5869,9 +6911,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B115" s="11">
         <v>14</v>
@@ -5904,9 +6946,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B116" s="11">
         <v>25</v>
@@ -5939,9 +6981,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B117" s="11">
         <v>0</v>
@@ -5974,9 +7016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B118" s="11">
         <v>0</v>
@@ -6009,9 +7051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B119" s="11">
         <v>0</v>
@@ -6044,9 +7086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="15.75">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B120" s="11">
         <v>0</v>
@@ -6078,10 +7120,16 @@
       <c r="K120" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M120" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="N120" s="58"/>
+      <c r="O120" s="58"/>
+      <c r="P120" s="58"/>
+    </row>
+    <row r="121" spans="1:17" ht="15.75">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B121" s="13">
         <v>15</v>
@@ -6113,281 +7161,345 @@
       <c r="K121" s="13">
         <v>103</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M121" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N121" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="O121" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P121" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="15.75">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B122" s="13">
         <f>B111/SUM(B111:B120)*100</f>
         <v>0</v>
       </c>
       <c r="C122" s="13">
-        <f t="shared" ref="C122:K122" si="24">C111/SUM(C111:C120)*100</f>
+        <f t="shared" ref="C122:K122" si="30">C111/SUM(C111:C120)*100</f>
         <v>1.013787510137875</v>
       </c>
       <c r="D122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1.3157894736842104</v>
       </c>
       <c r="E122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.2087244616234125</v>
       </c>
       <c r="F122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.24570024570024571</v>
       </c>
       <c r="H122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>5.2204176334106727</v>
       </c>
       <c r="I122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.34129692832764508</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K122" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.76335877862595414</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M122" s="54">
+        <f>MAX(B122:K122)</f>
+        <v>5.2204176334106727</v>
+      </c>
+      <c r="N122" s="51">
+        <f>MIN(B122:K122)</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="51">
+        <f>MEDIAN(B122:K122)</f>
+        <v>0.55232785347679958</v>
+      </c>
+      <c r="P122" s="57"/>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B123" s="13">
         <f>B112/SUM(B111:B120)*100</f>
         <v>0</v>
       </c>
       <c r="C123" s="13">
-        <f t="shared" ref="C123:K123" si="25">C112/SUM(C111:C120)*100</f>
+        <f t="shared" ref="C123:K123" si="31">C112/SUM(C111:C120)*100</f>
         <v>0</v>
       </c>
       <c r="D123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K123" s="13">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="54">
+        <f t="shared" ref="M123:M125" si="32">MAX(B123:K123)</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="51">
+        <f t="shared" ref="N123:N125" si="33">MIN(B123:K123)</f>
+        <v>0</v>
+      </c>
+      <c r="O123" s="51">
+        <f t="shared" ref="O123:O125" si="34">MEDIAN(B123:K123)</f>
+        <v>0</v>
+      </c>
+      <c r="P123" s="49"/>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B124" s="13">
         <f>B113/SUM(B111:B120)*100</f>
         <v>0</v>
       </c>
       <c r="C124" s="13">
-        <f t="shared" ref="C124:K124" si="26">C113/SUM(C111:C120)*100</f>
+        <f t="shared" ref="C124:K124" si="35">C113/SUM(C111:C120)*100</f>
         <v>0.16220600162206003</v>
       </c>
       <c r="D124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>3.2894736842105261</v>
       </c>
       <c r="E124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.99392600773053563</v>
       </c>
       <c r="F124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.74074074074074081</v>
       </c>
       <c r="G124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1.2285012285012284</v>
       </c>
       <c r="H124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1.6241299303944314</v>
       </c>
       <c r="I124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>5.4607508532423212</v>
       </c>
       <c r="J124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K124" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.5089058524173028</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M124" s="54">
+        <f t="shared" si="32"/>
+        <v>5.4607508532423212</v>
+      </c>
+      <c r="N124" s="51">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O124" s="51">
+        <f t="shared" si="34"/>
+        <v>0.86733337423563817</v>
+      </c>
+      <c r="P124" s="49"/>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="18" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B125" s="15">
         <f>SUM(B122:B124)</f>
         <v>0</v>
       </c>
       <c r="C125" s="15">
-        <f t="shared" ref="C125:K125" si="27">SUM(C122:C124)</f>
+        <f t="shared" ref="C125:K125" si="36">SUM(C122:C124)</f>
         <v>1.1759935117599352</v>
       </c>
       <c r="D125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>4.6052631578947363</v>
       </c>
       <c r="E125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>3.2026504693539479</v>
       </c>
       <c r="F125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.74074074074074081</v>
       </c>
       <c r="G125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>1.4742014742014742</v>
       </c>
       <c r="H125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>6.8445475638051043</v>
       </c>
       <c r="I125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>5.802047781569966</v>
       </c>
       <c r="J125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K125" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>1.272264631043257</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="54">
+        <f t="shared" si="32"/>
+        <v>6.8445475638051043</v>
+      </c>
+      <c r="N125" s="51">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="51">
+        <f t="shared" si="34"/>
+        <v>1.3732330526223655</v>
+      </c>
+      <c r="P125" s="50"/>
+    </row>
+    <row r="127" spans="1:17" ht="17.100000000000001" thickBot="1">
       <c r="A127" s="19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I127" s="21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K127" s="21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M127" s="19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N127" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O127" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P127" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H128" s="28" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="12"/>
       <c r="K128" s="26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L128" s="26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M128" s="29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O128" s="26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P128" s="30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q128" s="31"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B129" s="11">
         <v>4</v>
@@ -6435,9 +7547,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21">
       <c r="A130" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B130" s="11">
         <v>0</v>
@@ -6485,9 +7597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B131" s="11">
         <v>4</v>
@@ -6535,9 +7647,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B132" s="11">
         <v>58</v>
@@ -6585,9 +7697,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B133" s="11">
         <v>48</v>
@@ -6635,9 +7747,9 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B134" s="11">
         <v>38</v>
@@ -6685,9 +7797,9 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B135" s="11">
         <v>0</v>
@@ -6735,9 +7847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" ht="15.75">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B136" s="11">
         <v>0</v>
@@ -6785,9 +7897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" ht="15.75">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B137" s="11">
         <v>0</v>
@@ -6835,9 +7947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" ht="15.95" customHeight="1">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B138" s="13">
         <v>0</v>
@@ -6884,10 +7996,16 @@
       <c r="P138" s="33">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R138" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="S138" s="58"/>
+      <c r="T138" s="58"/>
+      <c r="U138" s="58"/>
+    </row>
+    <row r="139" spans="1:21" ht="15.75">
       <c r="A139" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13">
@@ -6922,268 +8040,332 @@
         <v>142</v>
       </c>
       <c r="P139" s="33"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R139" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="S139" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="T139" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="U139" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15.75">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B140" s="13">
         <f>(B129/SUM(B129:B138)) * 100</f>
         <v>2.6315789473684208</v>
       </c>
       <c r="C140" s="13">
-        <f t="shared" ref="C140:P140" si="28">(C129/SUM(C129:C138)) * 100</f>
+        <f t="shared" ref="C140:P140" si="37">(C129/SUM(C129:C138)) * 100</f>
         <v>1.3986013986013985</v>
       </c>
       <c r="D140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>1.25</v>
       </c>
       <c r="E140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0.86577135455722953</v>
       </c>
       <c r="F140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0.86577135455722953</v>
       </c>
       <c r="G140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2.300701714022777</v>
       </c>
       <c r="H140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2.2964749110115972</v>
       </c>
       <c r="I140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>9.0613266583229031</v>
       </c>
       <c r="J140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>3.1746031746031744</v>
       </c>
       <c r="K140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>3.1147871696590683</v>
       </c>
       <c r="L140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>3.080606544293695</v>
       </c>
       <c r="M140">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>1.2372913869173221</v>
       </c>
       <c r="N140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>1.2372913869173221</v>
       </c>
       <c r="O140" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>1.784121320249777</v>
       </c>
       <c r="P140" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>1.7688679245283019</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R140" s="54">
+        <f>MAX(B140:P140)</f>
+        <v>9.0613266583229031</v>
+      </c>
+      <c r="S140" s="51">
+        <f>MIN(B140:P140)</f>
+        <v>0.86577135455722953</v>
+      </c>
+      <c r="T140" s="51">
+        <f>MEDIAN(B140:P140)</f>
+        <v>1.784121320249777</v>
+      </c>
+      <c r="U140" s="57"/>
+    </row>
+    <row r="141" spans="1:21" ht="15.75">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B141" s="13">
         <f>(B131/SUM(B129:B138)) * 100</f>
         <v>2.6315789473684208</v>
       </c>
       <c r="C141" s="13">
-        <f t="shared" ref="C141:P141" si="29">(C131/SUM(C129:C138)) * 100</f>
+        <f t="shared" ref="C141:P141" si="38">(C131/SUM(C129:C138)) * 100</f>
         <v>0</v>
       </c>
       <c r="D141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.32040357215897475</v>
       </c>
       <c r="F141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.32040357215897475</v>
       </c>
       <c r="G141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.67870700563671926</v>
       </c>
       <c r="H141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.76931909518888508</v>
       </c>
       <c r="I141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>2.4030037546933665</v>
       </c>
       <c r="J141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>7.1428571428571423</v>
       </c>
       <c r="K141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>12.995763566673391</v>
       </c>
       <c r="L141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>13.335993615323224</v>
       </c>
       <c r="M141">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.51793592940725108</v>
       </c>
       <c r="N141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.51793592940725108</v>
       </c>
       <c r="O141" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.1894142134998513</v>
       </c>
       <c r="P141" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.3856132075471699</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R141" s="54">
+        <f t="shared" ref="R141:R143" si="39">MAX(B141:P141)</f>
+        <v>13.335993615323224</v>
+      </c>
+      <c r="S141" s="51">
+        <f t="shared" ref="S141:S143" si="40">MIN(B141:P141)</f>
+        <v>0</v>
+      </c>
+      <c r="T141" s="51">
+        <f t="shared" ref="T141:T143" si="41">MEDIAN(B141:P141)</f>
+        <v>0.76931909518888508</v>
+      </c>
+      <c r="U141" s="49"/>
+    </row>
+    <row r="142" spans="1:21" ht="17.100000000000001" thickBot="1">
       <c r="A142" s="18" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B142" s="15">
         <f>(B130/SUM(B129:B138)) * 100</f>
         <v>0</v>
       </c>
       <c r="C142" s="15">
-        <f t="shared" ref="C142:P142" si="30">(C130/SUM(C129:C138)) * 100</f>
+        <f t="shared" ref="C142:P142" si="42">(C130/SUM(C129:C138)) * 100</f>
         <v>0</v>
       </c>
       <c r="D142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>4.03469840629413E-3</v>
       </c>
       <c r="L142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>3.9904229848363925E-3</v>
       </c>
       <c r="M142" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0.16305390370228276</v>
       </c>
       <c r="N142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0.16305390370228276</v>
       </c>
       <c r="O142" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P142" s="34">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="54">
+        <f t="shared" si="39"/>
+        <v>0.16305390370228276</v>
+      </c>
+      <c r="S142" s="51">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T142" s="51">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="49"/>
+    </row>
+    <row r="143" spans="1:21" ht="17.100000000000001" thickBot="1">
       <c r="A143" s="7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B143" s="8">
         <f>SUM(B140:B142)</f>
         <v>5.2631578947368416</v>
       </c>
       <c r="C143" s="35">
-        <f t="shared" ref="C143:P143" si="31">SUM(C140:C142)</f>
+        <f t="shared" ref="C143:P143" si="43">SUM(C140:C142)</f>
         <v>1.3986013986013985</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.25</v>
       </c>
       <c r="E143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.1861749267162043</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.1861749267162043</v>
       </c>
       <c r="G143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2.9794087196594963</v>
       </c>
       <c r="H143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>3.0657940062004823</v>
       </c>
       <c r="I143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>11.46433041301627</v>
       </c>
       <c r="J143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>10.317460317460316</v>
       </c>
       <c r="K143" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>16.114585434738753</v>
       </c>
       <c r="L143" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>16.420590582601754</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.918281220026856</v>
       </c>
       <c r="N143" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.918281220026856</v>
       </c>
       <c r="O143" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2.9735355337496285</v>
       </c>
       <c r="P143" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>3.154481132075472</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R143" s="55">
+        <f t="shared" si="39"/>
+        <v>16.420590582601754</v>
+      </c>
+      <c r="S143" s="53">
+        <f t="shared" si="40"/>
+        <v>1.1861749267162043</v>
+      </c>
+      <c r="T143" s="53">
+        <f t="shared" si="41"/>
+        <v>2.9794087196594963</v>
+      </c>
+      <c r="U143" s="50"/>
+    </row>
+    <row r="144" spans="1:21">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -7199,44 +8381,45 @@
       <c r="O144" s="11"/>
       <c r="P144" s="32"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" ht="15.75"/>
+    <row r="146" spans="1:18" ht="15.75">
       <c r="A146" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="15.75">
       <c r="A147" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B147">
         <v>8</v>
@@ -7269,9 +8452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" ht="15.75">
       <c r="A148" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7304,9 +8487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" ht="15.75">
       <c r="A149" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7339,9 +8522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" ht="15.75">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B150">
         <v>51</v>
@@ -7374,9 +8557,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" ht="15.75">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B151">
         <v>182</v>
@@ -7409,9 +8592,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" ht="15.75">
       <c r="A152" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B152">
         <v>93</v>
@@ -7444,9 +8627,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" ht="15.75">
       <c r="A153" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7479,9 +8662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" ht="15.75">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7514,9 +8697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" ht="15.75">
       <c r="A155" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7548,10 +8731,16 @@
       <c r="K155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M155" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N155" s="39"/>
+      <c r="O155" s="39"/>
+      <c r="P155" s="40"/>
+    </row>
+    <row r="156" spans="1:18" ht="15.75">
       <c r="A156" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7583,197 +8772,269 @@
       <c r="K156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M156" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N156" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O156" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P156" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="R156" s="42"/>
+    </row>
+    <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B157">
         <f>B147/SUM(B147:B156)*100</f>
         <v>2.3880597014925375</v>
       </c>
       <c r="C157">
-        <f t="shared" ref="C157:K157" si="32">C147/SUM(C147:C156)*100</f>
+        <f t="shared" ref="C157:K157" si="44">C147/SUM(C147:C156)*100</f>
         <v>1.4084507042253522</v>
       </c>
       <c r="D157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1.5738117721120555</v>
       </c>
       <c r="G157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1.9498607242339834</v>
       </c>
       <c r="I157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>6.4837299660029144</v>
       </c>
       <c r="K157">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="46">
+        <f>MAX(B157:K157)</f>
+        <v>6.4837299660029144</v>
+      </c>
+      <c r="N157" s="42">
+        <f>MIN(B157:K157)</f>
+        <v>0</v>
+      </c>
+      <c r="O157" s="42">
+        <f>MEDIAN(B157:K157)</f>
+        <v>0.70422535211267612</v>
+      </c>
+      <c r="P157" s="49"/>
+    </row>
+    <row r="158" spans="1:18" ht="15.75">
       <c r="A158" s="37" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B158">
         <f>B148/SUM(B147:B156)*100</f>
         <v>0</v>
       </c>
       <c r="C158">
-        <f t="shared" ref="C158:K158" si="33">C148/SUM(C147:C156)*100</f>
+        <f t="shared" ref="C158:K158" si="45">C148/SUM(C147:C156)*100</f>
         <v>0</v>
       </c>
       <c r="D158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K158">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M158" s="46">
+        <f t="shared" ref="M158:M160" si="46">MAX(B158:K158)</f>
+        <v>0</v>
+      </c>
+      <c r="N158" s="42">
+        <f t="shared" ref="N158:N160" si="47">MIN(B158:K158)</f>
+        <v>0</v>
+      </c>
+      <c r="O158" s="42">
+        <f t="shared" ref="O158:O160" si="48">MEDIAN(B158:K158)</f>
+        <v>0</v>
+      </c>
+      <c r="P158" s="49"/>
+    </row>
+    <row r="159" spans="1:18" ht="15.75">
       <c r="A159" s="18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B159">
         <f>B149/SUM(B147:B156)*100</f>
         <v>0</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:K159" si="34">C149/SUM(C147:C156)*100</f>
+        <f t="shared" ref="C159:K159" si="49">C149/SUM(C147:C156)*100</f>
         <v>2.3322732091473575</v>
       </c>
       <c r="D159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>3.147623544224111E-2</v>
       </c>
       <c r="G159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>6.25</v>
       </c>
       <c r="H159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.1392757660167131</v>
       </c>
       <c r="I159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>3.1325886352598351</v>
       </c>
       <c r="K159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>2.4390243902439024</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M159" s="46">
+        <f t="shared" si="46"/>
+        <v>6.25</v>
+      </c>
+      <c r="N159" s="42">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="42">
+        <f t="shared" si="48"/>
+        <v>8.5376000729477097E-2</v>
+      </c>
+      <c r="P159" s="49"/>
+    </row>
+    <row r="160" spans="1:18" ht="15.75">
       <c r="A160" s="18" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B160">
         <f>SUM(B157:B159)</f>
         <v>2.3880597014925375</v>
       </c>
       <c r="C160">
-        <f t="shared" ref="C160:K160" si="35">SUM(C157:C159)</f>
+        <f t="shared" ref="C160:K160" si="50">SUM(C157:C159)</f>
         <v>3.7407239133727099</v>
       </c>
       <c r="D160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.6052880075542966</v>
       </c>
       <c r="G160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>6.25</v>
       </c>
       <c r="H160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.0891364902506964</v>
       </c>
       <c r="I160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>9.6163186012627495</v>
       </c>
       <c r="K160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.4390243902439024</v>
       </c>
-    </row>
-    <row r="161" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="M160" s="47">
+        <f t="shared" si="46"/>
+        <v>9.6163186012627495</v>
+      </c>
+      <c r="N160" s="44">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O160" s="44">
+        <f t="shared" si="48"/>
+        <v>2.238598095871617</v>
+      </c>
+      <c r="P160" s="50"/>
+    </row>
+    <row r="161" spans="15:18" ht="15.75">
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="M155:P155"/>
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="M120:P120"/>
+    <mergeCell ref="M103:P103"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="9">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -7783,6 +9044,11 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2194A16F-DE88-4FD7-B1D1-A9A0CB21B8FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6C74F9-8B70-434E-A78F-D2660A0B3DC3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>re-do</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Local Annotation</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Other Annotation</t>
@@ -887,15 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,11 +901,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3197,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G56" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M66" sqref="M66:P66"/>
+    <sheetView tabSelected="1" topLeftCell="B145" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -3210,7 +3207,7 @@
     <col min="18" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3231,7 +3228,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3244,7 +3241,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3280,7 +3277,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3316,7 +3313,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3355,7 +3352,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3394,7 +3391,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3430,7 +3427,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3466,7 +3463,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3502,7 +3499,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3542,7 +3539,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3621,13 +3618,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" t="s">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -3663,14 +3657,14 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>25</v>
       </c>
       <c r="B16">
         <f>B5/SUM(B5:B14)*100</f>
@@ -3715,7 +3709,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <f>B7/SUM(B5:B14)*100</f>
@@ -3760,7 +3754,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <f>B6/SUM(B5:B14)*100</f>
@@ -3805,7 +3799,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <f>SUM(B16:B18)</f>
@@ -3860,37 +3854,37 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>37</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -4166,21 +4160,21 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <f>B23/SUM(B23:B32)*100</f>
@@ -4225,7 +4219,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <f>B25/SUM(B23:B32)*100</f>
@@ -4270,7 +4264,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <f>B24/SUM(B23:B32)*100</f>
@@ -4315,7 +4309,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <f>SUM(B34:B36)</f>
@@ -4360,37 +4354,37 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>45</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>47</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>48</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>49</v>
-      </c>
-      <c r="K39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4710,7 +4704,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4745,12 +4739,12 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <f>B40/SUM(B40:B49)</f>
@@ -4795,7 +4789,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <f>B42/SUM(B40:B49)*100</f>
@@ -4840,7 +4834,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <f>B41/SUM(B40:B49)*100</f>
@@ -4885,7 +4879,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <f>SUM(B51:B53)</f>
@@ -4930,37 +4924,37 @@
     </row>
     <row r="56" spans="1:12" ht="80.099999999999994">
       <c r="A56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="K56" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="L56" s="6"/>
     </row>
@@ -5071,7 +5065,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="5">
         <v>459</v>
@@ -5141,7 +5135,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="5">
         <v>517</v>
@@ -5176,7 +5170,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -5223,27 +5217,27 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="5">
         <f>B57/SUM(B57:B66)*100</f>
@@ -5286,14 +5280,14 @@
         <v>0</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="41"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" s="5">
         <f>B59/SUM(B57:B66)*100</f>
@@ -5336,14 +5330,14 @@
         <v>0</v>
       </c>
       <c r="L69" s="5"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
       <c r="P69" s="23"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70">
         <f>B58/SUM(B57:B66)*100</f>
@@ -5385,14 +5379,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
       <c r="P70" s="23"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71">
         <f>SUM(B68:B70)</f>
@@ -5434,9 +5428,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
       <c r="P71" s="23"/>
     </row>
     <row r="72" spans="1:16">
@@ -5451,37 +5445,37 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" t="s">
         <v>66</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>67</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>68</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>69</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>70</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>71</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>72</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>73</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>74</v>
-      </c>
-      <c r="K76" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5801,7 +5795,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -5833,33 +5827,33 @@
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="M86" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
+      <c r="M86" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" t="s">
-        <v>24</v>
-      </c>
-      <c r="M87" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N87" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="52" t="s">
+      <c r="O87" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="O87" s="52" t="s">
+      <c r="P87" s="53" t="s">
         <v>79</v>
-      </c>
-      <c r="P87" s="56" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88">
         <f>(B77/SUM(B77:B86)) * 100</f>
@@ -5901,23 +5895,23 @@
         <f t="shared" si="16"/>
         <v>2.7917620137299775</v>
       </c>
-      <c r="M88" s="54">
+      <c r="M88" s="51">
         <f>MAX(B88:K88)</f>
         <v>4.0816326530612246</v>
       </c>
-      <c r="N88" s="51">
+      <c r="N88" s="48">
         <f>MIN(B88:K88)</f>
         <v>1.1363636363636365</v>
       </c>
-      <c r="O88" s="51">
+      <c r="O88" s="48">
         <f>MEDIAN(B88:K88)</f>
         <v>2.8578693109585558</v>
       </c>
-      <c r="P88" s="57"/>
+      <c r="P88" s="54"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89">
         <f>(B78/SUM(B77:B86)) * 100</f>
@@ -5959,23 +5953,23 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M89" s="54">
+      <c r="M89" s="51">
         <f t="shared" ref="M89:M91" si="18">MAX(B89:K89)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="51">
+      <c r="N89" s="48">
         <f t="shared" ref="N89:N91" si="19">MIN(B89:K89)</f>
         <v>0</v>
       </c>
-      <c r="O89" s="51">
+      <c r="O89" s="48">
         <f t="shared" ref="O89:O91" si="20">MEDIAN(B89:K89)</f>
         <v>0</v>
       </c>
-      <c r="P89" s="49"/>
+      <c r="P89" s="46"/>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90">
         <f>(B79/SUM(B77:B86)) * 100</f>
@@ -6017,23 +6011,23 @@
         <f t="shared" si="21"/>
         <v>14.279176201372998</v>
       </c>
-      <c r="M90" s="54">
+      <c r="M90" s="51">
         <f t="shared" si="18"/>
         <v>14.279176201372998</v>
       </c>
-      <c r="N90" s="51">
+      <c r="N90" s="48">
         <f t="shared" si="19"/>
         <v>1.1363636363636365</v>
       </c>
-      <c r="O90" s="51">
+      <c r="O90" s="48">
         <f t="shared" si="20"/>
         <v>5.7217979216226365</v>
       </c>
-      <c r="P90" s="49"/>
+      <c r="P90" s="46"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91">
         <f>SUM(B88:B90)</f>
@@ -6075,53 +6069,53 @@
         <f t="shared" si="22"/>
         <v>17.070938215102977</v>
       </c>
-      <c r="M91" s="54">
+      <c r="M91" s="51">
         <f t="shared" si="18"/>
         <v>17.070938215102977</v>
       </c>
-      <c r="N91" s="51">
+      <c r="N91" s="48">
         <f t="shared" si="19"/>
         <v>2.2727272727272729</v>
       </c>
-      <c r="O91" s="51">
+      <c r="O91" s="48">
         <f t="shared" si="20"/>
         <v>8.6828596469262553</v>
       </c>
-      <c r="P91" s="50"/>
+      <c r="P91" s="47"/>
     </row>
     <row r="93" spans="1:16" ht="17.100000000000001" thickBot="1">
       <c r="A93" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="D93" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="F93" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="G93" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G93" s="21" t="s">
+      <c r="H93" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H93" s="21" t="s">
+      <c r="I93" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="J93" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J93" s="21" t="s">
+      <c r="K93" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="K93" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6441,7 +6435,7 @@
     </row>
     <row r="103" spans="1:16" ht="15.75">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103" s="11">
         <v>8</v>
@@ -6473,16 +6467,16 @@
       <c r="K103" s="11">
         <v>0</v>
       </c>
-      <c r="M103" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
-      <c r="P103" s="58"/>
+      <c r="M103" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N103" s="57"/>
+      <c r="O103" s="57"/>
+      <c r="P103" s="57"/>
     </row>
     <row r="104" spans="1:16" ht="15.75">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -6491,22 +6485,22 @@
       <c r="H104" s="13"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
-      <c r="M104" s="45" t="s">
+      <c r="M104" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N104" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="N104" s="52" t="s">
+      <c r="O104" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="O104" s="52" t="s">
+      <c r="P104" s="53" t="s">
         <v>79</v>
-      </c>
-      <c r="P104" s="56" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15.75">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105" s="13">
         <f>(B94/SUM(B94:B103)) * 100</f>
@@ -6548,23 +6542,23 @@
         <f t="shared" si="23"/>
         <v>5.3406998158379375</v>
       </c>
-      <c r="M105" s="54">
+      <c r="M105" s="51">
         <f>MAX(B105:K105)</f>
         <v>15.686274509803921</v>
       </c>
-      <c r="N105" s="51">
+      <c r="N105" s="48">
         <f>MIN(B105:K105)</f>
         <v>0.32154340836012862</v>
       </c>
-      <c r="O105" s="51">
+      <c r="O105" s="48">
         <f>MEDIAN(B105:K105)</f>
         <v>3.5763280733610152</v>
       </c>
-      <c r="P105" s="57"/>
+      <c r="P105" s="54"/>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="13">
         <f>(B95/SUM(B94:B103)) * 100</f>
@@ -6606,23 +6600,23 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M106" s="54">
+      <c r="M106" s="51">
         <f t="shared" ref="M106:M108" si="25">MAX(B106:K106)</f>
         <v>1.5605493133583021E-2</v>
       </c>
-      <c r="N106" s="51">
+      <c r="N106" s="48">
         <f t="shared" ref="N106:N108" si="26">MIN(B106:K106)</f>
         <v>0</v>
       </c>
-      <c r="O106" s="51">
+      <c r="O106" s="48">
         <f t="shared" ref="O106:O108" si="27">MEDIAN(B106:K106)</f>
         <v>0</v>
       </c>
-      <c r="P106" s="49"/>
+      <c r="P106" s="46"/>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" s="15">
         <f>(B96/SUM(B94:B103)) * 100</f>
@@ -6664,23 +6658,23 @@
         <f t="shared" si="28"/>
         <v>0.55248618784530379</v>
       </c>
-      <c r="M107" s="54">
+      <c r="M107" s="51">
         <f t="shared" si="25"/>
         <v>3.4509803921568625</v>
       </c>
-      <c r="N107" s="51">
+      <c r="N107" s="48">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O107" s="51">
+      <c r="O107" s="48">
         <f t="shared" si="27"/>
         <v>0.50979432292499216</v>
       </c>
-      <c r="P107" s="49"/>
+      <c r="P107" s="46"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" s="23">
         <f>SUM(B105:B107)</f>
@@ -6722,53 +6716,53 @@
         <f t="shared" si="29"/>
         <v>5.8931860036832413</v>
       </c>
-      <c r="M108" s="54">
+      <c r="M108" s="51">
         <f t="shared" si="25"/>
         <v>19.137254901960784</v>
       </c>
-      <c r="N108" s="51">
+      <c r="N108" s="48">
         <f t="shared" si="26"/>
         <v>0.61093247588424437</v>
       </c>
-      <c r="O108" s="51">
+      <c r="O108" s="48">
         <f t="shared" si="27"/>
         <v>3.7976289865774424</v>
       </c>
-      <c r="P108" s="50"/>
+      <c r="P108" s="47"/>
     </row>
     <row r="110" spans="1:16" ht="17.100000000000001" thickBot="1">
       <c r="A110" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="C110" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="D110" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="E110" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="F110" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="G110" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="H110" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H110" s="21" t="s">
+      <c r="I110" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I110" s="21" t="s">
+      <c r="J110" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J110" s="21" t="s">
+      <c r="K110" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="K110" s="22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7088,7 +7082,7 @@
     </row>
     <row r="120" spans="1:17" ht="15.75">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" s="11">
         <v>0</v>
@@ -7120,16 +7114,16 @@
       <c r="K120" s="11">
         <v>0</v>
       </c>
-      <c r="M120" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="N120" s="58"/>
-      <c r="O120" s="58"/>
-      <c r="P120" s="58"/>
+      <c r="M120" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N120" s="57"/>
+      <c r="O120" s="57"/>
+      <c r="P120" s="57"/>
     </row>
     <row r="121" spans="1:17" ht="15.75">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="13">
         <v>15</v>
@@ -7161,22 +7155,22 @@
       <c r="K121" s="13">
         <v>103</v>
       </c>
-      <c r="M121" s="45" t="s">
+      <c r="M121" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N121" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="N121" s="52" t="s">
+      <c r="O121" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="O121" s="52" t="s">
+      <c r="P121" s="53" t="s">
         <v>79</v>
-      </c>
-      <c r="P121" s="56" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="15.75">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B122" s="13">
         <f>B111/SUM(B111:B120)*100</f>
@@ -7218,23 +7212,23 @@
         <f t="shared" si="30"/>
         <v>0.76335877862595414</v>
       </c>
-      <c r="M122" s="54">
+      <c r="M122" s="51">
         <f>MAX(B122:K122)</f>
         <v>5.2204176334106727</v>
       </c>
-      <c r="N122" s="51">
+      <c r="N122" s="48">
         <f>MIN(B122:K122)</f>
         <v>0</v>
       </c>
-      <c r="O122" s="51">
+      <c r="O122" s="48">
         <f>MEDIAN(B122:K122)</f>
         <v>0.55232785347679958</v>
       </c>
-      <c r="P122" s="57"/>
+      <c r="P122" s="54"/>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123" s="13">
         <f>B112/SUM(B111:B120)*100</f>
@@ -7276,23 +7270,23 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M123" s="54">
+      <c r="M123" s="51">
         <f t="shared" ref="M123:M125" si="32">MAX(B123:K123)</f>
         <v>0</v>
       </c>
-      <c r="N123" s="51">
+      <c r="N123" s="48">
         <f t="shared" ref="N123:N125" si="33">MIN(B123:K123)</f>
         <v>0</v>
       </c>
-      <c r="O123" s="51">
+      <c r="O123" s="48">
         <f t="shared" ref="O123:O125" si="34">MEDIAN(B123:K123)</f>
         <v>0</v>
       </c>
-      <c r="P123" s="49"/>
+      <c r="P123" s="46"/>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B124" s="13">
         <f>B113/SUM(B111:B120)*100</f>
@@ -7334,23 +7328,23 @@
         <f t="shared" si="35"/>
         <v>0.5089058524173028</v>
       </c>
-      <c r="M124" s="54">
+      <c r="M124" s="51">
         <f t="shared" si="32"/>
         <v>5.4607508532423212</v>
       </c>
-      <c r="N124" s="51">
+      <c r="N124" s="48">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O124" s="51">
+      <c r="O124" s="48">
         <f t="shared" si="34"/>
         <v>0.86733337423563817</v>
       </c>
-      <c r="P124" s="49"/>
+      <c r="P124" s="46"/>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B125" s="15">
         <f>SUM(B122:B124)</f>
@@ -7392,108 +7386,108 @@
         <f t="shared" si="36"/>
         <v>1.272264631043257</v>
       </c>
-      <c r="M125" s="54">
+      <c r="M125" s="51">
         <f t="shared" si="32"/>
         <v>6.8445475638051043</v>
       </c>
-      <c r="N125" s="51">
+      <c r="N125" s="48">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O125" s="51">
+      <c r="O125" s="48">
         <f t="shared" si="34"/>
         <v>1.3732330526223655</v>
       </c>
-      <c r="P125" s="50"/>
+      <c r="P125" s="47"/>
     </row>
     <row r="127" spans="1:17" ht="17.100000000000001" thickBot="1">
       <c r="A127" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="D127" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="F127" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="G127" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G127" s="21" t="s">
+      <c r="H127" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H127" s="21" t="s">
+      <c r="I127" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I127" s="21" t="s">
+      <c r="J127" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J127" s="21" t="s">
+      <c r="K127" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K127" s="21" t="s">
+      <c r="L127" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="L127" s="22" t="s">
+      <c r="M127" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M127" s="19" t="s">
+      <c r="N127" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="N127" s="20" t="s">
+      <c r="O127" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="O127" s="24" t="s">
+      <c r="P127" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="P127" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F128" s="27" t="s">
-        <v>124</v>
-      </c>
       <c r="G128" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H128" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="H128" s="28" t="s">
-        <v>124</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="12"/>
       <c r="K128" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L128" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="L128" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="M128" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="N128" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="N128" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="O128" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="P128" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="P128" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="Q128" s="31"/>
     </row>
@@ -7949,7 +7943,7 @@
     </row>
     <row r="138" spans="1:21" ht="15.95" customHeight="1">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B138" s="13">
         <v>0</v>
@@ -7996,16 +7990,16 @@
       <c r="P138" s="33">
         <v>14</v>
       </c>
-      <c r="R138" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="S138" s="58"/>
-      <c r="T138" s="58"/>
-      <c r="U138" s="58"/>
+      <c r="R138" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="S138" s="57"/>
+      <c r="T138" s="57"/>
+      <c r="U138" s="57"/>
     </row>
     <row r="139" spans="1:21" ht="15.75">
       <c r="A139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13">
@@ -8040,22 +8034,22 @@
         <v>142</v>
       </c>
       <c r="P139" s="33"/>
-      <c r="R139" s="45" t="s">
+      <c r="R139" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="S139" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="S139" s="52" t="s">
+      <c r="T139" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T139" s="52" t="s">
+      <c r="U139" s="53" t="s">
         <v>79</v>
-      </c>
-      <c r="U139" s="56" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="15.75">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B140" s="13">
         <f>(B129/SUM(B129:B138)) * 100</f>
@@ -8117,23 +8111,23 @@
         <f t="shared" si="37"/>
         <v>1.7688679245283019</v>
       </c>
-      <c r="R140" s="54">
+      <c r="R140" s="51">
         <f>MAX(B140:P140)</f>
         <v>9.0613266583229031</v>
       </c>
-      <c r="S140" s="51">
+      <c r="S140" s="48">
         <f>MIN(B140:P140)</f>
         <v>0.86577135455722953</v>
       </c>
-      <c r="T140" s="51">
+      <c r="T140" s="48">
         <f>MEDIAN(B140:P140)</f>
         <v>1.784121320249777</v>
       </c>
-      <c r="U140" s="57"/>
+      <c r="U140" s="54"/>
     </row>
     <row r="141" spans="1:21" ht="15.75">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B141" s="13">
         <f>(B131/SUM(B129:B138)) * 100</f>
@@ -8195,23 +8189,23 @@
         <f t="shared" si="38"/>
         <v>1.3856132075471699</v>
       </c>
-      <c r="R141" s="54">
+      <c r="R141" s="51">
         <f t="shared" ref="R141:R143" si="39">MAX(B141:P141)</f>
         <v>13.335993615323224</v>
       </c>
-      <c r="S141" s="51">
+      <c r="S141" s="48">
         <f t="shared" ref="S141:S143" si="40">MIN(B141:P141)</f>
         <v>0</v>
       </c>
-      <c r="T141" s="51">
+      <c r="T141" s="48">
         <f t="shared" ref="T141:T143" si="41">MEDIAN(B141:P141)</f>
         <v>0.76931909518888508</v>
       </c>
-      <c r="U141" s="49"/>
+      <c r="U141" s="46"/>
     </row>
     <row r="142" spans="1:21" ht="17.100000000000001" thickBot="1">
       <c r="A142" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B142" s="15">
         <f>(B130/SUM(B129:B138)) * 100</f>
@@ -8273,23 +8267,23 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="R142" s="54">
+      <c r="R142" s="51">
         <f t="shared" si="39"/>
         <v>0.16305390370228276</v>
       </c>
-      <c r="S142" s="51">
+      <c r="S142" s="48">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="T142" s="51">
+      <c r="T142" s="48">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="U142" s="49"/>
+      <c r="U142" s="46"/>
     </row>
     <row r="143" spans="1:21" ht="17.100000000000001" thickBot="1">
       <c r="A143" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B143" s="8">
         <f>SUM(B140:B142)</f>
@@ -8351,19 +8345,19 @@
         <f t="shared" si="43"/>
         <v>3.154481132075472</v>
       </c>
-      <c r="R143" s="55">
+      <c r="R143" s="52">
         <f t="shared" si="39"/>
         <v>16.420590582601754</v>
       </c>
-      <c r="S143" s="53">
+      <c r="S143" s="50">
         <f t="shared" si="40"/>
         <v>1.1861749267162043</v>
       </c>
-      <c r="T143" s="53">
+      <c r="T143" s="50">
         <f t="shared" si="41"/>
         <v>2.9794087196594963</v>
       </c>
-      <c r="U143" s="50"/>
+      <c r="U143" s="47"/>
     </row>
     <row r="144" spans="1:21">
       <c r="B144" s="11"/>
@@ -8384,37 +8378,37 @@
     <row r="145" spans="1:18" ht="15.75"/>
     <row r="146" spans="1:18" ht="15.75">
       <c r="A146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="I146" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="J146" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="K146" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="15.75">
@@ -8524,7 +8518,7 @@
     </row>
     <row r="150" spans="1:18" ht="15.75">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150">
         <v>51</v>
@@ -8594,7 +8588,7 @@
     </row>
     <row r="152" spans="1:18" ht="15.75">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B152">
         <v>93</v>
@@ -8629,7 +8623,7 @@
     </row>
     <row r="153" spans="1:18" ht="15.75">
       <c r="A153" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -8664,7 +8658,7 @@
     </row>
     <row r="154" spans="1:18" ht="15.75">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -8699,7 +8693,7 @@
     </row>
     <row r="155" spans="1:18" ht="15.75">
       <c r="A155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -8731,16 +8725,16 @@
       <c r="K155">
         <v>0</v>
       </c>
-      <c r="M155" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="N155" s="39"/>
-      <c r="O155" s="39"/>
-      <c r="P155" s="40"/>
+      <c r="M155" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N155" s="59"/>
+      <c r="O155" s="59"/>
+      <c r="P155" s="60"/>
     </row>
     <row r="156" spans="1:18" ht="15.75">
       <c r="A156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -8772,23 +8766,23 @@
       <c r="K156">
         <v>0</v>
       </c>
-      <c r="M156" s="45" t="s">
+      <c r="M156" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N156" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="N156" s="43" t="s">
+      <c r="O156" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="O156" s="43" t="s">
+      <c r="P156" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="P156" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="R156" s="42"/>
+      <c r="R156" s="39"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B157">
         <f>B147/SUM(B147:B156)*100</f>
@@ -8830,23 +8824,23 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="M157" s="46">
+      <c r="M157" s="43">
         <f>MAX(B157:K157)</f>
         <v>6.4837299660029144</v>
       </c>
-      <c r="N157" s="42">
+      <c r="N157" s="39">
         <f>MIN(B157:K157)</f>
         <v>0</v>
       </c>
-      <c r="O157" s="42">
+      <c r="O157" s="39">
         <f>MEDIAN(B157:K157)</f>
         <v>0.70422535211267612</v>
       </c>
-      <c r="P157" s="49"/>
+      <c r="P157" s="46"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
       <c r="A158" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B158">
         <f>B148/SUM(B147:B156)*100</f>
@@ -8888,23 +8882,23 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M158" s="46">
+      <c r="M158" s="43">
         <f t="shared" ref="M158:M160" si="46">MAX(B158:K158)</f>
         <v>0</v>
       </c>
-      <c r="N158" s="42">
+      <c r="N158" s="39">
         <f t="shared" ref="N158:N160" si="47">MIN(B158:K158)</f>
         <v>0</v>
       </c>
-      <c r="O158" s="42">
+      <c r="O158" s="39">
         <f t="shared" ref="O158:O160" si="48">MEDIAN(B158:K158)</f>
         <v>0</v>
       </c>
-      <c r="P158" s="49"/>
+      <c r="P158" s="46"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
       <c r="A159" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B159">
         <f>B149/SUM(B147:B156)*100</f>
@@ -8946,23 +8940,23 @@
         <f t="shared" si="49"/>
         <v>2.4390243902439024</v>
       </c>
-      <c r="M159" s="46">
+      <c r="M159" s="43">
         <f t="shared" si="46"/>
         <v>6.25</v>
       </c>
-      <c r="N159" s="42">
+      <c r="N159" s="39">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O159" s="42">
+      <c r="O159" s="39">
         <f t="shared" si="48"/>
         <v>8.5376000729477097E-2</v>
       </c>
-      <c r="P159" s="49"/>
+      <c r="P159" s="46"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
       <c r="A160" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B160">
         <f>SUM(B157:B159)</f>
@@ -9004,19 +8998,19 @@
         <f t="shared" si="50"/>
         <v>2.4390243902439024</v>
       </c>
-      <c r="M160" s="47">
+      <c r="M160" s="44">
         <f t="shared" si="46"/>
         <v>9.6163186012627495</v>
       </c>
-      <c r="N160" s="44">
+      <c r="N160" s="41">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O160" s="44">
+      <c r="O160" s="41">
         <f t="shared" si="48"/>
         <v>2.238598095871617</v>
       </c>
-      <c r="P160" s="50"/>
+      <c r="P160" s="47"/>
     </row>
     <row r="161" spans="15:18" ht="15.75">
       <c r="O161" s="1"/>

--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46D29F4-C142-4A54-83B8-6EB9198D5CAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DF951D-FC1C-4BD7-AF0B-A0AE34D6D6CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
   <si>
     <t>re-do</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Cryptopmater</t>
+  </si>
+  <si>
+    <t>Results of Detailed Investigation across all projects</t>
   </si>
 </sst>
 </file>
@@ -883,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,11 +962,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="140">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3630,196 +3660,196 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table46" displayName="Table46" ref="A137:P154" totalsRowShown="0" headerRowBorderDxfId="136" tableBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table46" displayName="Table46" ref="A137:P154" totalsRowShown="0" headerRowBorderDxfId="138" tableBorderDxfId="139">
   <autoFilter ref="A137:P154" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Shay's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BBM Secure Comms" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BB web samples" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="All Algorithms" dataDxfId="133"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DeepLearning" dataDxfId="132"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ExoPlayer" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dex2Java Decompiler" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Net Cipher" dataDxfId="127"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ReactiveExtensionsForJVM" dataDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column3" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BBM Secure Comms" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BB web samples" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="All Algorithms" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DeepLearning" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ExoPlayer" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="131"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dex2Java Decompiler" dataDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Net Cipher" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ReactiveExtensionsForJVM" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column3" dataDxfId="127"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Java9 ASTParser"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column4" dataDxfId="124"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="123"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column5" dataDxfId="122"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column4" dataDxfId="126"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="125"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column5" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58169DB-DE6A-4097-BB3F-6E29EBE5E4CE}" name="Table2" displayName="Table2" ref="M168:P172" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="77" tableBorderDxfId="78" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58169DB-DE6A-4097-BB3F-6E29EBE5E4CE}" name="Table2" displayName="Table2" ref="M168:P172" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="79" tableBorderDxfId="80" totalsRowBorderDxfId="78">
   <autoFilter ref="M168:P172" xr:uid="{643EF349-F378-4476-861D-EB502F029625}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2F88BFBE-2BCE-4C4A-BF6C-804D0AB6C33D}" name="MAX" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{2F88BFBE-2BCE-4C4A-BF6C-804D0AB6C33D}" name="MAX" dataDxfId="77">
       <calculatedColumnFormula>MAX(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{957CED48-CAB2-4433-84D9-BD240400BA18}" name="MIN" dataDxfId="74">
+    <tableColumn id="2" xr3:uid="{957CED48-CAB2-4433-84D9-BD240400BA18}" name="MIN" dataDxfId="76">
       <calculatedColumnFormula>MIN(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E4EE599-1FFB-4E42-84BA-EA16793515DD}" name="MEDIAN" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{2E4EE599-1FFB-4E42-84BA-EA16793515DD}" name="MEDIAN" dataDxfId="75">
       <calculatedColumnFormula>MEDIAN(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F3D4A5F-CFD5-432D-A5E1-88F67A021E47}" name="OUTLIER" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{2F3D4A5F-CFD5-432D-A5E1-88F67A021E47}" name="OUTLIER" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D41C6232-F33C-4519-8651-5945885D4D09}" name="Table3" displayName="Table3" ref="R149:U153" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="69" tableBorderDxfId="70" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D41C6232-F33C-4519-8651-5945885D4D09}" name="Table3" displayName="Table3" ref="R149:U153" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="71" tableBorderDxfId="72" totalsRowBorderDxfId="70">
   <autoFilter ref="R149:U153" xr:uid="{F7FE1993-E430-415E-90F6-18D037458B38}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C318E04-5635-40B1-97BE-0E81731DAF67}" name="MAX" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{5C318E04-5635-40B1-97BE-0E81731DAF67}" name="MAX" dataDxfId="69">
       <calculatedColumnFormula>MAX(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{81E8AE5D-D4D9-4C11-ACE8-E1C1CBFC5CBB}" name="MIN" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{81E8AE5D-D4D9-4C11-ACE8-E1C1CBFC5CBB}" name="MIN" dataDxfId="68">
       <calculatedColumnFormula>MIN(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{07B572AF-AEDF-476D-90CA-FF6AE3BD4050}" name="MEDIAN" dataDxfId="65">
+    <tableColumn id="3" xr3:uid="{07B572AF-AEDF-476D-90CA-FF6AE3BD4050}" name="MEDIAN" dataDxfId="67">
       <calculatedColumnFormula>MEDIAN(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BC6D606D-23D5-4C2A-8D05-6A27A0D7C611}" name="OUTLIER" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{BC6D606D-23D5-4C2A-8D05-6A27A0D7C611}" name="OUTLIER" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD67CC6F-B454-42FF-BAAB-DF180AB8F1FE}" name="Table35" displayName="Table35" ref="M129:P133" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD67CC6F-B454-42FF-BAAB-DF180AB8F1FE}" name="Table35" displayName="Table35" ref="M129:P133" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
   <autoFilter ref="M129:P133" xr:uid="{31727AEE-EB67-47DF-97D6-B3036D2D0919}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{59FC5E6F-3BE8-42CB-9737-6D74C506DFCE}" name="MAX" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{59FC5E6F-3BE8-42CB-9737-6D74C506DFCE}" name="MAX" dataDxfId="61">
       <calculatedColumnFormula>MAX(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{54301EDD-72C7-4218-B7FA-A1B20F8639B9}" name="MIN" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{54301EDD-72C7-4218-B7FA-A1B20F8639B9}" name="MIN" dataDxfId="60">
       <calculatedColumnFormula>MIN(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AE843AC-4231-4690-A69D-6E42C2A5C15F}" name="MEDIAN" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{4AE843AC-4231-4690-A69D-6E42C2A5C15F}" name="MEDIAN" dataDxfId="59">
       <calculatedColumnFormula>MEDIAN(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3F5C3205-BCD8-4435-87FC-4DC3FC5526BF}" name="OUTLIER" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{3F5C3205-BCD8-4435-87FC-4DC3FC5526BF}" name="OUTLIER" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E89BBDFF-9BCE-41C9-A524-1C8E3D6B4E3A}" name="Table3515" displayName="Table3515" ref="M110:P114" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E89BBDFF-9BCE-41C9-A524-1C8E3D6B4E3A}" name="Table3515" displayName="Table3515" ref="M110:P114" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
   <autoFilter ref="M110:P114" xr:uid="{CD4F18DC-3DF0-4D94-8408-4AA1FE8FFA6C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F207E2EF-B246-45DD-8A6D-AD70A006F3D9}" name="MAX" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{F207E2EF-B246-45DD-8A6D-AD70A006F3D9}" name="MAX" dataDxfId="53">
       <calculatedColumnFormula>MAX(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C11F6B43-1EE2-42E0-9EA3-9DF4C1F96E46}" name="MIN" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{C11F6B43-1EE2-42E0-9EA3-9DF4C1F96E46}" name="MIN" dataDxfId="52">
       <calculatedColumnFormula>MIN(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{98D56CDE-CCEF-493F-9181-7436F54EFE2B}" name="MEDIAN" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{98D56CDE-CCEF-493F-9181-7436F54EFE2B}" name="MEDIAN" dataDxfId="51">
       <calculatedColumnFormula>MEDIAN(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5EB3EBF1-685F-4F48-B06E-FF03E7255773}" name="OUTLIER" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{5EB3EBF1-685F-4F48-B06E-FF03E7255773}" name="OUTLIER" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23920614-FDA3-4E4D-B401-21A03C68C443}" name="Table3516" displayName="Table3516" ref="M91:P95" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23920614-FDA3-4E4D-B401-21A03C68C443}" name="Table3516" displayName="Table3516" ref="M91:P95" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
   <autoFilter ref="M91:P95" xr:uid="{81A3871F-D47B-460F-8EC0-9148FA8AB78B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0026FF4C-8646-4907-928C-388F240EA8A8}" name="MAX" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{0026FF4C-8646-4907-928C-388F240EA8A8}" name="MAX" dataDxfId="45">
       <calculatedColumnFormula>MAX(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A10D139E-3EEE-4EE2-BFCB-596C17278338}" name="MIN" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{A10D139E-3EEE-4EE2-BFCB-596C17278338}" name="MIN" dataDxfId="44">
       <calculatedColumnFormula>MIN(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF9343AE-42F6-42D1-AB57-E614048687EB}" name="MEDIAN" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{EF9343AE-42F6-42D1-AB57-E614048687EB}" name="MEDIAN" dataDxfId="43">
       <calculatedColumnFormula>MEDIAN(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5FC9FFE9-4347-4E22-8EDB-ABFCCDCBB5A4}" name="OUTLIER" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{5FC9FFE9-4347-4E22-8EDB-ABFCCDCBB5A4}" name="OUTLIER" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AFE4B7-E0B0-4205-95AE-602AADF7F3A2}" name="Table35162" displayName="Table35162" ref="M72:P76" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AFE4B7-E0B0-4205-95AE-602AADF7F3A2}" name="Table35162" displayName="Table35162" ref="M72:P76" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
   <autoFilter ref="M72:P76" xr:uid="{3C82328A-A894-41F3-BCDC-160BE80C61FF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{979FB2E5-5872-45B0-8D83-5313ADB5273F}" name="MAX" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{979FB2E5-5872-45B0-8D83-5313ADB5273F}" name="MAX" dataDxfId="37">
       <calculatedColumnFormula>MAX(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{70F13572-BB09-4B3B-96A3-1C71C2839CB9}" name="MIN" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{70F13572-BB09-4B3B-96A3-1C71C2839CB9}" name="MIN" dataDxfId="36">
       <calculatedColumnFormula>MIN(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A59432C2-86B1-4456-9B70-4F7F90BA4E8B}" name="MEDIAN" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{A59432C2-86B1-4456-9B70-4F7F90BA4E8B}" name="MEDIAN" dataDxfId="35">
       <calculatedColumnFormula>MEDIAN(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C85B4A01-9347-4AD4-805F-F5DDC0408758}" name="OUTLIER" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C85B4A01-9347-4AD4-805F-F5DDC0408758}" name="OUTLIER" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F33D2278-913D-4A97-82B5-44DAF92758D1}" name="Table351617" displayName="Table351617" ref="M53:P57" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F33D2278-913D-4A97-82B5-44DAF92758D1}" name="Table351617" displayName="Table351617" ref="M53:P57" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
   <autoFilter ref="M53:P57" xr:uid="{5AA1B32C-90CD-4CB6-ADA6-E71739CE7665}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16772894-3593-4F23-969F-161630B58AF3}" name="MAX" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{16772894-3593-4F23-969F-161630B58AF3}" name="MAX" dataDxfId="29">
       <calculatedColumnFormula>MAX(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6DAE6BC6-7174-4ED5-B67A-651F35E682BE}" name="MIN" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{6DAE6BC6-7174-4ED5-B67A-651F35E682BE}" name="MIN" dataDxfId="28">
       <calculatedColumnFormula>MIN(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B895D0E-1137-403E-8930-07CD754A233E}" name="MEDIAN" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{5B895D0E-1137-403E-8930-07CD754A233E}" name="MEDIAN" dataDxfId="27">
       <calculatedColumnFormula>MEDIAN(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75EA28D3-E734-426B-826B-36951BA13529}" name="OUTLIER" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{75EA28D3-E734-426B-826B-36951BA13529}" name="OUTLIER" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{42728BDE-87F5-41F5-A267-B8D17A6D0EB9}" name="Table351618" displayName="Table351618" ref="M34:P38" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{42728BDE-87F5-41F5-A267-B8D17A6D0EB9}" name="Table351618" displayName="Table351618" ref="M34:P38" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
   <autoFilter ref="M34:P38" xr:uid="{B889D6E5-DD1F-4F42-BC04-4B45B4693F9B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F3BB2797-5CE6-42C9-9F0F-7E7A57CEE4B4}" name="MAX" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{F3BB2797-5CE6-42C9-9F0F-7E7A57CEE4B4}" name="MAX" dataDxfId="21">
       <calculatedColumnFormula>MAX(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5BD3DF33-103F-4395-85DC-21F888FBF2DC}" name="MIN" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{5BD3DF33-103F-4395-85DC-21F888FBF2DC}" name="MIN" dataDxfId="20">
       <calculatedColumnFormula>MIN(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B130B4D-FCE8-454F-AFF4-6F934363C9F4}" name="MEDIAN" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{5B130B4D-FCE8-454F-AFF4-6F934363C9F4}" name="MEDIAN" dataDxfId="19">
       <calculatedColumnFormula>MEDIAN(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BF1A3C52-55FC-45CF-A141-48B2A0094A64}" name="OUTLIER" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{BF1A3C52-55FC-45CF-A141-48B2A0094A64}" name="OUTLIER" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1A21DC82-9065-40E6-A435-4995E2233E78}" name="Table351620" displayName="Table351620" ref="M15:P19" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1A21DC82-9065-40E6-A435-4995E2233E78}" name="Table351620" displayName="Table351620" ref="M15:P19" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
   <autoFilter ref="M15:P19" xr:uid="{1FD67088-FF9C-475B-AA9A-EF71B702AB86}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D3D5462-A43D-4F3A-A49A-3AEA69575558}" name="MAX" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{2D3D5462-A43D-4F3A-A49A-3AEA69575558}" name="MAX" dataDxfId="13">
       <calculatedColumnFormula>MAX(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C21FA197-7971-4809-B648-BFC9865E5B57}" name="MIN" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{C21FA197-7971-4809-B648-BFC9865E5B57}" name="MIN" dataDxfId="12">
       <calculatedColumnFormula>MIN(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C41583C2-CA8E-40C4-A961-D9964A7C6090}" name="MEDIAN" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{C41583C2-CA8E-40C4-A961-D9964A7C6090}" name="MEDIAN" dataDxfId="11">
       <calculatedColumnFormula>MEDIAN(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81A30073-AD6D-428B-AF86-0C95A746B0CF}" name="OUTLIER" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{81A30073-AD6D-428B-AF86-0C95A746B0CF}" name="OUTLIER" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3846,59 +3876,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table57" displayName="Table57" ref="A118:K133" totalsRowShown="0" headerRowDxfId="121" headerRowBorderDxfId="119" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table57" displayName="Table57" ref="A118:K133" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="121" tableBorderDxfId="122">
   <autoFilter ref="A118:K133" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dal's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="GriefPrevention" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EssentialsX" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EssentialsChat" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="WorldGuard" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="WorldBorder" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PlotSquared" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ProtocolLib" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SuperVanish" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ViaVersion" dataDxfId="110"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="WorldEdit" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="GriefPrevention" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EssentialsX" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EssentialsChat" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="WorldGuard" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="WorldBorder" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PlotSquared" dataDxfId="115"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ProtocolLib" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SuperVanish" dataDxfId="113"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ViaVersion" dataDxfId="112"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="WorldEdit" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{937DC7FA-B885-4F2B-8601-8A9C7FA93035}" name="Table222" displayName="Table222" ref="M187:P191" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{937DC7FA-B885-4F2B-8601-8A9C7FA93035}" name="Table222" displayName="Table222" ref="M187:P191" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="M187:P191" xr:uid="{99C4CAE4-B99E-4343-B333-43A60F0E1782}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{766C641C-9FB1-4C6B-978B-806DF267ECB0}" name="MAX" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{766C641C-9FB1-4C6B-978B-806DF267ECB0}" name="MAX" dataDxfId="5">
       <calculatedColumnFormula>MAX(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{027B43CD-E48E-4BC3-BFC6-818B2C3C0BBB}" name="MIN" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{027B43CD-E48E-4BC3-BFC6-818B2C3C0BBB}" name="MIN" dataDxfId="4">
       <calculatedColumnFormula>MIN(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F47486C0-EE47-46B7-ABAC-F1671E3ECE26}" name="MEDIAN" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{F47486C0-EE47-46B7-ABAC-F1671E3ECE26}" name="MEDIAN" dataDxfId="3">
       <calculatedColumnFormula>MEDIAN(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CE5F51EB-7E70-4060-98D3-FABE8766370E}" name="OUTLIER" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CE5F51EB-7E70-4060-98D3-FABE8766370E}" name="OUTLIER" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B4EBBF4C-6887-4930-8837-12AB03A8EF2B}" name="Table22" displayName="Table22" ref="M195:P199" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="M195:P199" xr:uid="{2813AF42-4880-4411-8CDB-B649767665D9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A703C675-2E3B-4ECB-9A48-F5C937D8E27F}" name="MAX"/>
+    <tableColumn id="2" xr3:uid="{A4565A26-98D3-4C00-9BE3-9BD87851E4E4}" name="MIN"/>
+    <tableColumn id="3" xr3:uid="{4D259BEE-143E-4ADB-AF9B-6CE0C673BF7D}" name="MEDIAN" dataDxfId="0">
+      <calculatedColumnFormula>MEDIAN(O16, O35,O54,O73,O92,O111,O130,T150,O169,O188)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3173E5D3-C27E-4C4F-AF44-4D8E0817B710}" name="OUTLIER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table68" displayName="Table68" ref="A99:K114" totalsRowShown="0" headerRowDxfId="108" headerRowBorderDxfId="106" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table68" displayName="Table68" ref="A99:K114" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="108" tableBorderDxfId="109">
   <autoFilter ref="A99:K114" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Josh's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="jMonkeyEngine" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="libGDX" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TEAMMATES" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="JUnit 4" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Activiti" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Kore" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="MyCollab" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="BioJava" dataDxfId="98"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Cryptomator" dataDxfId="97"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Java Google Maps" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="jMonkeyEngine" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="libGDX" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TEAMMATES" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="JUnit 4" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Activiti" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Kore" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="MyCollab" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="BioJava" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Cryptomator" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Java Google Maps" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3925,7 +3970,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="97">
   <autoFilter ref="A4:K19" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Tony's Projects"/>
@@ -3985,11 +4030,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table767910" displayName="Table767910" ref="A61:K76" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table767910" displayName="Table767910" ref="A61:K76" totalsRowShown="0" headerRowDxfId="96">
   <autoFilter ref="A61:K76" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Sim's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quartz Scheduler" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quartz Scheduler" dataDxfId="95"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Open EMRConect"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Wallet"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Secure Banking System"/>
@@ -4005,20 +4050,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="A158:K172" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="90" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="A158:K172" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="92" tableBorderDxfId="93">
   <autoFilter ref="A158:K172" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Robert’s Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Jpacman Framework" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="seventh" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Snake" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Java String Similarity" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="LeetCode Sol Res" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Game of Life in Java" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="EduMIPS64" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="ATM Simulator" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="RinSim" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Mathematics" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Jpacman Framework" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="seventh" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Snake" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Java String Similarity" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="LeetCode Sol Res" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Game of Life in Java" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="EduMIPS64" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="ATM Simulator" dataDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="RinSim" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Mathematics" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4287,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U191"/>
+  <dimension ref="A1:U199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D170" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M186" sqref="M186"/>
+    <sheetView tabSelected="1" topLeftCell="D191" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -4304,7 +4349,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11190,9 +11235,102 @@
       </c>
       <c r="P191" s="46"/>
     </row>
+    <row r="193" spans="12:16" ht="15.75"/>
+    <row r="194" spans="12:16" ht="15.75">
+      <c r="M194" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="N194" s="61"/>
+      <c r="O194" s="61"/>
+      <c r="P194" s="61"/>
+    </row>
+    <row r="195" spans="12:16" ht="15.75">
+      <c r="M195" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N195" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O195" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P195" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="12:16" ht="15.75">
+      <c r="L196" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M196">
+        <v>15.6862745</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f t="shared" ref="O196:O199" si="70">MEDIAN(O16, O35,O54,O73,O92,O111,O130,T150,O169,O188)</f>
+        <v>1.45232500167528</v>
+      </c>
+      <c r="P196">
+        <v>3.4347049999999997E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="12:16" ht="15.75">
+      <c r="L197" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="M197">
+        <v>13.3359936</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="12:16" ht="15.75">
+      <c r="L198" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="M198">
+        <v>14.2791762</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="70"/>
+        <v>4.2688000364738549E-2</v>
+      </c>
+      <c r="P198">
+        <v>14.2791762</v>
+      </c>
+    </row>
+    <row r="199" spans="12:16" ht="15.75">
+      <c r="L199" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M199">
+        <v>19.137254899999999</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="70"/>
+        <v>2.6090034077655568</v>
+      </c>
+      <c r="P199">
+        <v>17.070938200000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="M186:P186"/>
+    <mergeCell ref="M194:P194"/>
     <mergeCell ref="M71:P71"/>
     <mergeCell ref="M52:P52"/>
     <mergeCell ref="M33:P33"/>
@@ -11205,7 +11343,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="20">
+  <tableParts count="21">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -11226,6 +11364,7 @@
     <tablePart r:id="rId18"/>
     <tablePart r:id="rId19"/>
     <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DF951D-FC1C-4BD7-AF0B-A0AE34D6D6CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26DDD19-37C7-408A-A23B-CE2E5A386E69}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
   <si>
     <t>re-do</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Results of Detailed Investigation across all projects</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -882,11 +885,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,19 +976,129 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="144">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -993,6 +1117,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3660,196 +3800,196 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table46" displayName="Table46" ref="A137:P154" totalsRowShown="0" headerRowBorderDxfId="138" tableBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table46" displayName="Table46" ref="A137:P154" totalsRowShown="0" headerRowBorderDxfId="142" tableBorderDxfId="143">
   <autoFilter ref="A137:P154" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Shay's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BBM Secure Comms" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BB web samples" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="All Algorithms" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DeepLearning" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ExoPlayer" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dex2Java Decompiler" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Net Cipher" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ReactiveExtensionsForJVM" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column3" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BBM Secure Comms" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BB web samples" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="All Algorithms" dataDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DeepLearning" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ExoPlayer" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dex2Java Decompiler" dataDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Net Cipher" dataDxfId="133"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ReactiveExtensionsForJVM" dataDxfId="132"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column3" dataDxfId="131"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Java9 ASTParser"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column4" dataDxfId="126"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="125"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column5" dataDxfId="124"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column4" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="129"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column5" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58169DB-DE6A-4097-BB3F-6E29EBE5E4CE}" name="Table2" displayName="Table2" ref="M168:P172" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="79" tableBorderDxfId="80" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58169DB-DE6A-4097-BB3F-6E29EBE5E4CE}" name="Table2" displayName="Table2" ref="M168:P172" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="83" tableBorderDxfId="84" totalsRowBorderDxfId="82">
   <autoFilter ref="M168:P172" xr:uid="{643EF349-F378-4476-861D-EB502F029625}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2F88BFBE-2BCE-4C4A-BF6C-804D0AB6C33D}" name="MAX" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{2F88BFBE-2BCE-4C4A-BF6C-804D0AB6C33D}" name="MAX" dataDxfId="81">
       <calculatedColumnFormula>MAX(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{957CED48-CAB2-4433-84D9-BD240400BA18}" name="MIN" dataDxfId="76">
+    <tableColumn id="2" xr3:uid="{957CED48-CAB2-4433-84D9-BD240400BA18}" name="MIN" dataDxfId="80">
       <calculatedColumnFormula>MIN(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E4EE599-1FFB-4E42-84BA-EA16793515DD}" name="MEDIAN" dataDxfId="75">
+    <tableColumn id="3" xr3:uid="{2E4EE599-1FFB-4E42-84BA-EA16793515DD}" name="MEDIAN" dataDxfId="79">
       <calculatedColumnFormula>MEDIAN(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F3D4A5F-CFD5-432D-A5E1-88F67A021E47}" name="OUTLIER" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{2F3D4A5F-CFD5-432D-A5E1-88F67A021E47}" name="OUTLIER" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D41C6232-F33C-4519-8651-5945885D4D09}" name="Table3" displayName="Table3" ref="R149:U153" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="71" tableBorderDxfId="72" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D41C6232-F33C-4519-8651-5945885D4D09}" name="Table3" displayName="Table3" ref="R149:U153" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="75" tableBorderDxfId="76" totalsRowBorderDxfId="74">
   <autoFilter ref="R149:U153" xr:uid="{F7FE1993-E430-415E-90F6-18D037458B38}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C318E04-5635-40B1-97BE-0E81731DAF67}" name="MAX" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{5C318E04-5635-40B1-97BE-0E81731DAF67}" name="MAX" dataDxfId="73">
       <calculatedColumnFormula>MAX(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{81E8AE5D-D4D9-4C11-ACE8-E1C1CBFC5CBB}" name="MIN" dataDxfId="68">
+    <tableColumn id="2" xr3:uid="{81E8AE5D-D4D9-4C11-ACE8-E1C1CBFC5CBB}" name="MIN" dataDxfId="72">
       <calculatedColumnFormula>MIN(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{07B572AF-AEDF-476D-90CA-FF6AE3BD4050}" name="MEDIAN" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{07B572AF-AEDF-476D-90CA-FF6AE3BD4050}" name="MEDIAN" dataDxfId="71">
       <calculatedColumnFormula>MEDIAN(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BC6D606D-23D5-4C2A-8D05-6A27A0D7C611}" name="OUTLIER" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{BC6D606D-23D5-4C2A-8D05-6A27A0D7C611}" name="OUTLIER" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD67CC6F-B454-42FF-BAAB-DF180AB8F1FE}" name="Table35" displayName="Table35" ref="M129:P133" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD67CC6F-B454-42FF-BAAB-DF180AB8F1FE}" name="Table35" displayName="Table35" ref="M129:P133" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
   <autoFilter ref="M129:P133" xr:uid="{31727AEE-EB67-47DF-97D6-B3036D2D0919}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{59FC5E6F-3BE8-42CB-9737-6D74C506DFCE}" name="MAX" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{59FC5E6F-3BE8-42CB-9737-6D74C506DFCE}" name="MAX" dataDxfId="65">
       <calculatedColumnFormula>MAX(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{54301EDD-72C7-4218-B7FA-A1B20F8639B9}" name="MIN" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{54301EDD-72C7-4218-B7FA-A1B20F8639B9}" name="MIN" dataDxfId="64">
       <calculatedColumnFormula>MIN(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AE843AC-4231-4690-A69D-6E42C2A5C15F}" name="MEDIAN" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{4AE843AC-4231-4690-A69D-6E42C2A5C15F}" name="MEDIAN" dataDxfId="63">
       <calculatedColumnFormula>MEDIAN(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3F5C3205-BCD8-4435-87FC-4DC3FC5526BF}" name="OUTLIER" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{3F5C3205-BCD8-4435-87FC-4DC3FC5526BF}" name="OUTLIER" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E89BBDFF-9BCE-41C9-A524-1C8E3D6B4E3A}" name="Table3515" displayName="Table3515" ref="M110:P114" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E89BBDFF-9BCE-41C9-A524-1C8E3D6B4E3A}" name="Table3515" displayName="Table3515" ref="M110:P114" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
   <autoFilter ref="M110:P114" xr:uid="{CD4F18DC-3DF0-4D94-8408-4AA1FE8FFA6C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F207E2EF-B246-45DD-8A6D-AD70A006F3D9}" name="MAX" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{F207E2EF-B246-45DD-8A6D-AD70A006F3D9}" name="MAX" dataDxfId="57">
       <calculatedColumnFormula>MAX(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C11F6B43-1EE2-42E0-9EA3-9DF4C1F96E46}" name="MIN" dataDxfId="52">
+    <tableColumn id="2" xr3:uid="{C11F6B43-1EE2-42E0-9EA3-9DF4C1F96E46}" name="MIN" dataDxfId="56">
       <calculatedColumnFormula>MIN(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{98D56CDE-CCEF-493F-9181-7436F54EFE2B}" name="MEDIAN" dataDxfId="51">
+    <tableColumn id="3" xr3:uid="{98D56CDE-CCEF-493F-9181-7436F54EFE2B}" name="MEDIAN" dataDxfId="55">
       <calculatedColumnFormula>MEDIAN(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5EB3EBF1-685F-4F48-B06E-FF03E7255773}" name="OUTLIER" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{5EB3EBF1-685F-4F48-B06E-FF03E7255773}" name="OUTLIER" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23920614-FDA3-4E4D-B401-21A03C68C443}" name="Table3516" displayName="Table3516" ref="M91:P95" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23920614-FDA3-4E4D-B401-21A03C68C443}" name="Table3516" displayName="Table3516" ref="M91:P95" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
   <autoFilter ref="M91:P95" xr:uid="{81A3871F-D47B-460F-8EC0-9148FA8AB78B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0026FF4C-8646-4907-928C-388F240EA8A8}" name="MAX" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{0026FF4C-8646-4907-928C-388F240EA8A8}" name="MAX" dataDxfId="49">
       <calculatedColumnFormula>MAX(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A10D139E-3EEE-4EE2-BFCB-596C17278338}" name="MIN" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{A10D139E-3EEE-4EE2-BFCB-596C17278338}" name="MIN" dataDxfId="48">
       <calculatedColumnFormula>MIN(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF9343AE-42F6-42D1-AB57-E614048687EB}" name="MEDIAN" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{EF9343AE-42F6-42D1-AB57-E614048687EB}" name="MEDIAN" dataDxfId="47">
       <calculatedColumnFormula>MEDIAN(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5FC9FFE9-4347-4E22-8EDB-ABFCCDCBB5A4}" name="OUTLIER" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{5FC9FFE9-4347-4E22-8EDB-ABFCCDCBB5A4}" name="OUTLIER" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AFE4B7-E0B0-4205-95AE-602AADF7F3A2}" name="Table35162" displayName="Table35162" ref="M72:P76" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AFE4B7-E0B0-4205-95AE-602AADF7F3A2}" name="Table35162" displayName="Table35162" ref="M72:P76" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
   <autoFilter ref="M72:P76" xr:uid="{3C82328A-A894-41F3-BCDC-160BE80C61FF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{979FB2E5-5872-45B0-8D83-5313ADB5273F}" name="MAX" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{979FB2E5-5872-45B0-8D83-5313ADB5273F}" name="MAX" dataDxfId="41">
       <calculatedColumnFormula>MAX(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{70F13572-BB09-4B3B-96A3-1C71C2839CB9}" name="MIN" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{70F13572-BB09-4B3B-96A3-1C71C2839CB9}" name="MIN" dataDxfId="40">
       <calculatedColumnFormula>MIN(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A59432C2-86B1-4456-9B70-4F7F90BA4E8B}" name="MEDIAN" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{A59432C2-86B1-4456-9B70-4F7F90BA4E8B}" name="MEDIAN" dataDxfId="39">
       <calculatedColumnFormula>MEDIAN(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C85B4A01-9347-4AD4-805F-F5DDC0408758}" name="OUTLIER" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{C85B4A01-9347-4AD4-805F-F5DDC0408758}" name="OUTLIER" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F33D2278-913D-4A97-82B5-44DAF92758D1}" name="Table351617" displayName="Table351617" ref="M53:P57" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F33D2278-913D-4A97-82B5-44DAF92758D1}" name="Table351617" displayName="Table351617" ref="M53:P57" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
   <autoFilter ref="M53:P57" xr:uid="{5AA1B32C-90CD-4CB6-ADA6-E71739CE7665}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16772894-3593-4F23-969F-161630B58AF3}" name="MAX" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{16772894-3593-4F23-969F-161630B58AF3}" name="MAX" dataDxfId="33">
       <calculatedColumnFormula>MAX(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6DAE6BC6-7174-4ED5-B67A-651F35E682BE}" name="MIN" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{6DAE6BC6-7174-4ED5-B67A-651F35E682BE}" name="MIN" dataDxfId="32">
       <calculatedColumnFormula>MIN(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B895D0E-1137-403E-8930-07CD754A233E}" name="MEDIAN" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{5B895D0E-1137-403E-8930-07CD754A233E}" name="MEDIAN" dataDxfId="31">
       <calculatedColumnFormula>MEDIAN(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75EA28D3-E734-426B-826B-36951BA13529}" name="OUTLIER" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{75EA28D3-E734-426B-826B-36951BA13529}" name="OUTLIER" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{42728BDE-87F5-41F5-A267-B8D17A6D0EB9}" name="Table351618" displayName="Table351618" ref="M34:P38" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{42728BDE-87F5-41F5-A267-B8D17A6D0EB9}" name="Table351618" displayName="Table351618" ref="M34:P38" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
   <autoFilter ref="M34:P38" xr:uid="{B889D6E5-DD1F-4F42-BC04-4B45B4693F9B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F3BB2797-5CE6-42C9-9F0F-7E7A57CEE4B4}" name="MAX" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{F3BB2797-5CE6-42C9-9F0F-7E7A57CEE4B4}" name="MAX" dataDxfId="25">
       <calculatedColumnFormula>MAX(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5BD3DF33-103F-4395-85DC-21F888FBF2DC}" name="MIN" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{5BD3DF33-103F-4395-85DC-21F888FBF2DC}" name="MIN" dataDxfId="24">
       <calculatedColumnFormula>MIN(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B130B4D-FCE8-454F-AFF4-6F934363C9F4}" name="MEDIAN" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{5B130B4D-FCE8-454F-AFF4-6F934363C9F4}" name="MEDIAN" dataDxfId="23">
       <calculatedColumnFormula>MEDIAN(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BF1A3C52-55FC-45CF-A141-48B2A0094A64}" name="OUTLIER" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BF1A3C52-55FC-45CF-A141-48B2A0094A64}" name="OUTLIER" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1A21DC82-9065-40E6-A435-4995E2233E78}" name="Table351620" displayName="Table351620" ref="M15:P19" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1A21DC82-9065-40E6-A435-4995E2233E78}" name="Table351620" displayName="Table351620" ref="M15:P19" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <autoFilter ref="M15:P19" xr:uid="{1FD67088-FF9C-475B-AA9A-EF71B702AB86}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D3D5462-A43D-4F3A-A49A-3AEA69575558}" name="MAX" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{2D3D5462-A43D-4F3A-A49A-3AEA69575558}" name="MAX" dataDxfId="17">
       <calculatedColumnFormula>MAX(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C21FA197-7971-4809-B648-BFC9865E5B57}" name="MIN" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{C21FA197-7971-4809-B648-BFC9865E5B57}" name="MIN" dataDxfId="16">
       <calculatedColumnFormula>MIN(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C41583C2-CA8E-40C4-A961-D9964A7C6090}" name="MEDIAN" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{C41583C2-CA8E-40C4-A961-D9964A7C6090}" name="MEDIAN" dataDxfId="15">
       <calculatedColumnFormula>MEDIAN(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81A30073-AD6D-428B-AF86-0C95A746B0CF}" name="OUTLIER" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{81A30073-AD6D-428B-AF86-0C95A746B0CF}" name="OUTLIER" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3876,74 +4016,77 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table57" displayName="Table57" ref="A118:K133" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="121" tableBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table57" displayName="Table57" ref="A118:K133" totalsRowShown="0" headerRowDxfId="127" headerRowBorderDxfId="125" tableBorderDxfId="126">
   <autoFilter ref="A118:K133" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dal's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="GriefPrevention" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EssentialsX" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EssentialsChat" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="WorldGuard" dataDxfId="117"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="WorldBorder" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PlotSquared" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ProtocolLib" dataDxfId="114"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SuperVanish" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ViaVersion" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="WorldEdit" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="GriefPrevention" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EssentialsX" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EssentialsChat" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="WorldGuard" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="WorldBorder" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PlotSquared" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ProtocolLib" dataDxfId="118"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SuperVanish" dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ViaVersion" dataDxfId="116"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="WorldEdit" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{937DC7FA-B885-4F2B-8601-8A9C7FA93035}" name="Table222" displayName="Table222" ref="M187:P191" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{937DC7FA-B885-4F2B-8601-8A9C7FA93035}" name="Table222" displayName="Table222" ref="M187:P191" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="M187:P191" xr:uid="{99C4CAE4-B99E-4343-B333-43A60F0E1782}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{766C641C-9FB1-4C6B-978B-806DF267ECB0}" name="MAX" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{766C641C-9FB1-4C6B-978B-806DF267ECB0}" name="MAX" dataDxfId="9">
       <calculatedColumnFormula>MAX(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{027B43CD-E48E-4BC3-BFC6-818B2C3C0BBB}" name="MIN" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{027B43CD-E48E-4BC3-BFC6-818B2C3C0BBB}" name="MIN" dataDxfId="8">
       <calculatedColumnFormula>MIN(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F47486C0-EE47-46B7-ABAC-F1671E3ECE26}" name="MEDIAN" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{F47486C0-EE47-46B7-ABAC-F1671E3ECE26}" name="MEDIAN" dataDxfId="7">
       <calculatedColumnFormula>MEDIAN(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CE5F51EB-7E70-4060-98D3-FABE8766370E}" name="OUTLIER" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CE5F51EB-7E70-4060-98D3-FABE8766370E}" name="OUTLIER" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B4EBBF4C-6887-4930-8837-12AB03A8EF2B}" name="Table22" displayName="Table22" ref="M195:P199" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="M195:P199" xr:uid="{2813AF42-4880-4411-8CDB-B649767665D9}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A703C675-2E3B-4ECB-9A48-F5C937D8E27F}" name="MAX"/>
-    <tableColumn id="2" xr3:uid="{A4565A26-98D3-4C00-9BE3-9BD87851E4E4}" name="MIN"/>
-    <tableColumn id="3" xr3:uid="{4D259BEE-143E-4ADB-AF9B-6CE0C673BF7D}" name="MEDIAN" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B4EBBF4C-6887-4930-8837-12AB03A8EF2B}" name="Table22" displayName="Table22" ref="M195:Q199" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="M195:Q199" xr:uid="{2813AF42-4880-4411-8CDB-B649767665D9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A703C675-2E3B-4ECB-9A48-F5C937D8E27F}" name="MAX" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A4565A26-98D3-4C00-9BE3-9BD87851E4E4}" name="MIN" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4D259BEE-143E-4ADB-AF9B-6CE0C673BF7D}" name="MEDIAN" dataDxfId="2">
       <calculatedColumnFormula>MEDIAN(O16, O35,O54,O73,O92,O111,O130,T150,O169,O188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3173E5D3-C27E-4C4F-AF44-4D8E0817B710}" name="OUTLIER"/>
+    <tableColumn id="4" xr3:uid="{3173E5D3-C27E-4C4F-AF44-4D8E0817B710}" name="OUTLIER" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B757222E-613A-4FE6-8E3B-A4127B80D360}" name="AVERAGE" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(B188:K188,B169:K169,B150:P150,B130:K130,B111:K111,B111:K111,B92:K92,B73:K73,B54:K54,B35:K35,B16:K16)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table68" displayName="Table68" ref="A99:K114" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="108" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table68" displayName="Table68" ref="A99:K114" totalsRowShown="0" headerRowDxfId="114" headerRowBorderDxfId="112" tableBorderDxfId="113">
   <autoFilter ref="A99:K114" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Josh's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="jMonkeyEngine" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="libGDX" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TEAMMATES" dataDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="JUnit 4" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Activiti" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Kore" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="MyCollab" dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="BioJava" dataDxfId="100"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Cryptomator" dataDxfId="99"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Java Google Maps" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="jMonkeyEngine" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="libGDX" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TEAMMATES" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="JUnit 4" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Activiti" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Kore" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="MyCollab" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="BioJava" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Cryptomator" dataDxfId="103"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Java Google Maps" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3970,7 +4113,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="101">
   <autoFilter ref="A4:K19" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Tony's Projects"/>
@@ -4030,11 +4173,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table767910" displayName="Table767910" ref="A61:K76" totalsRowShown="0" headerRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table767910" displayName="Table767910" ref="A61:K76" totalsRowShown="0" headerRowDxfId="100">
   <autoFilter ref="A61:K76" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Sim's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quartz Scheduler" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quartz Scheduler" dataDxfId="99"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Open EMRConect"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Wallet"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Secure Banking System"/>
@@ -4050,20 +4193,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="A158:K172" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="92" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="A158:K172" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="96" tableBorderDxfId="97">
   <autoFilter ref="A158:K172" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Robert’s Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Jpacman Framework" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="seventh" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Snake" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Java String Similarity" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="LeetCode Sol Res" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Game of Life in Java" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="EduMIPS64" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="ATM Simulator" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="RinSim" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Mathematics" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Jpacman Framework" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="seventh" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Snake" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Java String Similarity" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="LeetCode Sol Res" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Game of Life in Java" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="EduMIPS64" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="ATM Simulator" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="RinSim" dataDxfId="87"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Mathematics" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4332,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D191" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="O200" sqref="O200"/>
+    <sheetView tabSelected="1" topLeftCell="F174" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="Q196" sqref="Q196:Q199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -4349,8 +4492,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11235,102 +11377,124 @@
       </c>
       <c r="P191" s="46"/>
     </row>
-    <row r="193" spans="12:16" ht="15.75"/>
-    <row r="194" spans="12:16" ht="15.75">
-      <c r="M194" s="61" t="s">
+    <row r="193" spans="12:17" ht="15.75"/>
+    <row r="194" spans="12:17" ht="15.75">
+      <c r="M194" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="N194" s="61"/>
-      <c r="O194" s="61"/>
-      <c r="P194" s="61"/>
-    </row>
-    <row r="195" spans="12:16" ht="15.75">
-      <c r="M195" s="29" t="s">
+      <c r="N194" s="65"/>
+      <c r="O194" s="65"/>
+      <c r="P194" s="65"/>
+      <c r="Q194" s="66"/>
+    </row>
+    <row r="195" spans="12:17" ht="15.75">
+      <c r="M195" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="N195" s="29" t="s">
+      <c r="N195" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O195" s="29" t="s">
+      <c r="O195" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="P195" s="29" t="s">
+      <c r="P195" s="61" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="12:16" ht="15.75">
+      <c r="Q195" s="61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="196" spans="12:17" ht="15.75">
       <c r="L196" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="M196">
+      <c r="M196" s="38">
         <v>15.6862745</v>
       </c>
-      <c r="N196">
-        <v>0</v>
-      </c>
-      <c r="O196">
+      <c r="N196" s="38">
+        <v>0</v>
+      </c>
+      <c r="O196" s="38">
         <f t="shared" ref="O196:O199" si="70">MEDIAN(O16, O35,O54,O73,O92,O111,O130,T150,O169,O188)</f>
         <v>1.45232500167528</v>
       </c>
-      <c r="P196">
+      <c r="P196" s="38">
         <v>3.4347049999999997E-2</v>
       </c>
-    </row>
-    <row r="197" spans="12:16" ht="15.75">
+      <c r="Q196" s="38">
+        <f>AVERAGE(B188:K188,B169:K169,B150:P150,B130:K130,B111:K111,B111:K111,B92:K92,B73:K73,B54:K54,B35:K35,B16:K16)</f>
+        <v>2.2961292895796741</v>
+      </c>
+    </row>
+    <row r="197" spans="12:17" ht="15.75">
       <c r="L197" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M197">
+      <c r="M197" s="38">
         <v>13.3359936</v>
       </c>
-      <c r="N197">
-        <v>0</v>
-      </c>
-      <c r="O197">
+      <c r="N197" s="38">
+        <v>0</v>
+      </c>
+      <c r="O197" s="38">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="12:16" ht="15.75">
+      <c r="P197" s="38"/>
+      <c r="Q197" s="38">
+        <f t="shared" ref="Q197:Q199" si="71">AVERAGE(B189:K189,B170:K170,B151:P151,B131:K131,B112:K112,B112:K112,B93:K93,B74:K74,B55:K55,B36:K36,B17:K17)</f>
+        <v>0.83441732142533187</v>
+      </c>
+    </row>
+    <row r="198" spans="12:17" ht="15.75">
       <c r="L198" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="38">
         <v>14.2791762</v>
       </c>
-      <c r="N198">
-        <v>0</v>
-      </c>
-      <c r="O198">
+      <c r="N198" s="38">
+        <v>0</v>
+      </c>
+      <c r="O198" s="38">
         <f t="shared" si="70"/>
         <v>4.2688000364738549E-2</v>
       </c>
-      <c r="P198">
+      <c r="P198" s="38">
         <v>14.2791762</v>
       </c>
-    </row>
-    <row r="199" spans="12:16" ht="15.75">
-      <c r="L199" s="64" t="s">
+      <c r="Q198" s="38">
+        <f t="shared" si="71"/>
+        <v>1.1588949501015127</v>
+      </c>
+    </row>
+    <row r="199" spans="12:17" ht="15.75">
+      <c r="L199" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="38">
         <v>19.137254899999999</v>
       </c>
-      <c r="N199">
-        <v>0</v>
-      </c>
-      <c r="O199">
+      <c r="N199" s="38">
+        <v>0</v>
+      </c>
+      <c r="O199" s="38">
         <f t="shared" si="70"/>
         <v>2.6090034077655568</v>
       </c>
-      <c r="P199">
+      <c r="P199" s="38">
         <v>17.070938200000001</v>
       </c>
-    </row>
+      <c r="Q199" s="38">
+        <f t="shared" si="71"/>
+        <v>4.289441561106516</v>
+      </c>
+    </row>
+    <row r="200" spans="12:17" ht="15.75"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M186:P186"/>
-    <mergeCell ref="M194:P194"/>
+    <mergeCell ref="M194:Q194"/>
     <mergeCell ref="M71:P71"/>
     <mergeCell ref="M52:P52"/>
     <mergeCell ref="M33:P33"/>

--- a/COUNTforSENGupdated.xlsx
+++ b/COUNTforSENGupdated.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26DDD19-37C7-408A-A23B-CE2E5A386E69}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
-  <si>
-    <t>re-do</t>
-  </si>
-  <si>
-    <t>changed annot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <t>Tony's Projects</t>
   </si>
@@ -87,9 +80,6 @@
     <t>Marker Annotation</t>
   </si>
   <si>
-    <t>Import Declr</t>
-  </si>
-  <si>
     <t>Nested Annotation</t>
   </si>
   <si>
@@ -234,9 +224,6 @@
     <t>Annotation type Count</t>
   </si>
   <si>
-    <t>Import Declarations Count</t>
-  </si>
-  <si>
     <t>Amy's Projects</t>
   </si>
   <si>
@@ -487,13 +474,16 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Import Declarations NOT used for analysis, so not counted. We are interested in the Java TYPES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -780,52 +770,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -834,7 +824,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -842,10 +832,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -853,23 +843,23 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -889,10 +879,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,9 +952,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,11 +966,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,6 +973,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1114,7 +1104,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border>
@@ -1227,13 +1216,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1243,6 +1225,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1262,7 +1251,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border>
@@ -1316,7 +1304,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1354,7 +1341,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1392,7 +1378,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1423,13 +1408,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1439,6 +1417,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1458,7 +1443,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1513,7 +1497,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1551,7 +1534,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1589,7 +1571,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1620,13 +1601,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1636,6 +1610,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1655,7 +1636,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1710,7 +1690,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1748,7 +1727,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1786,7 +1764,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1817,13 +1794,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1833,6 +1803,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1852,7 +1829,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1907,7 +1883,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1945,7 +1920,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1983,7 +1957,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2014,13 +1987,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2030,6 +1996,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2049,7 +2022,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2104,7 +2076,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2142,7 +2113,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2180,7 +2150,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2211,13 +2180,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2227,6 +2189,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2246,7 +2215,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2301,7 +2269,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2339,7 +2306,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2377,7 +2343,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2408,13 +2373,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2424,6 +2382,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2443,7 +2408,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2498,7 +2462,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2536,7 +2499,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2574,7 +2536,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2605,13 +2566,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2621,6 +2575,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2640,7 +2601,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2695,7 +2655,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2733,7 +2692,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2771,7 +2729,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2802,13 +2759,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2818,6 +2768,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2837,7 +2794,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2951,13 +2907,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2967,6 +2916,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2986,7 +2942,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border>
@@ -3148,16 +3103,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -3357,16 +3312,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -3523,16 +3478,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -3771,19 +3726,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color auto="1"/>
         </right>
         <top style="medium">
           <color auto="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -3800,271 +3755,271 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table46" displayName="Table46" ref="A137:P154" totalsRowShown="0" headerRowBorderDxfId="142" tableBorderDxfId="143">
-  <autoFilter ref="A137:P154" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A137:P154" totalsRowShown="0" headerRowBorderDxfId="143" tableBorderDxfId="142">
+  <autoFilter ref="A137:P154"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Shay's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BBM Secure Comms" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BB web samples" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="All Algorithms" dataDxfId="139"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DeepLearning" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ExoPlayer" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dex2Java Decompiler" dataDxfId="134"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Net Cipher" dataDxfId="133"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ReactiveExtensionsForJVM" dataDxfId="132"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column3" dataDxfId="131"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Java9 ASTParser"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column4" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Replacement4SQLITE&amp;ORMs" dataDxfId="129"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column5" dataDxfId="128"/>
+    <tableColumn id="1" name="Shay's Projects"/>
+    <tableColumn id="2" name="BBM Secure Comms" dataDxfId="141"/>
+    <tableColumn id="3" name="BB web samples" dataDxfId="140"/>
+    <tableColumn id="4" name="All Algorithms" dataDxfId="139"/>
+    <tableColumn id="5" name="DeepLearning" dataDxfId="138"/>
+    <tableColumn id="6" name="Column1" dataDxfId="137"/>
+    <tableColumn id="7" name="ExoPlayer" dataDxfId="136"/>
+    <tableColumn id="8" name="Column2" dataDxfId="135"/>
+    <tableColumn id="9" name="Dex2Java Decompiler" dataDxfId="134"/>
+    <tableColumn id="10" name="Net Cipher" dataDxfId="133"/>
+    <tableColumn id="11" name="ReactiveExtensionsForJVM" dataDxfId="132"/>
+    <tableColumn id="12" name="Column3" dataDxfId="131"/>
+    <tableColumn id="13" name="Java9 ASTParser"/>
+    <tableColumn id="14" name="Column4" dataDxfId="130"/>
+    <tableColumn id="15" name="Replacement4SQLITE&amp;ORMs" dataDxfId="129"/>
+    <tableColumn id="16" name="Column5" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58169DB-DE6A-4097-BB3F-6E29EBE5E4CE}" name="Table2" displayName="Table2" ref="M168:P172" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="83" tableBorderDxfId="84" totalsRowBorderDxfId="82">
-  <autoFilter ref="M168:P172" xr:uid="{643EF349-F378-4476-861D-EB502F029625}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M168:P172" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+  <autoFilter ref="M168:P172"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2F88BFBE-2BCE-4C4A-BF6C-804D0AB6C33D}" name="MAX" dataDxfId="81">
+    <tableColumn id="1" name="MAX" dataDxfId="81">
       <calculatedColumnFormula>MAX(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{957CED48-CAB2-4433-84D9-BD240400BA18}" name="MIN" dataDxfId="80">
+    <tableColumn id="2" name="MIN" dataDxfId="80">
       <calculatedColumnFormula>MIN(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E4EE599-1FFB-4E42-84BA-EA16793515DD}" name="MEDIAN" dataDxfId="79">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="79">
       <calculatedColumnFormula>MEDIAN(B169:K169)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F3D4A5F-CFD5-432D-A5E1-88F67A021E47}" name="OUTLIER" dataDxfId="78"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D41C6232-F33C-4519-8651-5945885D4D09}" name="Table3" displayName="Table3" ref="R149:U153" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="75" tableBorderDxfId="76" totalsRowBorderDxfId="74">
-  <autoFilter ref="R149:U153" xr:uid="{F7FE1993-E430-415E-90F6-18D037458B38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="R149:U153" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="R149:U153"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C318E04-5635-40B1-97BE-0E81731DAF67}" name="MAX" dataDxfId="73">
+    <tableColumn id="1" name="MAX" dataDxfId="73">
       <calculatedColumnFormula>MAX(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{81E8AE5D-D4D9-4C11-ACE8-E1C1CBFC5CBB}" name="MIN" dataDxfId="72">
+    <tableColumn id="2" name="MIN" dataDxfId="72">
       <calculatedColumnFormula>MIN(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{07B572AF-AEDF-476D-90CA-FF6AE3BD4050}" name="MEDIAN" dataDxfId="71">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="71">
       <calculatedColumnFormula>MEDIAN(B150:P150)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BC6D606D-23D5-4C2A-8D05-6A27A0D7C611}" name="OUTLIER" dataDxfId="70"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD67CC6F-B454-42FF-BAAB-DF180AB8F1FE}" name="Table35" displayName="Table35" ref="M129:P133" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
-  <autoFilter ref="M129:P133" xr:uid="{31727AEE-EB67-47DF-97D6-B3036D2D0919}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="M129:P133" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+  <autoFilter ref="M129:P133"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{59FC5E6F-3BE8-42CB-9737-6D74C506DFCE}" name="MAX" dataDxfId="65">
+    <tableColumn id="1" name="MAX" dataDxfId="65">
       <calculatedColumnFormula>MAX(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{54301EDD-72C7-4218-B7FA-A1B20F8639B9}" name="MIN" dataDxfId="64">
+    <tableColumn id="2" name="MIN" dataDxfId="64">
       <calculatedColumnFormula>MIN(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AE843AC-4231-4690-A69D-6E42C2A5C15F}" name="MEDIAN" dataDxfId="63">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="63">
       <calculatedColumnFormula>MEDIAN(B130:K130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3F5C3205-BCD8-4435-87FC-4DC3FC5526BF}" name="OUTLIER" dataDxfId="62"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E89BBDFF-9BCE-41C9-A524-1C8E3D6B4E3A}" name="Table3515" displayName="Table3515" ref="M110:P114" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
-  <autoFilter ref="M110:P114" xr:uid="{CD4F18DC-3DF0-4D94-8408-4AA1FE8FFA6C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table3515" displayName="Table3515" ref="M110:P114" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+  <autoFilter ref="M110:P114"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F207E2EF-B246-45DD-8A6D-AD70A006F3D9}" name="MAX" dataDxfId="57">
+    <tableColumn id="1" name="MAX" dataDxfId="57">
       <calculatedColumnFormula>MAX(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C11F6B43-1EE2-42E0-9EA3-9DF4C1F96E46}" name="MIN" dataDxfId="56">
+    <tableColumn id="2" name="MIN" dataDxfId="56">
       <calculatedColumnFormula>MIN(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{98D56CDE-CCEF-493F-9181-7436F54EFE2B}" name="MEDIAN" dataDxfId="55">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="55">
       <calculatedColumnFormula>MEDIAN(B111:K111)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5EB3EBF1-685F-4F48-B06E-FF03E7255773}" name="OUTLIER" dataDxfId="54"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23920614-FDA3-4E4D-B401-21A03C68C443}" name="Table3516" displayName="Table3516" ref="M91:P95" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
-  <autoFilter ref="M91:P95" xr:uid="{81A3871F-D47B-460F-8EC0-9148FA8AB78B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table3516" displayName="Table3516" ref="M91:P95" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+  <autoFilter ref="M91:P95"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0026FF4C-8646-4907-928C-388F240EA8A8}" name="MAX" dataDxfId="49">
+    <tableColumn id="1" name="MAX" dataDxfId="49">
       <calculatedColumnFormula>MAX(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A10D139E-3EEE-4EE2-BFCB-596C17278338}" name="MIN" dataDxfId="48">
+    <tableColumn id="2" name="MIN" dataDxfId="48">
       <calculatedColumnFormula>MIN(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF9343AE-42F6-42D1-AB57-E614048687EB}" name="MEDIAN" dataDxfId="47">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="47">
       <calculatedColumnFormula>MEDIAN(B92:K92)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5FC9FFE9-4347-4E22-8EDB-ABFCCDCBB5A4}" name="OUTLIER" dataDxfId="46"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AFE4B7-E0B0-4205-95AE-602AADF7F3A2}" name="Table35162" displayName="Table35162" ref="M72:P76" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
-  <autoFilter ref="M72:P76" xr:uid="{3C82328A-A894-41F3-BCDC-160BE80C61FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table35162" displayName="Table35162" ref="M72:P76" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="M72:P76"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{979FB2E5-5872-45B0-8D83-5313ADB5273F}" name="MAX" dataDxfId="41">
+    <tableColumn id="1" name="MAX" dataDxfId="41">
       <calculatedColumnFormula>MAX(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{70F13572-BB09-4B3B-96A3-1C71C2839CB9}" name="MIN" dataDxfId="40">
+    <tableColumn id="2" name="MIN" dataDxfId="40">
       <calculatedColumnFormula>MIN(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A59432C2-86B1-4456-9B70-4F7F90BA4E8B}" name="MEDIAN" dataDxfId="39">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="39">
       <calculatedColumnFormula>MEDIAN(B73:K73)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C85B4A01-9347-4AD4-805F-F5DDC0408758}" name="OUTLIER" dataDxfId="38"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F33D2278-913D-4A97-82B5-44DAF92758D1}" name="Table351617" displayName="Table351617" ref="M53:P57" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
-  <autoFilter ref="M53:P57" xr:uid="{5AA1B32C-90CD-4CB6-ADA6-E71739CE7665}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table351617" displayName="Table351617" ref="M53:P57" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="M53:P57"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16772894-3593-4F23-969F-161630B58AF3}" name="MAX" dataDxfId="33">
+    <tableColumn id="1" name="MAX" dataDxfId="33">
       <calculatedColumnFormula>MAX(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6DAE6BC6-7174-4ED5-B67A-651F35E682BE}" name="MIN" dataDxfId="32">
+    <tableColumn id="2" name="MIN" dataDxfId="32">
       <calculatedColumnFormula>MIN(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B895D0E-1137-403E-8930-07CD754A233E}" name="MEDIAN" dataDxfId="31">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="31">
       <calculatedColumnFormula>MEDIAN(B54:K54)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75EA28D3-E734-426B-826B-36951BA13529}" name="OUTLIER" dataDxfId="30"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{42728BDE-87F5-41F5-A267-B8D17A6D0EB9}" name="Table351618" displayName="Table351618" ref="M34:P38" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
-  <autoFilter ref="M34:P38" xr:uid="{B889D6E5-DD1F-4F42-BC04-4B45B4693F9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table351618" displayName="Table351618" ref="M34:P38" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="M34:P38"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F3BB2797-5CE6-42C9-9F0F-7E7A57CEE4B4}" name="MAX" dataDxfId="25">
+    <tableColumn id="1" name="MAX" dataDxfId="25">
       <calculatedColumnFormula>MAX(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5BD3DF33-103F-4395-85DC-21F888FBF2DC}" name="MIN" dataDxfId="24">
+    <tableColumn id="2" name="MIN" dataDxfId="24">
       <calculatedColumnFormula>MIN(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B130B4D-FCE8-454F-AFF4-6F934363C9F4}" name="MEDIAN" dataDxfId="23">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="23">
       <calculatedColumnFormula>MEDIAN(B35:K35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BF1A3C52-55FC-45CF-A141-48B2A0094A64}" name="OUTLIER" dataDxfId="22"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1A21DC82-9065-40E6-A435-4995E2233E78}" name="Table351620" displayName="Table351620" ref="M15:P19" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
-  <autoFilter ref="M15:P19" xr:uid="{1FD67088-FF9C-475B-AA9A-EF71B702AB86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table351620" displayName="Table351620" ref="M15:P19" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="M15:P19"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D3D5462-A43D-4F3A-A49A-3AEA69575558}" name="MAX" dataDxfId="17">
+    <tableColumn id="1" name="MAX" dataDxfId="17">
       <calculatedColumnFormula>MAX(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C21FA197-7971-4809-B648-BFC9865E5B57}" name="MIN" dataDxfId="16">
+    <tableColumn id="2" name="MIN" dataDxfId="16">
       <calculatedColumnFormula>MIN(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C41583C2-CA8E-40C4-A961-D9964A7C6090}" name="MEDIAN" dataDxfId="15">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="15">
       <calculatedColumnFormula>MEDIAN(B16:K16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81A30073-AD6D-428B-AF86-0C95A746B0CF}" name="OUTLIER" dataDxfId="14"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{08C86BB0-1F61-471E-BF2A-989001F44AFA}" name="Table20" displayName="Table20" ref="A176:K191" totalsRowShown="0">
-  <autoFilter ref="A176:K191" xr:uid="{17EF61F2-7C7D-43B8-ABEC-73DF4DB3EF6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A176:K191" totalsRowShown="0">
+  <autoFilter ref="A176:K191"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7BD7AB6B-11D0-452B-9901-A54D03F1638A}" name="Jin's Projects"/>
-    <tableColumn id="2" xr3:uid="{82D0D090-D5BD-4B9A-8EC2-1792B624993A}" name="cSploit"/>
-    <tableColumn id="3" xr3:uid="{CC122103-1887-4D63-A17A-8024AD953D65}" name="SecurityShepherd"/>
-    <tableColumn id="4" xr3:uid="{5CF60244-0974-4A4B-A351-5D1046D39019}" name="Zuul"/>
-    <tableColumn id="5" xr3:uid="{A9A7D68A-5ADF-4FC2-BF0A-5A08195615F5}" name="SearchGuard"/>
-    <tableColumn id="6" xr3:uid="{E4E3543C-5354-4CC8-A1AF-27D151604492}" name="Pac4j"/>
-    <tableColumn id="7" xr3:uid="{3B3A8455-703A-423F-9E83-2F795F69EE2E}" name="Hive2Hive"/>
-    <tableColumn id="8" xr3:uid="{98C1F772-B122-411E-AF62-0290E80C3965}" name="Shuttle Music Player"/>
-    <tableColumn id="9" xr3:uid="{08F8C364-CCAE-416F-98E1-789165EBAA30}" name="Stylish Music Player"/>
-    <tableColumn id="10" xr3:uid="{9808EF10-1B3C-4EF4-8C51-E420EECC043B}" name="WhorlWind"/>
-    <tableColumn id="11" xr3:uid="{104175CC-3AD2-48C5-87A4-2FB23F3F2EA8}" name="Cryptopmater"/>
+    <tableColumn id="1" name="Jin's Projects"/>
+    <tableColumn id="2" name="cSploit"/>
+    <tableColumn id="3" name="SecurityShepherd"/>
+    <tableColumn id="4" name="Zuul"/>
+    <tableColumn id="5" name="SearchGuard"/>
+    <tableColumn id="6" name="Pac4j"/>
+    <tableColumn id="7" name="Hive2Hive"/>
+    <tableColumn id="8" name="Shuttle Music Player"/>
+    <tableColumn id="9" name="Stylish Music Player"/>
+    <tableColumn id="10" name="WhorlWind"/>
+    <tableColumn id="11" name="Cryptopmater"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table57" displayName="Table57" ref="A118:K133" totalsRowShown="0" headerRowDxfId="127" headerRowBorderDxfId="125" tableBorderDxfId="126">
-  <autoFilter ref="A118:K133" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table57" displayName="Table57" ref="A118:K133" totalsRowShown="0" headerRowDxfId="127" headerRowBorderDxfId="126" tableBorderDxfId="125">
+  <autoFilter ref="A118:K133"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dal's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="GriefPrevention" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EssentialsX" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EssentialsChat" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="WorldGuard" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="WorldBorder" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PlotSquared" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ProtocolLib" dataDxfId="118"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SuperVanish" dataDxfId="117"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ViaVersion" dataDxfId="116"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="WorldEdit" dataDxfId="115"/>
+    <tableColumn id="1" name="Dal's Projects"/>
+    <tableColumn id="2" name="GriefPrevention" dataDxfId="124"/>
+    <tableColumn id="4" name="EssentialsX" dataDxfId="123"/>
+    <tableColumn id="5" name="EssentialsChat" dataDxfId="122"/>
+    <tableColumn id="6" name="WorldGuard" dataDxfId="121"/>
+    <tableColumn id="7" name="WorldBorder" dataDxfId="120"/>
+    <tableColumn id="8" name="PlotSquared" dataDxfId="119"/>
+    <tableColumn id="9" name="ProtocolLib" dataDxfId="118"/>
+    <tableColumn id="10" name="SuperVanish" dataDxfId="117"/>
+    <tableColumn id="11" name="ViaVersion" dataDxfId="116"/>
+    <tableColumn id="12" name="WorldEdit" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{937DC7FA-B885-4F2B-8601-8A9C7FA93035}" name="Table222" displayName="Table222" ref="M187:P191" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="M187:P191" xr:uid="{99C4CAE4-B99E-4343-B333-43A60F0E1782}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table222" displayName="Table222" ref="M187:P191" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="M187:P191"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{766C641C-9FB1-4C6B-978B-806DF267ECB0}" name="MAX" dataDxfId="9">
+    <tableColumn id="1" name="MAX" dataDxfId="9">
       <calculatedColumnFormula>MAX(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{027B43CD-E48E-4BC3-BFC6-818B2C3C0BBB}" name="MIN" dataDxfId="8">
+    <tableColumn id="2" name="MIN" dataDxfId="8">
       <calculatedColumnFormula>MIN(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F47486C0-EE47-46B7-ABAC-F1671E3ECE26}" name="MEDIAN" dataDxfId="7">
+    <tableColumn id="3" name="MEDIAN" dataDxfId="7">
       <calculatedColumnFormula>MEDIAN(B188:K188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CE5F51EB-7E70-4060-98D3-FABE8766370E}" name="OUTLIER" dataDxfId="6"/>
+    <tableColumn id="4" name="OUTLIER" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B4EBBF4C-6887-4930-8837-12AB03A8EF2B}" name="Table22" displayName="Table22" ref="M195:Q199" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="M195:Q199" xr:uid="{2813AF42-4880-4411-8CDB-B649767665D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="M195:Q199" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="M195:Q199"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A703C675-2E3B-4ECB-9A48-F5C937D8E27F}" name="MAX" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A4565A26-98D3-4C00-9BE3-9BD87851E4E4}" name="MIN" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4D259BEE-143E-4ADB-AF9B-6CE0C673BF7D}" name="MEDIAN" dataDxfId="2">
+    <tableColumn id="1" name="MAX" dataDxfId="4"/>
+    <tableColumn id="2" name="MIN" dataDxfId="3"/>
+    <tableColumn id="3" name="MEDIAN" dataDxfId="2">
       <calculatedColumnFormula>MEDIAN(O16, O35,O54,O73,O92,O111,O130,T150,O169,O188)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3173E5D3-C27E-4C4F-AF44-4D8E0817B710}" name="OUTLIER" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B757222E-613A-4FE6-8E3B-A4127B80D360}" name="AVERAGE" dataDxfId="0">
+    <tableColumn id="4" name="OUTLIER" dataDxfId="1"/>
+    <tableColumn id="5" name="AVERAGE" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(B188:K188,B169:K169,B150:P150,B130:K130,B111:K111,B111:K111,B92:K92,B73:K73,B54:K54,B35:K35,B16:K16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4073,140 +4028,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table68" displayName="Table68" ref="A99:K114" totalsRowShown="0" headerRowDxfId="114" headerRowBorderDxfId="112" tableBorderDxfId="113">
-  <autoFilter ref="A99:K114" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table68" displayName="Table68" ref="A99:K114" totalsRowShown="0" headerRowDxfId="114" headerRowBorderDxfId="113" tableBorderDxfId="112">
+  <autoFilter ref="A99:K114"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Josh's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="jMonkeyEngine" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="libGDX" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TEAMMATES" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="JUnit 4" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Activiti" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Kore" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="MyCollab" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="BioJava" dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Cryptomator" dataDxfId="103"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Java Google Maps" dataDxfId="102"/>
+    <tableColumn id="1" name="Josh's Projects"/>
+    <tableColumn id="2" name="jMonkeyEngine" dataDxfId="111"/>
+    <tableColumn id="4" name="libGDX" dataDxfId="110"/>
+    <tableColumn id="5" name="TEAMMATES" dataDxfId="109"/>
+    <tableColumn id="6" name="JUnit 4" dataDxfId="108"/>
+    <tableColumn id="7" name="Activiti" dataDxfId="107"/>
+    <tableColumn id="8" name="Kore" dataDxfId="106"/>
+    <tableColumn id="9" name="MyCollab" dataDxfId="105"/>
+    <tableColumn id="10" name="BioJava" dataDxfId="104"/>
+    <tableColumn id="11" name="Cryptomator" dataDxfId="103"/>
+    <tableColumn id="12" name="Java Google Maps" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table79" displayName="Table79" ref="A80:K95" totalsRowShown="0">
-  <autoFilter ref="A80:K95" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table79" displayName="Table79" ref="A80:K95" totalsRowShown="0">
+  <autoFilter ref="A80:K95"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Amy's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shimmer"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Applozic"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ribot"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="PocketHub"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ownCloud"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Slide"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="OpenLauncher"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Activity Tracking/Location Sharing App"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Note App"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Plaid App"/>
+    <tableColumn id="1" name="Amy's Projects"/>
+    <tableColumn id="2" name="Shimmer"/>
+    <tableColumn id="4" name="Applozic"/>
+    <tableColumn id="5" name="Ribot"/>
+    <tableColumn id="6" name="PocketHub"/>
+    <tableColumn id="7" name="ownCloud"/>
+    <tableColumn id="8" name="Slide"/>
+    <tableColumn id="9" name="OpenLauncher"/>
+    <tableColumn id="10" name="Activity Tracking/Location Sharing App"/>
+    <tableColumn id="11" name="Note App"/>
+    <tableColumn id="12" name="Plaid App"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="101">
-  <autoFilter ref="A4:K19" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table76" displayName="Table76" ref="A4:K19" totalsRowShown="0" headerRowDxfId="101">
+  <autoFilter ref="A4:K19"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Tony's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hadoop BAM (genomics)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Chemistry DK."/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Jannovar for VCF"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Varsim"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Cancer Registry cgritt"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="openCGA"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="intermine"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Caleydo"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="IGV"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Irida-dev"/>
+    <tableColumn id="1" name="Tony's Projects"/>
+    <tableColumn id="2" name="Hadoop BAM (genomics)"/>
+    <tableColumn id="4" name="Chemistry DK."/>
+    <tableColumn id="5" name="Jannovar for VCF"/>
+    <tableColumn id="6" name="Varsim"/>
+    <tableColumn id="7" name="Cancer Registry cgritt"/>
+    <tableColumn id="8" name="openCGA"/>
+    <tableColumn id="9" name="intermine"/>
+    <tableColumn id="10" name="Caleydo"/>
+    <tableColumn id="11" name="IGV"/>
+    <tableColumn id="12" name="Irida-dev"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table767" displayName="Table767" ref="A23:K38" totalsRowShown="0">
-  <autoFilter ref="A23:K38" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table767" displayName="Table767" ref="A23:K38" totalsRowShown="0">
+  <autoFilter ref="A23:K38"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Wilfredo's Projects "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Dungeon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Game Engine"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Magarena"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Xmage"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Martian Run"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Mindustry"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="PretendYoureXyzzy"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Seventh"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Stendhal"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Terasology"/>
+    <tableColumn id="1" name="Wilfredo's Projects "/>
+    <tableColumn id="2" name="Dungeon"/>
+    <tableColumn id="4" name="Game Engine"/>
+    <tableColumn id="5" name="Magarena"/>
+    <tableColumn id="6" name="Xmage"/>
+    <tableColumn id="7" name="Martian Run"/>
+    <tableColumn id="8" name="Mindustry"/>
+    <tableColumn id="9" name="PretendYoureXyzzy"/>
+    <tableColumn id="10" name="Seventh"/>
+    <tableColumn id="11" name="Stendhal"/>
+    <tableColumn id="12" name="Terasology"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7679" displayName="Table7679" ref="A42:K57" totalsRowShown="0">
-  <autoFilter ref="A42:K57" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table7679" displayName="Table7679" ref="A42:K57" totalsRowShown="0">
+  <autoFilter ref="A42:K57"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Logan's Projects "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Crawler4j"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Incibator Dubbo"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="KillBill"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Open Refine"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Stage Monitor"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Graph Hopper"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="h20.io"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Omni Notes"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="pinpoint"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="openFire"/>
+    <tableColumn id="1" name="Logan's Projects "/>
+    <tableColumn id="2" name="Crawler4j"/>
+    <tableColumn id="4" name="Incibator Dubbo"/>
+    <tableColumn id="5" name="KillBill"/>
+    <tableColumn id="6" name="Open Refine"/>
+    <tableColumn id="7" name="Stage Monitor"/>
+    <tableColumn id="8" name="Graph Hopper"/>
+    <tableColumn id="9" name="h20.io"/>
+    <tableColumn id="10" name="Omni Notes"/>
+    <tableColumn id="11" name="pinpoint"/>
+    <tableColumn id="12" name="openFire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table767910" displayName="Table767910" ref="A61:K76" totalsRowShown="0" headerRowDxfId="100">
-  <autoFilter ref="A61:K76" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table767910" displayName="Table767910" ref="A61:K76" totalsRowShown="0" headerRowDxfId="100">
+  <autoFilter ref="A61:K76"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Sim's Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quartz Scheduler" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Open EMRConect"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Wallet"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Secure Banking System"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Calendar System"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Time4J"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Voj "/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Core Flight Systm(CFS) and data Dictionary(CCDD) Utility"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Dert"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Hyper realistic zombie"/>
+    <tableColumn id="1" name="Sim's Projects"/>
+    <tableColumn id="2" name="Quartz Scheduler" dataDxfId="99"/>
+    <tableColumn id="4" name="Open EMRConect"/>
+    <tableColumn id="5" name="Wallet"/>
+    <tableColumn id="6" name="Secure Banking System"/>
+    <tableColumn id="7" name="Calendar System"/>
+    <tableColumn id="8" name="Time4J"/>
+    <tableColumn id="9" name="Voj "/>
+    <tableColumn id="10" name="Core Flight Systm(CFS) and data Dictionary(CCDD) Utility"/>
+    <tableColumn id="11" name="Dert"/>
+    <tableColumn id="12" name="Hyper realistic zombie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="A158:K172" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="96" tableBorderDxfId="97">
-  <autoFilter ref="A158:K172" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511" displayName="Table511" ref="A158:K172" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
+  <autoFilter ref="A158:K172"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Robert’s Projects"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Jpacman Framework" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="seventh" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Snake" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Java String Similarity" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="LeetCode Sol Res" dataDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Game of Life in Java" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="EduMIPS64" dataDxfId="89"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="ATM Simulator" dataDxfId="88"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="RinSim" dataDxfId="87"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Mathematics" dataDxfId="86"/>
+    <tableColumn id="1" name="Robert’s Projects"/>
+    <tableColumn id="2" name="Jpacman Framework" dataDxfId="95"/>
+    <tableColumn id="4" name="seventh" dataDxfId="94"/>
+    <tableColumn id="5" name="Snake" dataDxfId="93"/>
+    <tableColumn id="6" name="Java String Similarity" dataDxfId="92"/>
+    <tableColumn id="7" name="LeetCode Sol Res" dataDxfId="91"/>
+    <tableColumn id="8" name="Game of Life in Java" dataDxfId="90"/>
+    <tableColumn id="9" name="EduMIPS64" dataDxfId="89"/>
+    <tableColumn id="10" name="ATM Simulator" dataDxfId="88"/>
+    <tableColumn id="11" name="RinSim" dataDxfId="87"/>
+    <tableColumn id="12" name="Mathematics" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4474,36 +4429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F174" zoomScale="58" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="Q196" sqref="Q196:Q199"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4516,7 +4463,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4529,45 +4476,48 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4601,9 +4551,9 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -4640,9 +4590,9 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4679,9 +4629,9 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -4715,9 +4665,9 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>67</v>
@@ -4751,9 +4701,9 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>47</v>
@@ -4787,10 +4737,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>0</v>
       </c>
@@ -4827,9 +4774,9 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -4867,9 +4814,9 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -4907,9 +4854,9 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -4944,33 +4891,33 @@
         <v>8</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
-      <c r="A15" t="s">
+      <c r="O15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="P15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="48" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" t="s">
-        <v>29</v>
       </c>
       <c r="B16">
         <f>B5/SUM(B5:B14)*100</f>
@@ -5026,9 +4973,9 @@
       </c>
       <c r="P16" s="53"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <f>B7/SUM(B5:B14)*100</f>
@@ -5084,9 +5031,9 @@
       </c>
       <c r="P17" s="45"/>
     </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1">
+    <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <f>B6/SUM(B5:B14)*100</f>
@@ -5142,9 +5089,9 @@
       </c>
       <c r="P18" s="45"/>
     </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1">
+    <row r="19" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <f>SUM(B16:B18)</f>
@@ -5200,62 +5147,62 @@
       </c>
       <c r="P19" s="46"/>
     </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1">
+    <row r="20" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20" s="54"/>
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
       <c r="P20" s="23"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>37</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>39</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>40</v>
-      </c>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" t="s">
-        <v>43</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -5290,9 +5237,9 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5327,9 +5274,9 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -5364,9 +5311,9 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>301</v>
@@ -5401,9 +5348,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>726</v>
@@ -5438,125 +5385,122 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="s">
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
+      <c r="M33" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="41" t="s">
+      <c r="P34" s="52" t="s">
         <v>25</v>
-      </c>
-      <c r="N34" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" s="52" t="s">
-        <v>28</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <f>B24/SUM(B24:B33)*100</f>
@@ -5612,9 +5556,9 @@
       </c>
       <c r="P35" s="53"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <f>B26/SUM(B24:B33)*100</f>
@@ -5670,9 +5614,9 @@
       </c>
       <c r="P36" s="45"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <f>B25/SUM(B24:B33)*100</f>
@@ -5728,9 +5672,9 @@
       </c>
       <c r="P37" s="45"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <f>SUM(B35:B37)</f>
@@ -5786,56 +5730,56 @@
       </c>
       <c r="P38" s="46"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M39" s="54"/>
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
       <c r="P39" s="23"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M40" s="54"/>
       <c r="N40" s="54"/>
       <c r="O40" s="54"/>
       <c r="P40" s="23"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="E42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>47</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>48</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>49</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>50</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>51</v>
       </c>
-      <c r="I42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -5868,9 +5812,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5903,9 +5847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5938,9 +5882,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>71</v>
@@ -5973,9 +5917,9 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>256</v>
@@ -6008,9 +5952,9 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -6043,10 +5987,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -6078,9 +6019,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6113,9 +6054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6148,9 +6089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6182,33 +6123,33 @@
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="M52" s="55" t="s">
+      <c r="M52" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75">
-      <c r="A53" t="s">
+      <c r="O53" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="41" t="s">
+      <c r="P53" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="48" t="s">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>26</v>
-      </c>
-      <c r="O53" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75">
-      <c r="A54" t="s">
-        <v>29</v>
       </c>
       <c r="B54">
         <f>B43/SUM(B43:B52)</f>
@@ -6264,9 +6205,9 @@
       </c>
       <c r="P54" s="53"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <f>B45/SUM(B43:B52)*100</f>
@@ -6322,9 +6263,9 @@
       </c>
       <c r="P55" s="45"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <f>B44/SUM(B43:B52)*100</f>
@@ -6380,9 +6321,9 @@
       </c>
       <c r="P56" s="45"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <f>SUM(B54:B56)</f>
@@ -6438,57 +6379,57 @@
       </c>
       <c r="P57" s="46"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M58" s="54"/>
       <c r="N58" s="54"/>
       <c r="O58" s="54"/>
       <c r="P58" s="23"/>
     </row>
-    <row r="59" spans="1:16" ht="15.75">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M59" s="54"/>
       <c r="N59" s="54"/>
       <c r="O59" s="54"/>
       <c r="P59" s="23"/>
     </row>
-    <row r="61" spans="1:16" ht="80.099999999999994">
+    <row r="61" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="G61" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62" s="5">
         <v>71</v>
@@ -6521,9 +6462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -6556,9 +6497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
@@ -6591,9 +6532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5">
         <v>459</v>
@@ -6626,9 +6567,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" s="5">
         <v>1181</v>
@@ -6661,9 +6602,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B67" s="5">
         <v>517</v>
@@ -6696,10 +6637,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="5" t="s">
-        <v>68</v>
-      </c>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
       <c r="B68" s="5">
         <v>0</v>
       </c>
@@ -6731,51 +6670,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="M71" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75">
-      <c r="A70" t="s">
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>21</v>
-      </c>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="M71" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75">
-      <c r="A72" t="s">
-        <v>24</v>
       </c>
       <c r="B72" s="5"/>
       <c r="M72" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="48" t="s">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>26</v>
-      </c>
-      <c r="O72" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P72" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="15.75">
-      <c r="A73" t="s">
-        <v>29</v>
       </c>
       <c r="B73" s="5">
         <f>B62/SUM(B62:B71)*100</f>
@@ -6832,9 +6771,9 @@
       </c>
       <c r="P73" s="53"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B74" s="5">
         <f>B64/SUM(B62:B71)*100</f>
@@ -6891,9 +6830,9 @@
       </c>
       <c r="P74" s="45"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B75">
         <f>B63/SUM(B62:B71)*100</f>
@@ -6949,9 +6888,9 @@
       </c>
       <c r="P75" s="45"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B76">
         <f>SUM(B73:B75)</f>
@@ -7007,54 +6946,54 @@
       </c>
       <c r="P76" s="46"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="F80" t="s">
         <v>70</v>
       </c>
-      <c r="C80" t="s">
+      <c r="G80" t="s">
         <v>71</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
         <v>72</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>73</v>
       </c>
-      <c r="F80" t="s">
+      <c r="J80" t="s">
         <v>74</v>
       </c>
-      <c r="G80" t="s">
+      <c r="K80" t="s">
         <v>75</v>
       </c>
-      <c r="H80" t="s">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7087,9 +7026,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -7122,9 +7061,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7157,9 +7096,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -7192,9 +7131,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>71</v>
@@ -7227,9 +7166,9 @@
         <v>896</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B86">
         <v>11</v>
@@ -7262,10 +7201,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
-      <c r="A87" t="s">
-        <v>19</v>
-      </c>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -7297,9 +7233,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -7332,9 +7268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -7367,9 +7303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15.75">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -7401,33 +7337,33 @@
       <c r="K90">
         <v>1</v>
       </c>
-      <c r="M90" s="55" t="s">
+      <c r="M90" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90" s="66"/>
+      <c r="O90" s="66"/>
+      <c r="P90" s="66"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N91" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N90" s="55"/>
-      <c r="O90" s="55"/>
-      <c r="P90" s="55"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75">
-      <c r="A91" t="s">
+      <c r="O91" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M91" s="41" t="s">
+      <c r="P91" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N91" s="48" t="s">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>26</v>
-      </c>
-      <c r="O91" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P91" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="15.75">
-      <c r="A92" t="s">
-        <v>29</v>
       </c>
       <c r="B92">
         <f>(B81/SUM(B81:B90)) * 100</f>
@@ -7483,9 +7419,9 @@
       </c>
       <c r="P92" s="53"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B93">
         <f>(B82/SUM(B81:B90)) * 100</f>
@@ -7541,9 +7477,9 @@
       </c>
       <c r="P93" s="45"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B94">
         <f>(B83/SUM(B81:B90)) * 100</f>
@@ -7599,9 +7535,9 @@
       </c>
       <c r="P94" s="45"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B95">
         <f>SUM(B92:B94)</f>
@@ -7657,58 +7593,58 @@
       </c>
       <c r="P95" s="46"/>
     </row>
-    <row r="96" spans="1:16" ht="15.75">
-      <c r="A96" s="59"/>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="55"/>
       <c r="M96" s="54"/>
       <c r="N96" s="54"/>
       <c r="O96" s="54"/>
       <c r="P96" s="23"/>
     </row>
-    <row r="97" spans="1:16" ht="15.75">
-      <c r="A97" s="59"/>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="55"/>
       <c r="M97" s="54"/>
       <c r="N97" s="54"/>
       <c r="O97" s="54"/>
       <c r="P97" s="23"/>
     </row>
-    <row r="99" spans="1:16" ht="17.100000000000001" thickBot="1">
+    <row r="99" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="F99" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="G99" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="H99" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="I99" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="J99" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="K99" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H99" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I99" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="J99" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="K99" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100" s="11">
         <v>789</v>
@@ -7741,9 +7677,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B101" s="11">
         <v>0</v>
@@ -7776,9 +7712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B102" s="11">
         <v>79</v>
@@ -7811,9 +7747,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B103" s="11">
         <v>1686</v>
@@ -7846,9 +7782,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B104" s="11">
         <v>13134</v>
@@ -7881,9 +7817,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105" s="11">
         <v>2150</v>
@@ -7916,10 +7852,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
-      <c r="A106" t="s">
-        <v>19</v>
-      </c>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B106" s="11">
         <v>0</v>
       </c>
@@ -7951,9 +7884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B107" s="11">
         <v>3</v>
@@ -7986,9 +7919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B108" s="11">
         <v>0</v>
@@ -8021,9 +7954,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B109" s="11">
         <v>8</v>
@@ -8055,16 +7988,16 @@
       <c r="K109" s="11">
         <v>0</v>
       </c>
-      <c r="M109" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N109" s="55"/>
-      <c r="O109" s="55"/>
-      <c r="P109" s="55"/>
-    </row>
-    <row r="110" spans="1:16" ht="15.75">
+      <c r="M109" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109" s="66"/>
+      <c r="O109" s="66"/>
+      <c r="P109" s="66"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -8074,21 +8007,21 @@
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
       <c r="M110" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N110" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O110" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N110" s="48" t="s">
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>26</v>
-      </c>
-      <c r="O110" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P110" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="15.75">
-      <c r="A111" t="s">
-        <v>29</v>
       </c>
       <c r="B111" s="13">
         <f>(B100/SUM(B100:B109)) * 100</f>
@@ -8144,9 +8077,9 @@
       </c>
       <c r="P111" s="53"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B112" s="13">
         <f>(B101/SUM(B100:B109)) * 100</f>
@@ -8202,9 +8135,9 @@
       </c>
       <c r="P112" s="45"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B113" s="15">
         <f>(B102/SUM(B100:B109)) * 100</f>
@@ -8260,9 +8193,9 @@
       </c>
       <c r="P113" s="45"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B114" s="23">
         <f>SUM(B111:B113)</f>
@@ -8318,8 +8251,8 @@
       </c>
       <c r="P114" s="46"/>
     </row>
-    <row r="115" spans="1:16" ht="15.75">
-      <c r="A115" s="59"/>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" s="55"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -8335,8 +8268,8 @@
       <c r="O115" s="54"/>
       <c r="P115" s="23"/>
     </row>
-    <row r="116" spans="1:16" ht="15.75">
-      <c r="A116" s="59"/>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" s="55"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -8352,44 +8285,44 @@
       <c r="O116" s="54"/>
       <c r="P116" s="23"/>
     </row>
-    <row r="118" spans="1:16" ht="17.100000000000001" thickBot="1">
+    <row r="118" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E118" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="F118" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="G118" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="H118" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="I118" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="J118" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="K118" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H118" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K118" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119" s="11">
         <v>0</v>
@@ -8422,9 +8355,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B120" s="11">
         <v>0</v>
@@ -8457,9 +8390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B121" s="11">
         <v>0</v>
@@ -8492,9 +8425,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B122" s="11">
         <v>18</v>
@@ -8527,9 +8460,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B123" s="11">
         <v>14</v>
@@ -8562,9 +8495,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B124" s="11">
         <v>25</v>
@@ -8597,114 +8530,111 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
-      <c r="A125" t="s">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B125" s="11">
+        <v>0</v>
+      </c>
+      <c r="C125" s="11">
+        <v>0</v>
+      </c>
+      <c r="D125" s="11">
+        <v>0</v>
+      </c>
+      <c r="E125" s="16">
+        <v>0</v>
+      </c>
+      <c r="F125" s="11">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0</v>
+      </c>
+      <c r="J125" s="11">
+        <v>0</v>
+      </c>
+      <c r="K125" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="11">
+        <v>0</v>
+      </c>
+      <c r="C126" s="11">
+        <v>0</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0</v>
+      </c>
+      <c r="E126" s="16">
+        <v>0</v>
+      </c>
+      <c r="F126" s="11">
+        <v>0</v>
+      </c>
+      <c r="G126" s="12">
+        <v>0</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0</v>
+      </c>
+      <c r="I126" s="12">
+        <v>0</v>
+      </c>
+      <c r="J126" s="11">
+        <v>0</v>
+      </c>
+      <c r="K126" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="11">
+        <v>0</v>
+      </c>
+      <c r="C127" s="11">
+        <v>0</v>
+      </c>
+      <c r="D127" s="11">
+        <v>0</v>
+      </c>
+      <c r="E127" s="16">
+        <v>0</v>
+      </c>
+      <c r="F127" s="11">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0</v>
+      </c>
+      <c r="H127" s="11">
+        <v>0</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0</v>
+      </c>
+      <c r="J127" s="11">
+        <v>0</v>
+      </c>
+      <c r="K127" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>19</v>
-      </c>
-      <c r="B125" s="11">
-        <v>0</v>
-      </c>
-      <c r="C125" s="11">
-        <v>0</v>
-      </c>
-      <c r="D125" s="11">
-        <v>0</v>
-      </c>
-      <c r="E125" s="16">
-        <v>0</v>
-      </c>
-      <c r="F125" s="11">
-        <v>0</v>
-      </c>
-      <c r="G125" s="12">
-        <v>0</v>
-      </c>
-      <c r="H125" s="11">
-        <v>0</v>
-      </c>
-      <c r="I125" s="12">
-        <v>0</v>
-      </c>
-      <c r="J125" s="11">
-        <v>0</v>
-      </c>
-      <c r="K125" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" s="11">
-        <v>0</v>
-      </c>
-      <c r="C126" s="11">
-        <v>0</v>
-      </c>
-      <c r="D126" s="11">
-        <v>0</v>
-      </c>
-      <c r="E126" s="16">
-        <v>0</v>
-      </c>
-      <c r="F126" s="11">
-        <v>0</v>
-      </c>
-      <c r="G126" s="12">
-        <v>0</v>
-      </c>
-      <c r="H126" s="11">
-        <v>0</v>
-      </c>
-      <c r="I126" s="12">
-        <v>0</v>
-      </c>
-      <c r="J126" s="11">
-        <v>0</v>
-      </c>
-      <c r="K126" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="11">
-        <v>0</v>
-      </c>
-      <c r="C127" s="11">
-        <v>0</v>
-      </c>
-      <c r="D127" s="11">
-        <v>0</v>
-      </c>
-      <c r="E127" s="16">
-        <v>0</v>
-      </c>
-      <c r="F127" s="11">
-        <v>0</v>
-      </c>
-      <c r="G127" s="12">
-        <v>0</v>
-      </c>
-      <c r="H127" s="11">
-        <v>0</v>
-      </c>
-      <c r="I127" s="12">
-        <v>0</v>
-      </c>
-      <c r="J127" s="11">
-        <v>0</v>
-      </c>
-      <c r="K127" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="15.75">
-      <c r="A128" t="s">
-        <v>22</v>
       </c>
       <c r="B128" s="11">
         <v>0</v>
@@ -8736,16 +8666,16 @@
       <c r="K128" s="11">
         <v>0</v>
       </c>
-      <c r="M128" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N128" s="55"/>
-      <c r="O128" s="55"/>
-      <c r="P128" s="55"/>
-    </row>
-    <row r="129" spans="1:17" ht="15.75">
+      <c r="M128" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="66"/>
+      <c r="O128" s="66"/>
+      <c r="P128" s="66"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B129" s="13">
         <v>15</v>
@@ -8778,21 +8708,21 @@
         <v>103</v>
       </c>
       <c r="M129" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N129" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O129" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P129" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N129" s="48" t="s">
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>26</v>
-      </c>
-      <c r="O129" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P129" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="15.75">
-      <c r="A130" t="s">
-        <v>29</v>
       </c>
       <c r="B130" s="13">
         <f>B119/SUM(B119:B128)*100</f>
@@ -8848,9 +8778,9 @@
       </c>
       <c r="P130" s="53"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B131" s="13">
         <f>B120/SUM(B119:B128)*100</f>
@@ -8906,9 +8836,9 @@
       </c>
       <c r="P131" s="45"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B132" s="13">
         <f>B121/SUM(B119:B128)*100</f>
@@ -8964,9 +8894,9 @@
       </c>
       <c r="P132" s="45"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B133" s="15">
         <f>SUM(B130:B132)</f>
@@ -9022,8 +8952,8 @@
       </c>
       <c r="P133" s="46"/>
     </row>
-    <row r="134" spans="1:17" ht="15.75">
-      <c r="A134" s="59"/>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" s="55"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -9039,8 +8969,8 @@
       <c r="O134" s="54"/>
       <c r="P134" s="23"/>
     </row>
-    <row r="135" spans="1:17" ht="15.75">
-      <c r="A135" s="59"/>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" s="55"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -9056,100 +8986,100 @@
       <c r="O135" s="54"/>
       <c r="P135" s="23"/>
     </row>
-    <row r="137" spans="1:17" ht="17.100000000000001" thickBot="1">
+    <row r="137" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E137" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="F137" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="G137" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D137" s="21" t="s">
+      <c r="H137" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="I137" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="J137" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G137" s="21" t="s">
+      <c r="K137" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H137" s="21" t="s">
+      <c r="L137" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I137" s="21" t="s">
+      <c r="M137" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J137" s="21" t="s">
+      <c r="N137" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="K137" s="21" t="s">
+      <c r="O137" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="L137" s="22" t="s">
+      <c r="P137" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="M137" s="19" t="s">
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="N137" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O137" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="P137" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
-      <c r="A138" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H138" s="28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="12"/>
       <c r="K138" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L138" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M138" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N138" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O138" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P138" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q138" s="31"/>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B139" s="11">
         <v>4</v>
@@ -9197,9 +9127,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B140" s="11">
         <v>0</v>
@@ -9247,9 +9177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B141" s="11">
         <v>4</v>
@@ -9297,9 +9227,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B142" s="11">
         <v>58</v>
@@ -9347,9 +9277,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B143" s="11">
         <v>48</v>
@@ -9397,9 +9327,9 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B144" s="11">
         <v>38</v>
@@ -9447,10 +9377,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
-      <c r="A145" t="s">
-        <v>19</v>
-      </c>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B145" s="11">
         <v>0</v>
       </c>
@@ -9497,9 +9424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="15.75">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B146" s="11">
         <v>0</v>
@@ -9547,9 +9474,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15.75">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B147" s="11">
         <v>0</v>
@@ -9597,9 +9524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="15.95" customHeight="1">
+    <row r="148" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B148" s="13">
         <v>0</v>
@@ -9646,16 +9573,16 @@
       <c r="P148" s="33">
         <v>14</v>
       </c>
-      <c r="R148" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="S148" s="55"/>
-      <c r="T148" s="55"/>
-      <c r="U148" s="55"/>
-    </row>
-    <row r="149" spans="1:21" ht="15.75">
+      <c r="R148" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="S148" s="66"/>
+      <c r="T148" s="66"/>
+      <c r="U148" s="66"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13">
@@ -9691,21 +9618,21 @@
       </c>
       <c r="P149" s="33"/>
       <c r="R149" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="S149" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="T149" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="U149" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="S149" s="48" t="s">
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>26</v>
-      </c>
-      <c r="T149" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="U149" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" ht="15.75">
-      <c r="A150" t="s">
-        <v>29</v>
       </c>
       <c r="B150" s="13">
         <f>(B139/SUM(B139:B148)) * 100</f>
@@ -9781,9 +9708,9 @@
       </c>
       <c r="U150" s="53"/>
     </row>
-    <row r="151" spans="1:21" ht="15.75">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B151" s="13">
         <f>(B141/SUM(B139:B148)) * 100</f>
@@ -9859,9 +9786,9 @@
       </c>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" ht="17.100000000000001" thickBot="1">
+    <row r="152" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B152" s="15">
         <f>(B140/SUM(B139:B148)) * 100</f>
@@ -9937,9 +9864,9 @@
       </c>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" ht="17.100000000000001" thickBot="1">
+    <row r="153" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B153" s="8">
         <f>SUM(B150:B152)</f>
@@ -10015,7 +9942,7 @@
       </c>
       <c r="U153" s="46"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -10031,7 +9958,7 @@
       <c r="O154" s="11"/>
       <c r="P154" s="32"/>
     </row>
-    <row r="155" spans="1:21" ht="15.75">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B155" s="54"/>
       <c r="C155" s="54"/>
       <c r="D155" s="54"/>
@@ -10047,7 +9974,7 @@
       <c r="O155" s="54"/>
       <c r="P155" s="54"/>
     </row>
-    <row r="156" spans="1:21" ht="15.75">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B156" s="54"/>
       <c r="C156" s="54"/>
       <c r="D156" s="54"/>
@@ -10063,45 +9990,44 @@
       <c r="O156" s="54"/>
       <c r="P156" s="54"/>
     </row>
-    <row r="157" spans="1:21" ht="15.75"/>
-    <row r="158" spans="1:21" ht="15.75">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="J158" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="K158" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" ht="15.75">
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -10134,9 +10060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="15.75">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -10169,9 +10095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="15.75">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -10204,9 +10130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="15.75">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B162">
         <v>51</v>
@@ -10239,9 +10165,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="15.75">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B163">
         <v>182</v>
@@ -10274,9 +10200,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="15.75">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B164">
         <v>93</v>
@@ -10309,10 +10235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="15.75">
-      <c r="A165" t="s">
-        <v>68</v>
-      </c>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>0</v>
       </c>
@@ -10344,9 +10267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="15.75">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -10379,9 +10302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="15.75">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -10413,16 +10336,16 @@
       <c r="K167">
         <v>0</v>
       </c>
-      <c r="M167" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="N167" s="57"/>
-      <c r="O167" s="57"/>
-      <c r="P167" s="58"/>
-    </row>
-    <row r="168" spans="1:18" ht="15.75">
+      <c r="M167" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N167" s="61"/>
+      <c r="O167" s="61"/>
+      <c r="P167" s="62"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -10455,22 +10378,22 @@
         <v>0</v>
       </c>
       <c r="M168" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N168" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O168" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P168" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N168" s="39" t="s">
+      <c r="R168" s="38"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A169" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="O168" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P168" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="R168" s="38"/>
-    </row>
-    <row r="169" spans="1:18" ht="15.75">
-      <c r="A169" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="B169">
         <f>B159/SUM(B159:B168)*100</f>
@@ -10526,9 +10449,9 @@
       </c>
       <c r="P169" s="45"/>
     </row>
-    <row r="170" spans="1:18" ht="15.75">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B170">
         <f>B160/SUM(B159:B168)*100</f>
@@ -10584,9 +10507,9 @@
       </c>
       <c r="P170" s="45"/>
     </row>
-    <row r="171" spans="1:18" ht="15.75">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B171">
         <f>B161/SUM(B159:B168)*100</f>
@@ -10642,9 +10565,9 @@
       </c>
       <c r="P171" s="45"/>
     </row>
-    <row r="172" spans="1:18" ht="15.75">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B172">
         <f>SUM(B169:B171)</f>
@@ -10700,51 +10623,50 @@
       </c>
       <c r="P172" s="46"/>
     </row>
-    <row r="173" spans="1:18" ht="15.75">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
     </row>
-    <row r="174" spans="1:18" ht="15.75"/>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>136</v>
+      </c>
+      <c r="B176" t="s">
+        <v>137</v>
+      </c>
+      <c r="C176" t="s">
+        <v>138</v>
+      </c>
+      <c r="D176" t="s">
+        <v>139</v>
+      </c>
+      <c r="E176" t="s">
         <v>140</v>
       </c>
-      <c r="B176" t="s">
+      <c r="F176" t="s">
         <v>141</v>
       </c>
-      <c r="C176" t="s">
+      <c r="G176" t="s">
         <v>142</v>
       </c>
-      <c r="D176" t="s">
+      <c r="H176" t="s">
         <v>143</v>
       </c>
-      <c r="E176" t="s">
+      <c r="I176" t="s">
         <v>144</v>
       </c>
-      <c r="F176" t="s">
+      <c r="J176" t="s">
         <v>145</v>
       </c>
-      <c r="G176" t="s">
+      <c r="K176" t="s">
         <v>146</v>
       </c>
-      <c r="H176" t="s">
-        <v>147</v>
-      </c>
-      <c r="I176" t="s">
-        <v>148</v>
-      </c>
-      <c r="J176" t="s">
-        <v>149</v>
-      </c>
-      <c r="K176" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B177">
         <v>69</v>
@@ -10777,9 +10699,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -10812,9 +10734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B179">
         <v>91</v>
@@ -10847,9 +10769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B180">
         <v>169</v>
@@ -10882,9 +10804,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B181">
         <v>785</v>
@@ -10917,9 +10839,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B182">
         <v>258</v>
@@ -10952,10 +10874,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
-      <c r="A183" t="s">
-        <v>19</v>
-      </c>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B183">
         <v>0</v>
       </c>
@@ -10987,9 +10906,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -11022,9 +10941,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -11057,9 +10976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15.75">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -11091,16 +11010,16 @@
       <c r="K186">
         <v>1</v>
       </c>
-      <c r="M186" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="N186" s="57"/>
-      <c r="O186" s="57"/>
-      <c r="P186" s="58"/>
-    </row>
-    <row r="187" spans="1:16" ht="15.75">
+      <c r="M186" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N186" s="61"/>
+      <c r="O186" s="61"/>
+      <c r="P186" s="62"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B187">
         <v>38</v>
@@ -11133,21 +11052,21 @@
         <v>56</v>
       </c>
       <c r="M187" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O187" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P187" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N187" s="39" t="s">
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>26</v>
-      </c>
-      <c r="O187" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P187" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16">
-      <c r="A188" t="s">
-        <v>29</v>
       </c>
       <c r="B188" s="13">
         <f>B177/SUM(B177:B186)*100</f>
@@ -11203,9 +11122,9 @@
       </c>
       <c r="P188" s="45"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B189" s="13">
         <f>B178/SUM(B177:B186)*100</f>
@@ -11261,9 +11180,9 @@
       </c>
       <c r="P189" s="45"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B190" s="13">
         <f>B179/SUM(B177:B186)*100</f>
@@ -11319,9 +11238,9 @@
       </c>
       <c r="P190" s="45"/>
     </row>
-    <row r="191" spans="1:16">
-      <c r="A191" s="60" t="s">
-        <v>32</v>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A191" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="B191" s="13">
         <f>SUM(B188:B190)</f>
@@ -11377,36 +11296,35 @@
       </c>
       <c r="P191" s="46"/>
     </row>
-    <row r="193" spans="12:17" ht="15.75"/>
-    <row r="194" spans="12:17" ht="15.75">
-      <c r="M194" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="N194" s="65"/>
-      <c r="O194" s="65"/>
-      <c r="P194" s="65"/>
-      <c r="Q194" s="66"/>
-    </row>
-    <row r="195" spans="12:17" ht="15.75">
-      <c r="M195" s="61" t="s">
+    <row r="194" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="M194" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="N194" s="64"/>
+      <c r="O194" s="64"/>
+      <c r="P194" s="64"/>
+      <c r="Q194" s="65"/>
+    </row>
+    <row r="195" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="M195" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="O195" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="P195" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="N195" s="61" t="s">
+      <c r="Q195" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="196" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L196" s="58" t="s">
         <v>26</v>
-      </c>
-      <c r="O195" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P195" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q195" s="61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="196" spans="12:17" ht="15.75">
-      <c r="L196" s="62" t="s">
-        <v>29</v>
       </c>
       <c r="M196" s="38">
         <v>15.6862745</v>
@@ -11426,9 +11344,9 @@
         <v>2.2961292895796741</v>
       </c>
     </row>
-    <row r="197" spans="12:17" ht="15.75">
-      <c r="L197" s="63" t="s">
-        <v>80</v>
+    <row r="197" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L197" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="M197" s="38">
         <v>13.3359936</v>
@@ -11446,9 +11364,9 @@
         <v>0.83441732142533187</v>
       </c>
     </row>
-    <row r="198" spans="12:17" ht="15.75">
-      <c r="L198" s="62" t="s">
-        <v>81</v>
+    <row r="198" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L198" s="58" t="s">
+        <v>77</v>
       </c>
       <c r="M198" s="38">
         <v>14.2791762</v>
@@ -11468,9 +11386,9 @@
         <v>1.1588949501015127</v>
       </c>
     </row>
-    <row r="199" spans="12:17" ht="15.75">
-      <c r="L199" s="62" t="s">
-        <v>32</v>
+    <row r="199" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L199" s="58" t="s">
+        <v>29</v>
       </c>
       <c r="M199" s="38">
         <v>19.137254899999999</v>
@@ -11490,20 +11408,19 @@
         <v>4.289441561106516</v>
       </c>
     </row>
-    <row r="200" spans="12:17" ht="15.75"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M186:P186"/>
-    <mergeCell ref="M194:Q194"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M33:P33"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M90:P90"/>
     <mergeCell ref="M167:P167"/>
     <mergeCell ref="R148:U148"/>
     <mergeCell ref="M128:P128"/>
     <mergeCell ref="M109:P109"/>
+    <mergeCell ref="M186:P186"/>
+    <mergeCell ref="M194:Q194"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
